--- a/public/excel/AIOC数据表单.xlsx
+++ b/public/excel/AIOC数据表单.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="177">
   <si>
     <t>AIOC数据模版</t>
   </si>
@@ -74,22 +74,22 @@
     <t>月</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>水能耗</t>
+  </si>
+  <si>
+    <t>（m³）</t>
+  </si>
+  <si>
+    <t>上升</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>/</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>水能耗</t>
-  </si>
-  <si>
-    <t>（m³）</t>
-  </si>
-  <si>
-    <t>上升</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>气能耗</t>
@@ -1649,7 +1649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2163,143 +2163,137 @@
     <xf numFmtId="178" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2665,10 +2659,10 @@
   <sheetPr/>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J28:J29"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -2699,7 +2693,7 @@
       <c r="G1" s="150"/>
       <c r="H1" s="150"/>
       <c r="I1" s="150"/>
-      <c r="J1" s="213"/>
+      <c r="J1" s="210"/>
     </row>
     <row r="2" s="145" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A2" s="153"/>
@@ -2711,7 +2705,7 @@
       <c r="G2" s="154"/>
       <c r="H2" s="154"/>
       <c r="I2" s="154"/>
-      <c r="J2" s="214"/>
+      <c r="J2" s="211"/>
     </row>
     <row r="3" s="146" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="157" t="s">
@@ -2725,7 +2719,7 @@
       <c r="G3" s="158"/>
       <c r="H3" s="158"/>
       <c r="I3" s="158"/>
-      <c r="J3" s="215"/>
+      <c r="J3" s="212"/>
     </row>
     <row r="4" s="145" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A4" s="159" t="s">
@@ -2747,7 +2741,7 @@
       <c r="G4" s="160"/>
       <c r="H4" s="160"/>
       <c r="I4" s="160"/>
-      <c r="J4" s="216"/>
+      <c r="J4" s="213"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:10">
       <c r="A5" s="163" t="s">
@@ -2783,52 +2777,52 @@
       <c r="C6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="171"/>
+      <c r="D6" s="166">
+        <v>22350</v>
+      </c>
+      <c r="E6" s="167" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="170">
+        <v>25</v>
+      </c>
+      <c r="I6" s="214"/>
       <c r="J6" s="124"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:10">
       <c r="A7" s="163"/>
       <c r="B7" s="167"/>
       <c r="C7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="171"/>
+      <c r="D7" s="166">
+        <v>22350</v>
+      </c>
+      <c r="E7" s="167" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="170">
+        <v>25</v>
+      </c>
+      <c r="I7" s="214"/>
       <c r="J7" s="124"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:10">
       <c r="A8" s="163"/>
-      <c r="B8" s="173" t="s">
-        <v>16</v>
+      <c r="B8" s="171" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>9</v>
@@ -2837,19 +2831,19 @@
         <v>124</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="175" t="s">
+      <c r="H8" s="174">
+        <v>10.51</v>
+      </c>
+      <c r="I8" s="172" t="s">
         <v>18</v>
-      </c>
-      <c r="H8" s="176">
-        <v>10.51</v>
-      </c>
-      <c r="I8" s="174" t="s">
-        <v>19</v>
       </c>
       <c r="J8" s="124"/>
     </row>
@@ -2859,23 +2853,23 @@
       <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="171" t="s">
-        <v>14</v>
+      <c r="D9" s="97">
+        <v>124</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="171" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G9" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="174">
+        <v>10.51</v>
+      </c>
+      <c r="I9" s="214" t="s">
+        <v>19</v>
       </c>
       <c r="J9" s="124"/>
     </row>
@@ -2883,31 +2877,31 @@
       <c r="A10" s="163"/>
       <c r="B10" s="167"/>
       <c r="C10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="171" t="s">
-        <v>14</v>
+      <c r="D10" s="97">
+        <v>124</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="171" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G10" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="174">
+        <v>10.51</v>
+      </c>
+      <c r="I10" s="214" t="s">
+        <v>19</v>
       </c>
       <c r="J10" s="124"/>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:10">
       <c r="A11" s="163"/>
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="171" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -2917,19 +2911,19 @@
         <v>1280</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="175" t="s">
+      <c r="H11" s="174">
+        <v>3.15</v>
+      </c>
+      <c r="I11" s="172" t="s">
         <v>18</v>
-      </c>
-      <c r="H11" s="176">
-        <v>3.15</v>
-      </c>
-      <c r="I11" s="174" t="s">
-        <v>19</v>
       </c>
       <c r="J11" s="124"/>
     </row>
@@ -2939,23 +2933,23 @@
       <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="171" t="s">
-        <v>14</v>
+      <c r="D12" s="97">
+        <v>1280</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="171" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G12" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="174">
+        <v>3.15</v>
+      </c>
+      <c r="I12" s="214" t="s">
+        <v>19</v>
       </c>
       <c r="J12" s="124"/>
     </row>
@@ -2963,31 +2957,31 @@
       <c r="A13" s="163"/>
       <c r="B13" s="167"/>
       <c r="C13" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="171" t="s">
-        <v>14</v>
+      <c r="D13" s="97">
+        <v>1280</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F13" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="171" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G13" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="174">
+        <v>3.15</v>
+      </c>
+      <c r="I13" s="214" t="s">
+        <v>19</v>
       </c>
       <c r="J13" s="124"/>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:10">
       <c r="A14" s="163"/>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="171" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -3011,39 +3005,39 @@
       <c r="C15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="172"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
+      <c r="D15" s="97">
+        <v>9248</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="175"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
       <c r="J15" s="125"/>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:10">
       <c r="A16" s="163"/>
       <c r="B16" s="167"/>
       <c r="C16" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="172"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
+      <c r="D16" s="97">
+        <v>9248</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="175"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
       <c r="J16" s="125"/>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:10">
       <c r="A17" s="163"/>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="171" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="28" t="s">
@@ -3052,11 +3046,11 @@
       <c r="D17" s="97">
         <v>4248</v>
       </c>
-      <c r="E17" s="176">
+      <c r="E17" s="174">
         <v>45.9342560553633</v>
       </c>
-      <c r="F17" s="178" t="s">
-        <v>19</v>
+      <c r="F17" s="177" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="101"/>
       <c r="H17" s="101"/>
@@ -3069,43 +3063,43 @@
       <c r="C18" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
+      <c r="D18" s="97">
+        <v>4248</v>
+      </c>
+      <c r="E18" s="174">
+        <v>45.9342560553633</v>
+      </c>
+      <c r="F18" s="177" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
       <c r="J18" s="125"/>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:10">
       <c r="A19" s="163"/>
       <c r="B19" s="167"/>
       <c r="C19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
+      <c r="D19" s="97">
+        <v>4248</v>
+      </c>
+      <c r="E19" s="174">
+        <v>45.9342560553633</v>
+      </c>
+      <c r="F19" s="177" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
       <c r="J19" s="125"/>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:10">
       <c r="A20" s="163"/>
-      <c r="B20" s="173" t="s">
+      <c r="B20" s="171" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -3114,11 +3108,11 @@
       <c r="D20" s="97">
         <v>3000</v>
       </c>
-      <c r="E20" s="176">
+      <c r="E20" s="174">
         <v>32.439446366782</v>
       </c>
-      <c r="F20" s="178" t="s">
-        <v>19</v>
+      <c r="F20" s="177" t="s">
+        <v>18</v>
       </c>
       <c r="G20" s="101"/>
       <c r="H20" s="101"/>
@@ -3131,39 +3125,39 @@
       <c r="C21" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="217"/>
+      <c r="D21" s="97">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="174">
+        <v>32.439446366782</v>
+      </c>
+      <c r="F21" s="177" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="215"/>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:10">
       <c r="A22" s="163"/>
       <c r="B22" s="164"/>
       <c r="C22" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="217"/>
+      <c r="D22" s="97">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="174">
+        <v>32.439446366782</v>
+      </c>
+      <c r="F22" s="177" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="215"/>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:10">
       <c r="A23" s="163"/>
@@ -3176,11 +3170,11 @@
       <c r="D23" s="97">
         <v>2000</v>
       </c>
-      <c r="E23" s="176">
+      <c r="E23" s="174">
         <v>21.6262975778547</v>
       </c>
-      <c r="F23" s="178" t="s">
-        <v>19</v>
+      <c r="F23" s="177" t="s">
+        <v>18</v>
       </c>
       <c r="G23" s="101"/>
       <c r="H23" s="101"/>
@@ -3193,90 +3187,90 @@
       <c r="C24" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="171" t="s">
+      <c r="D24" s="97">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="174">
+        <v>21.6262975778547</v>
+      </c>
+      <c r="F24" s="177" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="216"/>
+    </row>
+    <row r="25" s="147" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A25" s="180"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="218"/>
-    </row>
-    <row r="25" s="147" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A25" s="181"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="182" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="183" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="183" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="219"/>
+      <c r="D25" s="97">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="174">
+        <v>21.6262975778547</v>
+      </c>
+      <c r="F25" s="177" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="217"/>
     </row>
     <row r="26" s="147" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="187" t="s">
+      <c r="B26" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="189"/>
-      <c r="G26" s="190" t="s">
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="191"/>
-      <c r="I26" s="187" t="s">
+      <c r="H26" s="188"/>
+      <c r="I26" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="189"/>
+      <c r="J26" s="186"/>
     </row>
     <row r="27" s="147" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A27" s="192"/>
+      <c r="A27" s="189"/>
       <c r="B27" s="137" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="193"/>
+      <c r="D27" s="190"/>
       <c r="E27" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="194" t="s">
+      <c r="F27" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="195" t="s">
+      <c r="G27" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="196" t="s">
+      <c r="H27" s="193" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="220" t="s">
+      <c r="I27" s="218" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="221" t="s">
+      <c r="J27" s="219" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:10">
-      <c r="A28" s="192"/>
+      <c r="A28" s="189"/>
       <c r="B28" s="137" t="s">
         <v>34</v>
       </c>
@@ -3289,24 +3283,24 @@
       <c r="E28" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="197">
+      <c r="F28" s="194">
         <v>4100</v>
       </c>
-      <c r="G28" s="198">
+      <c r="G28" s="195">
         <v>12750</v>
       </c>
-      <c r="H28" s="197">
+      <c r="H28" s="194">
         <v>123000</v>
       </c>
-      <c r="I28" s="198">
+      <c r="I28" s="195">
         <v>153000</v>
       </c>
-      <c r="J28" s="197">
+      <c r="J28" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:10">
-      <c r="A29" s="192"/>
+      <c r="A29" s="189"/>
       <c r="B29" s="137" t="s">
         <v>38</v>
       </c>
@@ -3319,24 +3313,24 @@
       <c r="E29" s="97">
         <v>426</v>
       </c>
-      <c r="F29" s="197">
+      <c r="F29" s="194">
         <v>4100</v>
       </c>
-      <c r="G29" s="198">
+      <c r="G29" s="195">
         <v>12780</v>
       </c>
-      <c r="H29" s="197">
+      <c r="H29" s="194">
         <v>123000</v>
       </c>
-      <c r="I29" s="198">
+      <c r="I29" s="195">
         <v>153360</v>
       </c>
-      <c r="J29" s="197">
+      <c r="J29" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:10">
-      <c r="A30" s="192"/>
+      <c r="A30" s="189"/>
       <c r="B30" s="137" t="s">
         <v>39</v>
       </c>
@@ -3349,24 +3343,24 @@
       <c r="E30" s="97">
         <v>427</v>
       </c>
-      <c r="F30" s="197">
+      <c r="F30" s="194">
         <v>4100</v>
       </c>
-      <c r="G30" s="198">
+      <c r="G30" s="195">
         <v>12810</v>
       </c>
-      <c r="H30" s="197">
+      <c r="H30" s="194">
         <v>123000</v>
       </c>
-      <c r="I30" s="198">
+      <c r="I30" s="195">
         <v>153720</v>
       </c>
-      <c r="J30" s="197">
+      <c r="J30" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:10">
-      <c r="A31" s="192"/>
+      <c r="A31" s="189"/>
       <c r="B31" s="137" t="s">
         <v>34</v>
       </c>
@@ -3379,24 +3373,24 @@
       <c r="E31" s="97">
         <v>1428</v>
       </c>
-      <c r="F31" s="197">
+      <c r="F31" s="194">
         <v>4100</v>
       </c>
-      <c r="G31" s="198">
+      <c r="G31" s="195">
         <v>42840</v>
       </c>
-      <c r="H31" s="197">
+      <c r="H31" s="194">
         <v>123000</v>
       </c>
-      <c r="I31" s="198">
+      <c r="I31" s="195">
         <v>514080</v>
       </c>
-      <c r="J31" s="197">
+      <c r="J31" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:10">
-      <c r="A32" s="192"/>
+      <c r="A32" s="189"/>
       <c r="B32" s="137" t="s">
         <v>38</v>
       </c>
@@ -3409,24 +3403,24 @@
       <c r="E32" s="97">
         <v>1428</v>
       </c>
-      <c r="F32" s="197">
+      <c r="F32" s="194">
         <v>4100</v>
       </c>
-      <c r="G32" s="198">
+      <c r="G32" s="195">
         <v>42840</v>
       </c>
-      <c r="H32" s="197">
+      <c r="H32" s="194">
         <v>123000</v>
       </c>
-      <c r="I32" s="198">
+      <c r="I32" s="195">
         <v>514080</v>
       </c>
-      <c r="J32" s="197">
+      <c r="J32" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:10">
-      <c r="A33" s="192"/>
+      <c r="A33" s="189"/>
       <c r="B33" s="137" t="s">
         <v>39</v>
       </c>
@@ -3439,24 +3433,24 @@
       <c r="E33" s="97">
         <v>1428</v>
       </c>
-      <c r="F33" s="197">
+      <c r="F33" s="194">
         <v>4100</v>
       </c>
-      <c r="G33" s="198">
+      <c r="G33" s="195">
         <v>42840</v>
       </c>
-      <c r="H33" s="197">
+      <c r="H33" s="194">
         <v>123000</v>
       </c>
-      <c r="I33" s="198">
+      <c r="I33" s="195">
         <v>514080</v>
       </c>
-      <c r="J33" s="197">
+      <c r="J33" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:10">
-      <c r="A34" s="192"/>
+      <c r="A34" s="189"/>
       <c r="B34" s="137" t="s">
         <v>34</v>
       </c>
@@ -3469,24 +3463,24 @@
       <c r="E34" s="97">
         <v>235</v>
       </c>
-      <c r="F34" s="197">
+      <c r="F34" s="194">
         <v>4100</v>
       </c>
-      <c r="G34" s="198">
+      <c r="G34" s="195">
         <v>7050</v>
       </c>
-      <c r="H34" s="197">
+      <c r="H34" s="194">
         <v>123000</v>
       </c>
-      <c r="I34" s="198">
+      <c r="I34" s="195">
         <v>84600</v>
       </c>
-      <c r="J34" s="197">
+      <c r="J34" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:10">
-      <c r="A35" s="192"/>
+      <c r="A35" s="189"/>
       <c r="B35" s="137" t="s">
         <v>38</v>
       </c>
@@ -3499,24 +3493,24 @@
       <c r="E35" s="97">
         <v>235</v>
       </c>
-      <c r="F35" s="197">
+      <c r="F35" s="194">
         <v>4100</v>
       </c>
-      <c r="G35" s="198">
+      <c r="G35" s="195">
         <v>7050</v>
       </c>
-      <c r="H35" s="197">
+      <c r="H35" s="194">
         <v>123000</v>
       </c>
-      <c r="I35" s="198">
+      <c r="I35" s="195">
         <v>84600</v>
       </c>
-      <c r="J35" s="197">
+      <c r="J35" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:10">
-      <c r="A36" s="192"/>
+      <c r="A36" s="189"/>
       <c r="B36" s="137" t="s">
         <v>39</v>
       </c>
@@ -3529,24 +3523,24 @@
       <c r="E36" s="97">
         <v>235</v>
       </c>
-      <c r="F36" s="197">
+      <c r="F36" s="194">
         <v>4100</v>
       </c>
-      <c r="G36" s="198">
+      <c r="G36" s="195">
         <v>7050</v>
       </c>
-      <c r="H36" s="197">
+      <c r="H36" s="194">
         <v>123000</v>
       </c>
-      <c r="I36" s="198">
+      <c r="I36" s="195">
         <v>84600</v>
       </c>
-      <c r="J36" s="197">
+      <c r="J36" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:10">
-      <c r="A37" s="192"/>
+      <c r="A37" s="189"/>
       <c r="B37" s="137" t="s">
         <v>43</v>
       </c>
@@ -3559,24 +3553,24 @@
       <c r="E37" s="97">
         <v>434</v>
       </c>
-      <c r="F37" s="197">
+      <c r="F37" s="194">
         <v>4100</v>
       </c>
-      <c r="G37" s="198">
+      <c r="G37" s="195">
         <v>13020</v>
       </c>
-      <c r="H37" s="197">
+      <c r="H37" s="194">
         <v>123000</v>
       </c>
-      <c r="I37" s="198">
+      <c r="I37" s="195">
         <v>156240</v>
       </c>
-      <c r="J37" s="197">
+      <c r="J37" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:10">
-      <c r="A38" s="192"/>
+      <c r="A38" s="189"/>
       <c r="B38" s="137" t="s">
         <v>44</v>
       </c>
@@ -3589,24 +3583,24 @@
       <c r="E38" s="97">
         <v>435</v>
       </c>
-      <c r="F38" s="197">
+      <c r="F38" s="194">
         <v>4100</v>
       </c>
-      <c r="G38" s="198">
+      <c r="G38" s="195">
         <v>13020</v>
       </c>
-      <c r="H38" s="197">
+      <c r="H38" s="194">
         <v>123000</v>
       </c>
-      <c r="I38" s="198">
+      <c r="I38" s="195">
         <v>156240</v>
       </c>
-      <c r="J38" s="197">
+      <c r="J38" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:10">
-      <c r="A39" s="192"/>
+      <c r="A39" s="189"/>
       <c r="B39" s="137" t="s">
         <v>45</v>
       </c>
@@ -3619,24 +3613,24 @@
       <c r="E39" s="97">
         <v>436</v>
       </c>
-      <c r="F39" s="197">
+      <c r="F39" s="194">
         <v>4100</v>
       </c>
-      <c r="G39" s="198">
+      <c r="G39" s="195">
         <v>13020</v>
       </c>
-      <c r="H39" s="197">
+      <c r="H39" s="194">
         <v>123000</v>
       </c>
-      <c r="I39" s="198">
+      <c r="I39" s="195">
         <v>156240</v>
       </c>
-      <c r="J39" s="197">
+      <c r="J39" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:10">
-      <c r="A40" s="192"/>
+      <c r="A40" s="189"/>
       <c r="B40" s="137" t="s">
         <v>43</v>
       </c>
@@ -3649,24 +3643,24 @@
       <c r="E40" s="97">
         <v>2437</v>
       </c>
-      <c r="F40" s="197">
+      <c r="F40" s="194">
         <v>4100</v>
       </c>
-      <c r="G40" s="198">
+      <c r="G40" s="195">
         <v>73110</v>
       </c>
-      <c r="H40" s="197">
+      <c r="H40" s="194">
         <v>123000</v>
       </c>
-      <c r="I40" s="198">
+      <c r="I40" s="195">
         <v>877320</v>
       </c>
-      <c r="J40" s="197">
+      <c r="J40" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:10">
-      <c r="A41" s="192"/>
+      <c r="A41" s="189"/>
       <c r="B41" s="137" t="s">
         <v>44</v>
       </c>
@@ -3679,24 +3673,24 @@
       <c r="E41" s="97">
         <v>2437</v>
       </c>
-      <c r="F41" s="197">
+      <c r="F41" s="194">
         <v>4100</v>
       </c>
-      <c r="G41" s="198">
+      <c r="G41" s="195">
         <v>73110</v>
       </c>
-      <c r="H41" s="197">
+      <c r="H41" s="194">
         <v>123000</v>
       </c>
-      <c r="I41" s="198">
+      <c r="I41" s="195">
         <v>877320</v>
       </c>
-      <c r="J41" s="197">
+      <c r="J41" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="42" ht="16" customHeight="1" spans="1:10">
-      <c r="A42" s="192"/>
+      <c r="A42" s="189"/>
       <c r="B42" s="137" t="s">
         <v>45</v>
       </c>
@@ -3709,24 +3703,24 @@
       <c r="E42" s="97">
         <v>2437</v>
       </c>
-      <c r="F42" s="197">
+      <c r="F42" s="194">
         <v>4100</v>
       </c>
-      <c r="G42" s="198">
+      <c r="G42" s="195">
         <v>73110</v>
       </c>
-      <c r="H42" s="197">
+      <c r="H42" s="194">
         <v>123000</v>
       </c>
-      <c r="I42" s="198">
+      <c r="I42" s="195">
         <v>877320</v>
       </c>
-      <c r="J42" s="197">
+      <c r="J42" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:10">
-      <c r="A43" s="192"/>
+      <c r="A43" s="189"/>
       <c r="B43" s="137" t="s">
         <v>43</v>
       </c>
@@ -3739,24 +3733,24 @@
       <c r="E43" s="97">
         <v>340</v>
       </c>
-      <c r="F43" s="197">
+      <c r="F43" s="194">
         <v>4100</v>
       </c>
-      <c r="G43" s="198">
+      <c r="G43" s="195">
         <v>10200</v>
       </c>
-      <c r="H43" s="197">
+      <c r="H43" s="194">
         <v>123000</v>
       </c>
-      <c r="I43" s="198">
+      <c r="I43" s="195">
         <v>122400</v>
       </c>
-      <c r="J43" s="197">
+      <c r="J43" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:10">
-      <c r="A44" s="192"/>
+      <c r="A44" s="189"/>
       <c r="B44" s="137" t="s">
         <v>44</v>
       </c>
@@ -3769,24 +3763,24 @@
       <c r="E44" s="97">
         <v>340</v>
       </c>
-      <c r="F44" s="197">
+      <c r="F44" s="194">
         <v>4100</v>
       </c>
-      <c r="G44" s="198">
+      <c r="G44" s="195">
         <v>10200</v>
       </c>
-      <c r="H44" s="197">
+      <c r="H44" s="194">
         <v>123000</v>
       </c>
-      <c r="I44" s="198">
+      <c r="I44" s="195">
         <v>122400</v>
       </c>
-      <c r="J44" s="197">
+      <c r="J44" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1" spans="1:10">
-      <c r="A45" s="192"/>
+      <c r="A45" s="189"/>
       <c r="B45" s="137" t="s">
         <v>45</v>
       </c>
@@ -3799,57 +3793,57 @@
       <c r="E45" s="97">
         <v>340</v>
       </c>
-      <c r="F45" s="197">
+      <c r="F45" s="194">
         <v>4100</v>
       </c>
-      <c r="G45" s="198">
+      <c r="G45" s="195">
         <v>10200</v>
       </c>
-      <c r="H45" s="197">
+      <c r="H45" s="194">
         <v>123000</v>
       </c>
-      <c r="I45" s="198">
+      <c r="I45" s="195">
         <v>122400</v>
       </c>
-      <c r="J45" s="197">
+      <c r="J45" s="194">
         <v>1476000</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:10">
-      <c r="A46" s="192"/>
-      <c r="B46" s="199"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="200"/>
+      <c r="A46" s="189"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="197"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="201"/>
-      <c r="G46" s="199"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="202"/>
+      <c r="F46" s="198"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="199"/>
     </row>
     <row r="47" customFormat="1" spans="1:10">
-      <c r="A47" s="192"/>
-      <c r="B47" s="199"/>
-      <c r="C47" s="180"/>
-      <c r="D47" s="200"/>
+      <c r="A47" s="189"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="197"/>
       <c r="E47" s="27"/>
-      <c r="F47" s="201"/>
-      <c r="G47" s="199"/>
-      <c r="H47" s="202"/>
-      <c r="I47" s="199"/>
-      <c r="J47" s="202"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="199"/>
     </row>
     <row r="48" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A48" s="192"/>
-      <c r="B48" s="203"/>
-      <c r="C48" s="204"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="207"/>
-      <c r="G48" s="203"/>
-      <c r="H48" s="208"/>
-      <c r="I48" s="203"/>
-      <c r="J48" s="208"/>
+      <c r="A48" s="189"/>
+      <c r="B48" s="200"/>
+      <c r="C48" s="201"/>
+      <c r="D48" s="202"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="205"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="205"/>
     </row>
     <row r="49" customFormat="1" spans="1:10">
       <c r="A49" s="110" t="s">
@@ -3858,18 +3852,18 @@
       <c r="B49" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="209"/>
-      <c r="D49" s="210">
+      <c r="C49" s="206"/>
+      <c r="D49" s="207">
         <v>324</v>
       </c>
       <c r="E49" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="211"/>
+      <c r="F49" s="208"/>
       <c r="G49" s="165"/>
       <c r="H49" s="165"/>
       <c r="I49" s="165"/>
-      <c r="J49" s="222"/>
+      <c r="J49" s="220"/>
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="111"/>
@@ -3986,14 +3980,14 @@
       <c r="B56" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="182" t="s">
+      <c r="C56" s="181" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="61">
         <v>33</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F56" s="106"/>
       <c r="G56" s="28"/>
@@ -4006,12 +4000,12 @@
       <c r="B57" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="212"/>
+      <c r="C57" s="209"/>
       <c r="D57" s="61">
         <v>33</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57" s="106"/>
       <c r="G57" s="28"/>
@@ -4024,12 +4018,12 @@
       <c r="B58" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="212"/>
+      <c r="C58" s="209"/>
       <c r="D58" s="61">
         <v>22</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" s="106"/>
       <c r="G58" s="28"/>
@@ -4047,7 +4041,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" s="106"/>
       <c r="G59" s="28"/>
@@ -4069,7 +4063,7 @@
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
-      <c r="J60" s="223"/>
+      <c r="J60" s="221"/>
     </row>
     <row r="61" customFormat="1" spans="1:10">
       <c r="A61" s="111"/>
@@ -4270,10 +4264,10 @@
       <c r="D69" s="117"/>
       <c r="E69" s="116"/>
       <c r="F69" s="118"/>
-      <c r="G69" s="224"/>
+      <c r="G69" s="222"/>
       <c r="H69" s="118"/>
       <c r="I69" s="116"/>
-      <c r="J69" s="232"/>
+      <c r="J69" s="230"/>
     </row>
     <row r="70" s="148" customFormat="1" spans="1:10">
       <c r="A70" s="111"/>
@@ -4282,30 +4276,30 @@
       <c r="D70" s="117"/>
       <c r="E70" s="116"/>
       <c r="F70" s="118"/>
-      <c r="G70" s="224"/>
+      <c r="G70" s="222"/>
       <c r="H70" s="118"/>
       <c r="I70" s="116"/>
-      <c r="J70" s="232"/>
+      <c r="J70" s="230"/>
     </row>
     <row r="71" s="148" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A71" s="225"/>
-      <c r="B71" s="226"/>
-      <c r="C71" s="226"/>
-      <c r="D71" s="227"/>
-      <c r="E71" s="226"/>
-      <c r="F71" s="228"/>
-      <c r="G71" s="229"/>
-      <c r="H71" s="228"/>
-      <c r="I71" s="226"/>
-      <c r="J71" s="233"/>
+      <c r="A71" s="223"/>
+      <c r="B71" s="224"/>
+      <c r="C71" s="224"/>
+      <c r="D71" s="225"/>
+      <c r="E71" s="224"/>
+      <c r="F71" s="226"/>
+      <c r="G71" s="227"/>
+      <c r="H71" s="226"/>
+      <c r="I71" s="224"/>
+      <c r="J71" s="231"/>
     </row>
     <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A72" s="83"/>
       <c r="B72" s="83"/>
       <c r="C72" s="83"/>
-      <c r="D72" s="230"/>
+      <c r="D72" s="228"/>
       <c r="E72" s="83"/>
-      <c r="F72" s="231"/>
+      <c r="F72" s="229"/>
       <c r="G72" s="83"/>
       <c r="H72" s="83"/>
       <c r="I72" s="83"/>
@@ -4318,9 +4312,9 @@
       <c r="A73" s="83"/>
       <c r="B73" s="83"/>
       <c r="C73" s="83"/>
-      <c r="D73" s="230"/>
+      <c r="D73" s="228"/>
       <c r="E73" s="83"/>
-      <c r="F73" s="231"/>
+      <c r="F73" s="229"/>
       <c r="G73" s="83"/>
       <c r="H73" s="83"/>
       <c r="I73" s="83"/>
@@ -4333,9 +4327,9 @@
       <c r="A74" s="83"/>
       <c r="B74" s="83"/>
       <c r="C74" s="83"/>
-      <c r="D74" s="230"/>
+      <c r="D74" s="228"/>
       <c r="E74" s="83"/>
-      <c r="F74" s="231"/>
+      <c r="F74" s="229"/>
       <c r="G74" s="83"/>
       <c r="H74" s="83"/>
       <c r="I74" s="83"/>
@@ -4348,9 +4342,9 @@
       <c r="A75" s="83"/>
       <c r="B75" s="83"/>
       <c r="C75" s="83"/>
-      <c r="D75" s="230"/>
+      <c r="D75" s="228"/>
       <c r="E75" s="83"/>
-      <c r="F75" s="231"/>
+      <c r="F75" s="229"/>
       <c r="G75" s="83"/>
       <c r="H75" s="83"/>
       <c r="I75" s="83"/>
@@ -4363,9 +4357,9 @@
       <c r="A76" s="83"/>
       <c r="B76" s="83"/>
       <c r="C76" s="83"/>
-      <c r="D76" s="230"/>
+      <c r="D76" s="228"/>
       <c r="E76" s="83"/>
-      <c r="F76" s="231"/>
+      <c r="F76" s="229"/>
       <c r="G76" s="83"/>
       <c r="H76" s="83"/>
       <c r="I76" s="83"/>
@@ -4378,9 +4372,9 @@
       <c r="A77" s="83"/>
       <c r="B77" s="83"/>
       <c r="C77" s="83"/>
-      <c r="D77" s="230"/>
+      <c r="D77" s="228"/>
       <c r="E77" s="83"/>
-      <c r="F77" s="231"/>
+      <c r="F77" s="229"/>
       <c r="G77" s="83"/>
       <c r="H77" s="83"/>
       <c r="I77" s="83"/>
@@ -4393,9 +4387,9 @@
       <c r="A78" s="83"/>
       <c r="B78" s="83"/>
       <c r="C78" s="83"/>
-      <c r="D78" s="230"/>
+      <c r="D78" s="228"/>
       <c r="E78" s="83"/>
-      <c r="F78" s="231"/>
+      <c r="F78" s="229"/>
       <c r="G78" s="83"/>
       <c r="H78" s="83"/>
       <c r="I78" s="83"/>
@@ -4408,9 +4402,9 @@
       <c r="A79" s="83"/>
       <c r="B79" s="83"/>
       <c r="C79" s="83"/>
-      <c r="D79" s="230"/>
+      <c r="D79" s="228"/>
       <c r="E79" s="83"/>
-      <c r="F79" s="231"/>
+      <c r="F79" s="229"/>
       <c r="G79" s="83"/>
       <c r="H79" s="83"/>
       <c r="I79" s="83"/>
@@ -4423,9 +4417,9 @@
       <c r="A80" s="83"/>
       <c r="B80" s="83"/>
       <c r="C80" s="83"/>
-      <c r="D80" s="230"/>
+      <c r="D80" s="228"/>
       <c r="E80" s="83"/>
-      <c r="F80" s="231"/>
+      <c r="F80" s="229"/>
       <c r="G80" s="83"/>
       <c r="H80" s="83"/>
       <c r="I80" s="83"/>
@@ -4438,9 +4432,9 @@
       <c r="A81" s="83"/>
       <c r="B81" s="83"/>
       <c r="C81" s="83"/>
-      <c r="D81" s="230"/>
+      <c r="D81" s="228"/>
       <c r="E81" s="83"/>
-      <c r="F81" s="231"/>
+      <c r="F81" s="229"/>
       <c r="G81" s="83"/>
       <c r="H81" s="83"/>
       <c r="I81" s="83"/>
@@ -4453,9 +4447,9 @@
       <c r="A82" s="83"/>
       <c r="B82" s="83"/>
       <c r="C82" s="83"/>
-      <c r="D82" s="230"/>
+      <c r="D82" s="228"/>
       <c r="E82" s="83"/>
-      <c r="F82" s="231"/>
+      <c r="F82" s="229"/>
       <c r="G82" s="83"/>
       <c r="H82" s="83"/>
       <c r="I82" s="83"/>
@@ -4468,9 +4462,9 @@
       <c r="A83" s="83"/>
       <c r="B83" s="83"/>
       <c r="C83" s="83"/>
-      <c r="D83" s="230"/>
+      <c r="D83" s="228"/>
       <c r="E83" s="83"/>
-      <c r="F83" s="231"/>
+      <c r="F83" s="229"/>
       <c r="G83" s="83"/>
       <c r="H83" s="83"/>
       <c r="I83" s="83"/>
@@ -4483,9 +4477,9 @@
       <c r="A84" s="83"/>
       <c r="B84" s="83"/>
       <c r="C84" s="83"/>
-      <c r="D84" s="230"/>
+      <c r="D84" s="228"/>
       <c r="E84" s="83"/>
-      <c r="F84" s="231"/>
+      <c r="F84" s="229"/>
       <c r="G84" s="83"/>
       <c r="H84" s="83"/>
       <c r="I84" s="83"/>
@@ -4529,9 +4523,9 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -5231,7 +5225,7 @@
         <v>12.6</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" s="106"/>
       <c r="G44" s="28"/>
@@ -5252,7 +5246,7 @@
         <v>12.6</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45" s="106"/>
       <c r="G45" s="28"/>
@@ -5273,7 +5267,7 @@
         <v>40.5</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46" s="106"/>
       <c r="G46" s="28"/>
@@ -5302,7 +5296,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47" s="25" t="s">
         <v>133</v>
@@ -5311,7 +5305,7 @@
         <v>12.36</v>
       </c>
       <c r="J47" s="130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K47" s="84"/>
       <c r="L47" s="84"/>
@@ -5342,7 +5336,7 @@
         <v>5.12</v>
       </c>
       <c r="J48" s="130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K48" s="84"/>
       <c r="L48" s="84"/>
@@ -5397,7 +5391,7 @@
         <v>76.92</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
@@ -5422,7 +5416,7 @@
         <v>23.08</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
@@ -5986,7 +5980,7 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K1" sqref="K$1:XFD$1048576"/>
     </sheetView>
@@ -6089,13 +6083,13 @@
         <v>11</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="19">
         <v>4.5</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="40"/>
     </row>
@@ -6106,22 +6100,22 @@
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J6" s="41"/>
     </row>
@@ -6129,25 +6123,25 @@
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J7" s="41"/>
     </row>
@@ -6255,25 +6249,25 @@
         <v>68</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J13" s="46"/>
     </row>
@@ -6283,25 +6277,25 @@
         <v>5</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J14" s="47"/>
     </row>
@@ -6325,25 +6319,25 @@
         <v>68</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J16" s="46"/>
     </row>
@@ -6353,25 +6347,25 @@
         <v>5</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J17" s="47"/>
     </row>
@@ -6380,7 +6374,7 @@
         <v>156</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>9</v>
@@ -6390,7 +6384,7 @@
         <v>925</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>11</v>
@@ -6402,7 +6396,7 @@
         <v>2.24</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="48"/>
     </row>
@@ -6413,19 +6407,19 @@
         <v>13</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="49"/>
@@ -6434,22 +6428,22 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="49"/>
@@ -6558,25 +6552,25 @@
         <v>68</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J26" s="46"/>
     </row>
@@ -6586,25 +6580,25 @@
         <v>5</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J27" s="47"/>
     </row>
@@ -6628,25 +6622,25 @@
         <v>68</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J29" s="46"/>
     </row>
@@ -6656,25 +6650,25 @@
         <v>5</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J30" s="47"/>
     </row>
@@ -6693,7 +6687,7 @@
         <v>925</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>11</v>
@@ -6705,7 +6699,7 @@
         <v>5.24</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" s="48"/>
     </row>
@@ -6716,19 +6710,19 @@
         <v>13</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="49"/>
@@ -6737,22 +6731,22 @@
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="49"/>
@@ -6861,25 +6855,25 @@
         <v>68</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J39" s="46"/>
     </row>
@@ -6889,25 +6883,25 @@
         <v>5</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J40" s="47"/>
     </row>
@@ -6931,25 +6925,25 @@
         <v>68</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J42" s="46"/>
     </row>
@@ -6959,25 +6953,25 @@
         <v>5</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J43" s="47"/>
     </row>
@@ -7112,7 +7106,7 @@
         <v>3.5</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J49" s="48"/>
     </row>
@@ -7125,19 +7119,19 @@
         <v>13</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="49"/>
@@ -7148,22 +7142,22 @@
         <v>161</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="49"/>
@@ -7328,25 +7322,25 @@
         <v>68</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J59" s="44"/>
     </row>
@@ -7356,25 +7350,25 @@
         <v>23</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F60" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I60" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J60" s="45"/>
     </row>
@@ -7384,25 +7378,25 @@
         <v>24</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F61" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I61" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J61" s="43"/>
     </row>
@@ -7412,25 +7406,25 @@
         <v>25</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F62" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I62" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J62" s="43"/>
     </row>
@@ -7454,25 +7448,25 @@
         <v>68</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I64" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J64" s="44"/>
     </row>
@@ -7482,25 +7476,25 @@
         <v>23</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F65" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I65" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J65" s="45"/>
     </row>
@@ -7510,25 +7504,25 @@
         <v>24</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F66" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I66" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J66" s="43"/>
     </row>
@@ -7538,25 +7532,25 @@
         <v>25</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J67" s="43"/>
     </row>
@@ -7883,91 +7877,91 @@
     <row r="79" s="1" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A79" s="14"/>
       <c r="B79" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C79" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D79" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E79" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F79" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G79" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H79" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I79" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J79" s="79" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A80" s="14"/>
       <c r="B80" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C80" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D80" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E80" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F80" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G80" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H80" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I80" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J80" s="79" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A81" s="14"/>
       <c r="B81" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D81" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E81" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F81" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G81" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H81" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I81" s="57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J81" s="79" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -8290,7 +8284,7 @@
         <v>41</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F98" s="17">
         <v>9999999</v>
@@ -8322,7 +8316,7 @@
         <v>41</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F99" s="17">
         <v>9999999</v>
@@ -8354,7 +8348,7 @@
         <v>41</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F100" s="17">
         <v>9999999</v>

--- a/public/excel/AIOC数据表单.xlsx
+++ b/public/excel/AIOC数据表单.xlsx
@@ -2660,9 +2660,9 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -4139,7 +4139,7 @@
         <v>81</v>
       </c>
       <c r="G63" s="63">
-        <v>45365</v>
+        <v>80368</v>
       </c>
       <c r="H63" s="62" t="s">
         <v>82</v>

--- a/public/excel/AIOC数据表单.xlsx
+++ b/public/excel/AIOC数据表单.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="187">
   <si>
     <t>AIOC数据模版</t>
   </si>
@@ -315,6 +315,36 @@
   </si>
   <si>
     <t xml:space="preserve"> 10:52:21</t>
+  </si>
+  <si>
+    <t>监控点位_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:52:22</t>
+  </si>
+  <si>
+    <t>监控点位_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:52:23</t>
+  </si>
+  <si>
+    <t>监控点位_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:52:24</t>
+  </si>
+  <si>
+    <t>监控点位_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:52:25</t>
+  </si>
+  <si>
+    <t>监控点位_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:52:26</t>
   </si>
   <si>
     <t>2-安防管理据内容</t>
@@ -1649,7 +1679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2316,23 +2346,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2660,9 +2675,9 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="E30 F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -4235,71 +4250,151 @@
     </row>
     <row r="67" s="148" customFormat="1" spans="1:10">
       <c r="A67" s="111"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="57"/>
+      <c r="B67" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="63">
+        <v>45365</v>
+      </c>
+      <c r="H67" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="J67" s="126"/>
     </row>
     <row r="68" s="148" customFormat="1" spans="1:10">
       <c r="A68" s="111"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="57"/>
+      <c r="B68" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" s="63">
+        <v>45366</v>
+      </c>
+      <c r="H68" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="J68" s="126"/>
     </row>
     <row r="69" s="148" customFormat="1" spans="1:10">
       <c r="A69" s="111"/>
-      <c r="B69" s="116"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="116"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="222"/>
-      <c r="H69" s="118"/>
-      <c r="I69" s="116"/>
-      <c r="J69" s="230"/>
+      <c r="B69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" s="63">
+        <v>45367</v>
+      </c>
+      <c r="H69" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" s="225"/>
     </row>
     <row r="70" s="148" customFormat="1" spans="1:10">
       <c r="A70" s="111"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="116"/>
-      <c r="D70" s="117"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="222"/>
-      <c r="H70" s="118"/>
-      <c r="I70" s="116"/>
-      <c r="J70" s="230"/>
+      <c r="B70" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="63">
+        <v>45368</v>
+      </c>
+      <c r="H70" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J70" s="225"/>
     </row>
     <row r="71" s="148" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A71" s="223"/>
-      <c r="B71" s="224"/>
-      <c r="C71" s="224"/>
-      <c r="D71" s="225"/>
-      <c r="E71" s="224"/>
-      <c r="F71" s="226"/>
-      <c r="G71" s="227"/>
-      <c r="H71" s="226"/>
-      <c r="I71" s="224"/>
-      <c r="J71" s="231"/>
+      <c r="A71" s="222"/>
+      <c r="B71" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71" s="63">
+        <v>45369</v>
+      </c>
+      <c r="H71" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J71" s="226"/>
     </row>
     <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A72" s="83"/>
       <c r="B72" s="83"/>
       <c r="C72" s="83"/>
-      <c r="D72" s="228"/>
+      <c r="D72" s="223"/>
       <c r="E72" s="83"/>
-      <c r="F72" s="229"/>
+      <c r="F72" s="224"/>
       <c r="G72" s="83"/>
       <c r="H72" s="83"/>
       <c r="I72" s="83"/>
@@ -4312,9 +4407,9 @@
       <c r="A73" s="83"/>
       <c r="B73" s="83"/>
       <c r="C73" s="83"/>
-      <c r="D73" s="228"/>
+      <c r="D73" s="223"/>
       <c r="E73" s="83"/>
-      <c r="F73" s="229"/>
+      <c r="F73" s="224"/>
       <c r="G73" s="83"/>
       <c r="H73" s="83"/>
       <c r="I73" s="83"/>
@@ -4327,9 +4422,9 @@
       <c r="A74" s="83"/>
       <c r="B74" s="83"/>
       <c r="C74" s="83"/>
-      <c r="D74" s="228"/>
+      <c r="D74" s="223"/>
       <c r="E74" s="83"/>
-      <c r="F74" s="229"/>
+      <c r="F74" s="224"/>
       <c r="G74" s="83"/>
       <c r="H74" s="83"/>
       <c r="I74" s="83"/>
@@ -4342,9 +4437,9 @@
       <c r="A75" s="83"/>
       <c r="B75" s="83"/>
       <c r="C75" s="83"/>
-      <c r="D75" s="228"/>
+      <c r="D75" s="223"/>
       <c r="E75" s="83"/>
-      <c r="F75" s="229"/>
+      <c r="F75" s="224"/>
       <c r="G75" s="83"/>
       <c r="H75" s="83"/>
       <c r="I75" s="83"/>
@@ -4357,9 +4452,9 @@
       <c r="A76" s="83"/>
       <c r="B76" s="83"/>
       <c r="C76" s="83"/>
-      <c r="D76" s="228"/>
+      <c r="D76" s="223"/>
       <c r="E76" s="83"/>
-      <c r="F76" s="229"/>
+      <c r="F76" s="224"/>
       <c r="G76" s="83"/>
       <c r="H76" s="83"/>
       <c r="I76" s="83"/>
@@ -4372,9 +4467,9 @@
       <c r="A77" s="83"/>
       <c r="B77" s="83"/>
       <c r="C77" s="83"/>
-      <c r="D77" s="228"/>
+      <c r="D77" s="223"/>
       <c r="E77" s="83"/>
-      <c r="F77" s="229"/>
+      <c r="F77" s="224"/>
       <c r="G77" s="83"/>
       <c r="H77" s="83"/>
       <c r="I77" s="83"/>
@@ -4387,9 +4482,9 @@
       <c r="A78" s="83"/>
       <c r="B78" s="83"/>
       <c r="C78" s="83"/>
-      <c r="D78" s="228"/>
+      <c r="D78" s="223"/>
       <c r="E78" s="83"/>
-      <c r="F78" s="229"/>
+      <c r="F78" s="224"/>
       <c r="G78" s="83"/>
       <c r="H78" s="83"/>
       <c r="I78" s="83"/>
@@ -4402,9 +4497,9 @@
       <c r="A79" s="83"/>
       <c r="B79" s="83"/>
       <c r="C79" s="83"/>
-      <c r="D79" s="228"/>
+      <c r="D79" s="223"/>
       <c r="E79" s="83"/>
-      <c r="F79" s="229"/>
+      <c r="F79" s="224"/>
       <c r="G79" s="83"/>
       <c r="H79" s="83"/>
       <c r="I79" s="83"/>
@@ -4417,9 +4512,9 @@
       <c r="A80" s="83"/>
       <c r="B80" s="83"/>
       <c r="C80" s="83"/>
-      <c r="D80" s="228"/>
+      <c r="D80" s="223"/>
       <c r="E80" s="83"/>
-      <c r="F80" s="229"/>
+      <c r="F80" s="224"/>
       <c r="G80" s="83"/>
       <c r="H80" s="83"/>
       <c r="I80" s="83"/>
@@ -4432,9 +4527,9 @@
       <c r="A81" s="83"/>
       <c r="B81" s="83"/>
       <c r="C81" s="83"/>
-      <c r="D81" s="228"/>
+      <c r="D81" s="223"/>
       <c r="E81" s="83"/>
-      <c r="F81" s="229"/>
+      <c r="F81" s="224"/>
       <c r="G81" s="83"/>
       <c r="H81" s="83"/>
       <c r="I81" s="83"/>
@@ -4447,9 +4542,9 @@
       <c r="A82" s="83"/>
       <c r="B82" s="83"/>
       <c r="C82" s="83"/>
-      <c r="D82" s="228"/>
+      <c r="D82" s="223"/>
       <c r="E82" s="83"/>
-      <c r="F82" s="229"/>
+      <c r="F82" s="224"/>
       <c r="G82" s="83"/>
       <c r="H82" s="83"/>
       <c r="I82" s="83"/>
@@ -4462,9 +4557,9 @@
       <c r="A83" s="83"/>
       <c r="B83" s="83"/>
       <c r="C83" s="83"/>
-      <c r="D83" s="228"/>
+      <c r="D83" s="223"/>
       <c r="E83" s="83"/>
-      <c r="F83" s="229"/>
+      <c r="F83" s="224"/>
       <c r="G83" s="83"/>
       <c r="H83" s="83"/>
       <c r="I83" s="83"/>
@@ -4477,9 +4572,9 @@
       <c r="A84" s="83"/>
       <c r="B84" s="83"/>
       <c r="C84" s="83"/>
-      <c r="D84" s="228"/>
+      <c r="D84" s="223"/>
       <c r="E84" s="83"/>
-      <c r="F84" s="229"/>
+      <c r="F84" s="224"/>
       <c r="G84" s="83"/>
       <c r="H84" s="83"/>
       <c r="I84" s="83"/>
@@ -4572,7 +4667,7 @@
     </row>
     <row r="3" s="84" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B3" s="94"/>
       <c r="C3" s="94"/>
@@ -4665,7 +4760,7 @@
     <row r="8" s="84" customFormat="1" ht="38" customHeight="1" spans="1:10">
       <c r="A8" s="14"/>
       <c r="B8" s="100" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C8" s="100"/>
       <c r="D8" s="100"/>
@@ -4679,13 +4774,13 @@
     <row r="9" s="84" customFormat="1" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="102" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E9" s="102"/>
       <c r="F9" s="102"/>
@@ -4697,13 +4792,13 @@
     <row r="10" spans="1:10">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D10" s="103" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E10" s="103"/>
       <c r="F10" s="103"/>
@@ -4716,10 +4811,10 @@
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E11" s="103"/>
       <c r="F11" s="103"/>
@@ -4732,10 +4827,10 @@
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E12" s="103"/>
       <c r="F12" s="103"/>
@@ -4748,10 +4843,10 @@
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="103"/>
@@ -4764,10 +4859,10 @@
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D14" s="103" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="103"/>
@@ -4780,10 +4875,10 @@
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D15" s="103" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="103"/>
@@ -5052,17 +5147,17 @@
     </row>
     <row r="37" s="85" customFormat="1" spans="1:13">
       <c r="A37" s="14" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C37" s="105"/>
       <c r="D37" s="61">
         <v>584</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F37" s="106"/>
       <c r="G37" s="28"/>
@@ -5076,14 +5171,14 @@
     <row r="38" s="85" customFormat="1" spans="1:13">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C38" s="105"/>
       <c r="D38" s="61">
         <v>146</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F38" s="106"/>
       <c r="G38" s="28"/>
@@ -5118,10 +5213,10 @@
     <row r="40" s="85" customFormat="1" spans="1:13">
       <c r="A40" s="14"/>
       <c r="B40" s="15" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C40" s="105" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D40" s="105"/>
       <c r="E40" s="105"/>
@@ -5137,7 +5232,7 @@
     <row r="41" s="85" customFormat="1" spans="1:13">
       <c r="A41" s="14"/>
       <c r="B41" s="102" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C41" s="102"/>
       <c r="D41" s="102"/>
@@ -5154,28 +5249,28 @@
     <row r="42" s="85" customFormat="1" spans="1:13">
       <c r="A42" s="14"/>
       <c r="B42" s="23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C42" s="107" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D42" s="107" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E42" s="107" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F42" s="107" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H42" s="107" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="I42" s="107" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J42" s="129"/>
       <c r="K42" s="84"/>
@@ -5215,10 +5310,10 @@
     </row>
     <row r="44" s="85" customFormat="1" spans="1:13">
       <c r="A44" s="109" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C44" s="105"/>
       <c r="D44" s="61">
@@ -5239,7 +5334,7 @@
     <row r="45" s="85" customFormat="1" spans="1:13">
       <c r="A45" s="14"/>
       <c r="B45" s="15" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C45" s="105"/>
       <c r="D45" s="61">
@@ -5260,7 +5355,7 @@
     <row r="46" s="85" customFormat="1" spans="1:13">
       <c r="A46" s="14"/>
       <c r="B46" s="15" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C46" s="105"/>
       <c r="D46" s="61">
@@ -5280,17 +5375,17 @@
     </row>
     <row r="47" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A47" s="110" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="32">
         <v>254</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>11</v>
@@ -5299,7 +5394,7 @@
         <v>17</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I47" s="25">
         <v>12.36</v>
@@ -5314,14 +5409,14 @@
     <row r="48" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A48" s="111"/>
       <c r="B48" s="25" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="32">
         <v>1235</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>11</v>
@@ -5330,7 +5425,7 @@
         <v>12</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I48" s="25">
         <v>5.12</v>
@@ -5345,7 +5440,7 @@
     <row r="49" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A49" s="111"/>
       <c r="B49" s="25" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -5362,7 +5457,7 @@
     <row r="50" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A50" s="111"/>
       <c r="B50" s="68" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C50" s="68"/>
       <c r="D50" s="68"/>
@@ -5385,7 +5480,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E51" s="112">
         <v>76.92</v>
@@ -5410,7 +5505,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E52" s="112">
         <v>23.08</v>
@@ -5431,7 +5526,7 @@
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
       <c r="D53" s="28" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E53" s="57"/>
       <c r="F53" s="28"/>
@@ -5448,7 +5543,7 @@
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
       <c r="D54" s="28" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E54" s="57"/>
       <c r="F54" s="28"/>
@@ -5465,7 +5560,7 @@
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
       <c r="D55" s="28" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="28"/>
@@ -5482,7 +5577,7 @@
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
       <c r="D56" s="28" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E56" s="57"/>
       <c r="F56" s="28"/>
@@ -5590,7 +5685,7 @@
         <v>80</v>
       </c>
       <c r="F60" s="62" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G60" s="114">
         <v>45365</v>
@@ -5755,19 +5850,19 @@
     </row>
     <row r="69" s="84" customFormat="1" spans="1:10">
       <c r="A69" s="133" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B69" s="134"/>
       <c r="C69" s="134" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D69" s="134" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E69" s="134"/>
       <c r="F69" s="134"/>
       <c r="G69" s="135" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H69" s="136"/>
       <c r="I69" s="136"/>
@@ -5775,14 +5870,14 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="137" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D70" s="103" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E70" s="103"/>
       <c r="F70" s="103"/>
@@ -5795,19 +5890,19 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="137" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D71" s="103" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E71" s="103"/>
       <c r="F71" s="103"/>
       <c r="G71" s="39" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H71" s="101"/>
       <c r="I71" s="101"/>
@@ -5815,19 +5910,19 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="137" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D72" s="103" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E72" s="103"/>
       <c r="F72" s="103"/>
       <c r="G72" s="39" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H72" s="101"/>
       <c r="I72" s="101"/>
@@ -5835,19 +5930,19 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="137" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D73" s="103" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E73" s="103"/>
       <c r="F73" s="103"/>
       <c r="G73" s="39" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H73" s="101"/>
       <c r="I73" s="101"/>
@@ -5855,19 +5950,19 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="137" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D74" s="103" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E74" s="103"/>
       <c r="F74" s="103"/>
       <c r="G74" s="39" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H74" s="101"/>
       <c r="I74" s="101"/>
@@ -5875,19 +5970,19 @@
     </row>
     <row r="75" ht="14.25" spans="1:10">
       <c r="A75" s="138" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B75" s="139"/>
       <c r="C75" s="139" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D75" s="140" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E75" s="140"/>
       <c r="F75" s="140"/>
       <c r="G75" s="141" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H75" s="142"/>
       <c r="I75" s="142"/>
@@ -6028,7 +6123,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -6064,7 +6159,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A5" s="14" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>8</v>
@@ -6148,7 +6243,7 @@
     <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A8" s="14"/>
       <c r="B8" s="21" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -6162,7 +6257,7 @@
     <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="22" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -6371,7 +6466,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A18" s="14" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>15</v>
@@ -6451,7 +6546,7 @@
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A21" s="14"/>
       <c r="B21" s="21" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -6465,7 +6560,7 @@
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A22" s="14"/>
       <c r="B22" s="22" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -6674,7 +6769,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A31" s="14" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>20</v>
@@ -6754,7 +6849,7 @@
     <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A34" s="14"/>
       <c r="B34" s="21" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -6768,7 +6863,7 @@
     <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A35" s="14"/>
       <c r="B35" s="28" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -6996,10 +7091,10 @@
     <row r="45" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A45" s="14"/>
       <c r="B45" s="15" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
@@ -7012,7 +7107,7 @@
     <row r="46" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A46" s="14"/>
       <c r="B46" s="21" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -7026,28 +7121,28 @@
     <row r="47" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A47" s="14"/>
       <c r="B47" s="23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J47" s="52"/>
     </row>
@@ -7081,10 +7176,10 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>9</v>
@@ -7113,7 +7208,7 @@
     <row r="50" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A50" s="14"/>
       <c r="B50" s="15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>13</v>
@@ -7139,7 +7234,7 @@
     <row r="51" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A51" s="14"/>
       <c r="B51" s="15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>14</v>
@@ -7165,7 +7260,7 @@
     <row r="52" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A52" s="14"/>
       <c r="B52" s="21" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
@@ -7179,7 +7274,7 @@
     <row r="53" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A53" s="14"/>
       <c r="B53" s="28" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
@@ -7966,10 +8061,10 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A82" s="14" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -8011,13 +8106,13 @@
     <row r="84" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A84" s="14"/>
       <c r="B84" s="60" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>73</v>
@@ -8051,7 +8146,7 @@
         <v>80</v>
       </c>
       <c r="F85" s="62" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G85" s="63">
         <v>45365</v>
@@ -8079,7 +8174,7 @@
         <v>80</v>
       </c>
       <c r="F86" s="62" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G86" s="63">
         <v>45365</v>
@@ -8095,7 +8190,7 @@
     <row r="87" s="1" customFormat="1" spans="1:10">
       <c r="A87" s="14"/>
       <c r="B87" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>38</v>
@@ -8107,7 +8202,7 @@
         <v>80</v>
       </c>
       <c r="F87" s="62" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G87" s="63">
         <v>45364</v>
@@ -8123,7 +8218,7 @@
     <row r="88" s="1" customFormat="1" spans="1:10">
       <c r="A88" s="14"/>
       <c r="B88" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>39</v>
@@ -8135,7 +8230,7 @@
         <v>80</v>
       </c>
       <c r="F88" s="62" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G88" s="63">
         <v>45364</v>
@@ -8234,7 +8329,7 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A96" s="67" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B96" s="68"/>
       <c r="C96" s="68"/>
@@ -8248,10 +8343,10 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A97" s="69" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C97" s="23" t="s">
         <v>5</v>
@@ -8260,12 +8355,12 @@
         <v>6</v>
       </c>
       <c r="E97" s="70" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F97" s="70"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I97" s="16"/>
       <c r="J97" s="76"/>
@@ -8293,7 +8388,7 @@
         <v>36</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="I98" s="17">
         <v>9999999</v>
@@ -8325,7 +8420,7 @@
         <v>36</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="I99" s="17">
         <v>9999999</v>
@@ -8357,7 +8452,7 @@
         <v>36</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="I100" s="17">
         <v>9999999</v>

--- a/public/excel/AIOC数据表单.xlsx
+++ b/public/excel/AIOC数据表单.xlsx
@@ -2675,9 +2675,9 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="E30 F29"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -2793,7 +2793,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="166">
-        <v>22350</v>
+        <v>350</v>
       </c>
       <c r="E6" s="167" t="s">
         <v>10</v>
@@ -2869,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="97">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>16</v>
@@ -3021,7 +3021,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="97">
-        <v>9248</v>
+        <v>248</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>22</v>

--- a/public/excel/AIOC数据表单.xlsx
+++ b/public/excel/AIOC数据表单.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="229">
   <si>
     <t>AIOC数据模版</t>
   </si>
@@ -203,9 +203,6 @@
     <t>维修保养</t>
   </si>
   <si>
-    <t>（图表数据）</t>
-  </si>
-  <si>
     <t>人工停机</t>
   </si>
   <si>
@@ -368,7 +365,7 @@
     <t>室外A1-1001</t>
   </si>
   <si>
-    <t>192.168.1111</t>
+    <t>https://mvwebfs.tx.kugou.com/202404170929/14c884c02b29e15024a080e89af6b2b8/v2/a172c59915c740ddf217045a843154e3/KGTX/CLTX002/a172c59915c740ddf217045a843154e3.mp4</t>
   </si>
   <si>
     <t>室外A1-1002</t>
@@ -399,6 +396,132 @@
   </si>
   <si>
     <t>192.168.1116</t>
+  </si>
+  <si>
+    <t>室外A1-1007</t>
+  </si>
+  <si>
+    <t>192.168.1117</t>
+  </si>
+  <si>
+    <t>室外A1-1008</t>
+  </si>
+  <si>
+    <t>192.168.1118</t>
+  </si>
+  <si>
+    <t>室外A1-1009</t>
+  </si>
+  <si>
+    <t>192.168.1119</t>
+  </si>
+  <si>
+    <t>室外A1-1010</t>
+  </si>
+  <si>
+    <t>192.168.1120</t>
+  </si>
+  <si>
+    <t>室外A1-1011</t>
+  </si>
+  <si>
+    <t>192.168.1121</t>
+  </si>
+  <si>
+    <t>室外A1-1012</t>
+  </si>
+  <si>
+    <t>192.168.1122</t>
+  </si>
+  <si>
+    <t>室外A1-1013</t>
+  </si>
+  <si>
+    <t>192.168.1123</t>
+  </si>
+  <si>
+    <t>室外A1-1014</t>
+  </si>
+  <si>
+    <t>192.168.1124</t>
+  </si>
+  <si>
+    <t>室外A1-1015</t>
+  </si>
+  <si>
+    <t>192.168.1125</t>
+  </si>
+  <si>
+    <t>室外A1-1016</t>
+  </si>
+  <si>
+    <t>192.168.1126</t>
+  </si>
+  <si>
+    <t>室外A1-1017</t>
+  </si>
+  <si>
+    <t>192.168.1127</t>
+  </si>
+  <si>
+    <t>室外A1-1018</t>
+  </si>
+  <si>
+    <t>192.168.1128</t>
+  </si>
+  <si>
+    <t>室外A1-1019</t>
+  </si>
+  <si>
+    <t>192.168.1129</t>
+  </si>
+  <si>
+    <t>室外A1-1020</t>
+  </si>
+  <si>
+    <t>192.168.1130</t>
+  </si>
+  <si>
+    <t>室外A1-1021</t>
+  </si>
+  <si>
+    <t>192.168.1131</t>
+  </si>
+  <si>
+    <t>室外A1-1022</t>
+  </si>
+  <si>
+    <t>192.168.1132</t>
+  </si>
+  <si>
+    <t>室外A1-1023</t>
+  </si>
+  <si>
+    <t>192.168.1133</t>
+  </si>
+  <si>
+    <t>室外A1-1024</t>
+  </si>
+  <si>
+    <t>192.168.1134</t>
+  </si>
+  <si>
+    <t>室外A1-1025</t>
+  </si>
+  <si>
+    <t>192.168.1135</t>
+  </si>
+  <si>
+    <t>室外A1-1026</t>
+  </si>
+  <si>
+    <t>192.168.1136</t>
+  </si>
+  <si>
+    <t>室外A1-1027</t>
+  </si>
+  <si>
+    <t>192.168.1137</t>
   </si>
   <si>
     <t>告警统计</t>
@@ -496,6 +619,9 @@
   </si>
   <si>
     <t>东南角</t>
+  </si>
+  <si>
+    <t>192.168.1111</t>
   </si>
   <si>
     <t>外围-002</t>
@@ -637,7 +763,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,7 +771,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1549,10 +1675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1971,6 +2097,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1980,6 +2109,9 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1989,11 +2121,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="3" fillId="5" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="181" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2010,16 +2145,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2675,9 +2801,9 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -2842,7 +2968,7 @@
       <c r="C8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="98">
         <v>124</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -2868,7 +2994,7 @@
       <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="97">
+      <c r="D9" s="98">
         <v>24</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -2894,7 +3020,7 @@
       <c r="C10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="97">
+      <c r="D10" s="98">
         <v>124</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -2922,7 +3048,7 @@
       <c r="C11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="98">
         <v>1280</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -2948,7 +3074,7 @@
       <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D12" s="98">
         <v>1280</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -2974,7 +3100,7 @@
       <c r="C13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="98">
         <v>1280</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -3002,16 +3128,16 @@
       <c r="C14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="98">
         <v>9248</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
       <c r="J14" s="125"/>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:10">
@@ -3020,7 +3146,7 @@
       <c r="C15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="98">
         <v>248</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -3038,7 +3164,7 @@
       <c r="C16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D16" s="98">
         <v>9248</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -3058,7 +3184,7 @@
       <c r="C17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="98">
         <v>4248</v>
       </c>
       <c r="E17" s="174">
@@ -3067,9 +3193,9 @@
       <c r="F17" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
       <c r="J17" s="125"/>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:10">
@@ -3078,7 +3204,7 @@
       <c r="C18" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="98">
         <v>4248</v>
       </c>
       <c r="E18" s="174">
@@ -3098,7 +3224,7 @@
       <c r="C19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="97">
+      <c r="D19" s="98">
         <v>4248</v>
       </c>
       <c r="E19" s="174">
@@ -3120,7 +3246,7 @@
       <c r="C20" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D20" s="98">
         <v>3000</v>
       </c>
       <c r="E20" s="174">
@@ -3129,9 +3255,9 @@
       <c r="F20" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
       <c r="J20" s="125"/>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:10">
@@ -3140,7 +3266,7 @@
       <c r="C21" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="98">
         <v>3000</v>
       </c>
       <c r="E21" s="174">
@@ -3160,7 +3286,7 @@
       <c r="C22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="97">
+      <c r="D22" s="98">
         <v>3000</v>
       </c>
       <c r="E22" s="174">
@@ -3182,7 +3308,7 @@
       <c r="C23" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="98">
         <v>2000</v>
       </c>
       <c r="E23" s="174">
@@ -3191,9 +3317,9 @@
       <c r="F23" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
       <c r="J23" s="125"/>
     </row>
     <row r="24" s="147" customFormat="1" spans="1:10">
@@ -3202,7 +3328,7 @@
       <c r="C24" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="97">
+      <c r="D24" s="98">
         <v>2000</v>
       </c>
       <c r="E24" s="174">
@@ -3222,7 +3348,7 @@
       <c r="C25" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="97">
+      <c r="D25" s="98">
         <v>2000</v>
       </c>
       <c r="E25" s="174">
@@ -3295,7 +3421,7 @@
       <c r="D28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="98" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="194">
@@ -3325,7 +3451,7 @@
       <c r="D29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="97">
+      <c r="E29" s="98">
         <v>426</v>
       </c>
       <c r="F29" s="194">
@@ -3355,7 +3481,7 @@
       <c r="D30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="97">
+      <c r="E30" s="98">
         <v>427</v>
       </c>
       <c r="F30" s="194">
@@ -3385,7 +3511,7 @@
       <c r="D31" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="97">
+      <c r="E31" s="98">
         <v>1428</v>
       </c>
       <c r="F31" s="194">
@@ -3415,7 +3541,7 @@
       <c r="D32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="97">
+      <c r="E32" s="98">
         <v>1428</v>
       </c>
       <c r="F32" s="194">
@@ -3445,7 +3571,7 @@
       <c r="D33" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="97">
+      <c r="E33" s="98">
         <v>1428</v>
       </c>
       <c r="F33" s="194">
@@ -3475,7 +3601,7 @@
       <c r="D34" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="97">
+      <c r="E34" s="98">
         <v>235</v>
       </c>
       <c r="F34" s="194">
@@ -3505,7 +3631,7 @@
       <c r="D35" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="97">
+      <c r="E35" s="98">
         <v>235</v>
       </c>
       <c r="F35" s="194">
@@ -3535,7 +3661,7 @@
       <c r="D36" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="97">
+      <c r="E36" s="98">
         <v>235</v>
       </c>
       <c r="F36" s="194">
@@ -3565,7 +3691,7 @@
       <c r="D37" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="97">
+      <c r="E37" s="98">
         <v>434</v>
       </c>
       <c r="F37" s="194">
@@ -3595,7 +3721,7 @@
       <c r="D38" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="97">
+      <c r="E38" s="98">
         <v>435</v>
       </c>
       <c r="F38" s="194">
@@ -3625,7 +3751,7 @@
       <c r="D39" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="97">
+      <c r="E39" s="98">
         <v>436</v>
       </c>
       <c r="F39" s="194">
@@ -3655,7 +3781,7 @@
       <c r="D40" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="97">
+      <c r="E40" s="98">
         <v>2437</v>
       </c>
       <c r="F40" s="194">
@@ -3685,7 +3811,7 @@
       <c r="D41" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="97">
+      <c r="E41" s="98">
         <v>2437</v>
       </c>
       <c r="F41" s="194">
@@ -3715,7 +3841,7 @@
       <c r="D42" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="97">
+      <c r="E42" s="98">
         <v>2437</v>
       </c>
       <c r="F42" s="194">
@@ -3745,7 +3871,7 @@
       <c r="D43" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="97">
+      <c r="E43" s="98">
         <v>340</v>
       </c>
       <c r="F43" s="194">
@@ -3775,7 +3901,7 @@
       <c r="D44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="97">
+      <c r="E44" s="98">
         <v>340</v>
       </c>
       <c r="F44" s="194">
@@ -3805,7 +3931,7 @@
       <c r="D45" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="97">
+      <c r="E45" s="98">
         <v>340</v>
       </c>
       <c r="F45" s="194">
@@ -3861,7 +3987,7 @@
       <c r="J48" s="205"/>
     </row>
     <row r="49" customFormat="1" spans="1:10">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="167" t="s">
@@ -3881,139 +4007,137 @@
       <c r="J49" s="220"/>
     </row>
     <row r="50" customFormat="1" spans="1:10">
-      <c r="A50" s="111"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="105"/>
+      <c r="C50" s="108"/>
       <c r="D50" s="61">
         <v>320</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="106"/>
+      <c r="F50" s="109"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
       <c r="J50" s="126"/>
     </row>
     <row r="51" customFormat="1" spans="1:10">
-      <c r="A51" s="113"/>
+      <c r="A51" s="107"/>
       <c r="B51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="105"/>
+      <c r="C51" s="108"/>
       <c r="D51" s="61">
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="106"/>
+      <c r="F51" s="109"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
       <c r="J51" s="126"/>
     </row>
     <row r="52" customFormat="1" spans="1:10">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="97" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="105"/>
+      <c r="C52" s="108"/>
       <c r="D52" s="61">
         <v>124</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="106"/>
+      <c r="F52" s="109"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
       <c r="J52" s="126"/>
     </row>
     <row r="53" customFormat="1" spans="1:10">
-      <c r="A53" s="111"/>
+      <c r="A53" s="101"/>
       <c r="B53" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="105"/>
+      <c r="C53" s="108"/>
       <c r="D53" s="61">
         <v>100</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="106"/>
+      <c r="F53" s="109"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
       <c r="J53" s="126"/>
     </row>
     <row r="54" customFormat="1" spans="1:10">
-      <c r="A54" s="111"/>
+      <c r="A54" s="101"/>
       <c r="B54" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="105"/>
+      <c r="C54" s="108"/>
       <c r="D54" s="61">
         <v>23</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="106"/>
+      <c r="F54" s="109"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
       <c r="J54" s="126"/>
     </row>
     <row r="55" customFormat="1" spans="1:10">
-      <c r="A55" s="111"/>
+      <c r="A55" s="101"/>
       <c r="B55" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="105"/>
+      <c r="C55" s="108"/>
       <c r="D55" s="61">
         <v>1</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="106"/>
+      <c r="F55" s="109"/>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
       <c r="J55" s="126"/>
     </row>
     <row r="56" customFormat="1" spans="1:10">
-      <c r="A56" s="111"/>
+      <c r="A56" s="101"/>
       <c r="B56" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="181" t="s">
-        <v>57</v>
-      </c>
+      <c r="C56" s="181"/>
       <c r="D56" s="61">
         <v>33</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="106"/>
+      <c r="F56" s="109"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
       <c r="J56" s="126"/>
     </row>
     <row r="57" customFormat="1" spans="1:10">
-      <c r="A57" s="111"/>
+      <c r="A57" s="101"/>
       <c r="B57" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="209"/>
       <c r="D57" s="61">
@@ -4022,16 +4146,16 @@
       <c r="E57" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="106"/>
+      <c r="F57" s="109"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
       <c r="J57" s="126"/>
     </row>
     <row r="58" customFormat="1" spans="1:10">
-      <c r="A58" s="111"/>
+      <c r="A58" s="101"/>
       <c r="B58" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" s="209"/>
       <c r="D58" s="61">
@@ -4040,16 +4164,16 @@
       <c r="E58" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="106"/>
+      <c r="F58" s="109"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
       <c r="J58" s="126"/>
     </row>
     <row r="59" customFormat="1" spans="1:10">
-      <c r="A59" s="113"/>
+      <c r="A59" s="107"/>
       <c r="B59" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" s="165"/>
       <c r="D59" s="61">
@@ -4058,18 +4182,18 @@
       <c r="E59" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="106"/>
+      <c r="F59" s="109"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
       <c r="J59" s="126"/>
     </row>
     <row r="60" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -4081,310 +4205,310 @@
       <c r="J60" s="221"/>
     </row>
     <row r="61" customFormat="1" spans="1:10">
-      <c r="A61" s="111"/>
+      <c r="A61" s="101"/>
       <c r="B61" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="D61" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="58" t="s">
+      <c r="E61" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="F61" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="G61" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="H61" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I61" s="16" t="s">
+      <c r="J61" s="126"/>
+    </row>
+    <row r="62" customFormat="1" spans="1:10">
+      <c r="A62" s="101"/>
+      <c r="B62" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J61" s="126"/>
-    </row>
-    <row r="62" customFormat="1" spans="1:10">
-      <c r="A62" s="111"/>
-      <c r="B62" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="D62" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="61" t="s">
+      <c r="E62" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="F62" s="62" t="s">
         <v>73</v>
-      </c>
-      <c r="F62" s="62" t="s">
-        <v>74</v>
       </c>
       <c r="G62" s="63">
         <v>45366</v>
       </c>
       <c r="H62" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I62" s="15" t="s">
+      <c r="J62" s="126"/>
+    </row>
+    <row r="63" customFormat="1" ht="27" spans="1:10">
+      <c r="A63" s="101"/>
+      <c r="B63" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="J62" s="126"/>
-    </row>
-    <row r="63" customFormat="1" ht="27" spans="1:10">
-      <c r="A63" s="111"/>
-      <c r="B63" s="60" t="s">
+      <c r="C63" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="D63" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="61" t="s">
+      <c r="E63" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="F63" s="62" t="s">
         <v>80</v>
-      </c>
-      <c r="F63" s="62" t="s">
-        <v>81</v>
       </c>
       <c r="G63" s="63">
         <v>80368</v>
       </c>
       <c r="H63" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I63" s="15" t="s">
+      <c r="J63" s="126"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="101"/>
+      <c r="B64" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="J63" s="126"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="111"/>
-      <c r="B64" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D64" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E64" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="F64" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G64" s="63">
         <v>45365</v>
       </c>
       <c r="H64" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J64" s="126"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="101"/>
+      <c r="B65" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="I64" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J64" s="126"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="111"/>
-      <c r="B65" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="62" t="s">
         <v>88</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" s="62" t="s">
-        <v>89</v>
       </c>
       <c r="G65" s="63">
         <v>45364</v>
       </c>
       <c r="H65" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J65" s="126"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="101"/>
+      <c r="B66" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="I65" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J65" s="126"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="111"/>
-      <c r="B66" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="62" t="s">
         <v>92</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="62" t="s">
-        <v>93</v>
       </c>
       <c r="G66" s="63">
         <v>45364</v>
       </c>
       <c r="H66" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J66" s="132"/>
     </row>
     <row r="67" s="148" customFormat="1" spans="1:10">
-      <c r="A67" s="111"/>
+      <c r="A67" s="101"/>
       <c r="B67" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F67" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G67" s="63">
         <v>45365</v>
       </c>
       <c r="H67" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J67" s="126"/>
     </row>
     <row r="68" s="148" customFormat="1" spans="1:10">
-      <c r="A68" s="111"/>
+      <c r="A68" s="101"/>
       <c r="B68" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F68" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G68" s="63">
         <v>45366</v>
       </c>
       <c r="H68" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J68" s="126"/>
     </row>
     <row r="69" s="148" customFormat="1" spans="1:10">
-      <c r="A69" s="111"/>
+      <c r="A69" s="101"/>
       <c r="B69" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F69" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G69" s="63">
         <v>45367</v>
       </c>
       <c r="H69" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J69" s="225"/>
     </row>
     <row r="70" s="148" customFormat="1" spans="1:10">
-      <c r="A70" s="111"/>
+      <c r="A70" s="101"/>
       <c r="B70" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F70" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G70" s="63">
         <v>45368</v>
       </c>
       <c r="H70" s="62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J70" s="225"/>
     </row>
     <row r="71" s="148" customFormat="1" ht="14.25" spans="1:10">
       <c r="A71" s="222"/>
       <c r="B71" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F71" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G71" s="63">
         <v>45369</v>
       </c>
       <c r="H71" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J71" s="226"/>
     </row>
@@ -4620,7 +4744,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:F8"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -4630,7 +4754,7 @@
     <col min="3" max="3" width="12.1666666666667" style="85" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="87" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="85" customWidth="1"/>
-    <col min="6" max="6" width="16.075" style="88" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="88" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="85" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="85" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="85" customWidth="1"/>
@@ -4667,7 +4791,7 @@
     </row>
     <row r="3" s="84" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="94"/>
       <c r="C3" s="94"/>
@@ -4702,464 +4826,548 @@
       <c r="J4" s="123"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:10">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="28"/>
-      <c r="D5" s="97">
+      <c r="D5" s="98">
         <v>324</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="124"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:10">
-      <c r="A6" s="14"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="28"/>
-      <c r="D6" s="97">
+      <c r="D6" s="98">
         <v>320</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
       <c r="J6" s="124"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:10">
-      <c r="A7" s="14"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="D7" s="97">
+      <c r="D7" s="98">
         <v>4</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
       <c r="J7" s="125"/>
     </row>
     <row r="8" s="84" customFormat="1" ht="38" customHeight="1" spans="1:10">
-      <c r="A8" s="14"/>
-      <c r="B8" s="100" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="125"/>
+    </row>
+    <row r="9" s="84" customFormat="1" spans="1:10">
+      <c r="A9" s="101"/>
+      <c r="B9" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="125"/>
-    </row>
-    <row r="9" s="84" customFormat="1" spans="1:10">
-      <c r="A9" s="14"/>
-      <c r="B9" s="102" t="s">
+      <c r="C9" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="D9" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="125"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="101"/>
+      <c r="B10" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="125"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="125"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="14"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
       <c r="J11" s="125"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="14"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
       <c r="J12" s="125"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="14"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="125"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="14"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
       <c r="J14" s="125"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="14"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
       <c r="J15" s="125"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="14"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
+      <c r="C16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
       <c r="J16" s="125"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
+      <c r="C17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
       <c r="J17" s="125"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="14"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
+      <c r="C18" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
       <c r="J18" s="125"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="14"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
+      <c r="C19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
       <c r="J19" s="125"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="14"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
+      <c r="C20" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
       <c r="J20" s="125"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="14"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
+      <c r="C21" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
       <c r="J21" s="125"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="14"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
+      <c r="C22" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
       <c r="J22" s="125"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="14"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
+      <c r="C23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
       <c r="J23" s="125"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="14"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
+      <c r="C24" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
       <c r="J24" s="125"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="14"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
+      <c r="C25" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
       <c r="J25" s="125"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="14"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
+      <c r="C26" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
       <c r="J26" s="125"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="14"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
+      <c r="C27" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
       <c r="J27" s="125"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="14"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
+      <c r="C28" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
       <c r="J28" s="125"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="14"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
+      <c r="C29" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
       <c r="J29" s="125"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="14"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
+      <c r="C30" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
       <c r="J30" s="125"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="14"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
+      <c r="C31" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
       <c r="J31" s="125"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="14"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
+      <c r="C32" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
       <c r="J32" s="125"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="14"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
+      <c r="C33" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
       <c r="J33" s="125"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="14"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
+      <c r="C34" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
       <c r="J34" s="125"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="14"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
+      <c r="C35" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
       <c r="J35" s="125"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="14"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
+      <c r="C36" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
       <c r="J36" s="125"/>
     </row>
     <row r="37" s="85" customFormat="1" spans="1:13">
       <c r="A37" s="14" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="105"/>
+        <v>165</v>
+      </c>
+      <c r="C37" s="108"/>
       <c r="D37" s="61">
         <v>584</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="106"/>
+        <v>166</v>
+      </c>
+      <c r="F37" s="109"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
@@ -5171,16 +5379,16 @@
     <row r="38" s="85" customFormat="1" spans="1:13">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="105"/>
+        <v>167</v>
+      </c>
+      <c r="C38" s="108"/>
       <c r="D38" s="61">
         <v>146</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="106"/>
+        <v>166</v>
+      </c>
+      <c r="F38" s="109"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
@@ -5194,14 +5402,14 @@
       <c r="B39" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="105"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="61">
         <v>3</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="106"/>
+      <c r="F39" s="109"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
@@ -5213,17 +5421,17 @@
     <row r="40" s="85" customFormat="1" spans="1:13">
       <c r="A40" s="14"/>
       <c r="B40" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
+        <v>168</v>
+      </c>
+      <c r="C40" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
       <c r="G40" s="28"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
       <c r="J40" s="127"/>
       <c r="K40" s="84"/>
       <c r="L40" s="84"/>
@@ -5231,16 +5439,16 @@
     </row>
     <row r="41" s="85" customFormat="1" spans="1:13">
       <c r="A41" s="14"/>
-      <c r="B41" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
+      <c r="B41" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
       <c r="J41" s="128"/>
       <c r="K41" s="84"/>
       <c r="L41" s="84"/>
@@ -5249,28 +5457,28 @@
     <row r="42" s="85" customFormat="1" spans="1:13">
       <c r="A42" s="14"/>
       <c r="B42" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" s="107" t="s">
-        <v>134</v>
+        <v>171</v>
+      </c>
+      <c r="C42" s="110" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="110" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="110" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="110" t="s">
+        <v>175</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="I42" s="107" t="s">
-        <v>137</v>
+        <v>176</v>
+      </c>
+      <c r="H42" s="110" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" s="110" t="s">
+        <v>178</v>
       </c>
       <c r="J42" s="129"/>
       <c r="K42" s="84"/>
@@ -5282,25 +5490,25 @@
       <c r="B43" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="108">
+      <c r="C43" s="111">
         <v>20</v>
       </c>
-      <c r="D43" s="108">
+      <c r="D43" s="111">
         <v>30</v>
       </c>
-      <c r="E43" s="108">
+      <c r="E43" s="111">
         <v>12</v>
       </c>
-      <c r="F43" s="108">
+      <c r="F43" s="111">
         <v>15</v>
       </c>
       <c r="G43" s="25">
         <v>23</v>
       </c>
-      <c r="H43" s="108">
+      <c r="H43" s="111">
         <v>34</v>
       </c>
-      <c r="I43" s="108">
+      <c r="I43" s="111">
         <v>12</v>
       </c>
       <c r="J43" s="126"/>
@@ -5309,20 +5517,20 @@
       <c r="M43" s="84"/>
     </row>
     <row r="44" s="85" customFormat="1" spans="1:13">
-      <c r="A44" s="109" t="s">
-        <v>138</v>
+      <c r="A44" s="112" t="s">
+        <v>179</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="105"/>
+        <v>180</v>
+      </c>
+      <c r="C44" s="108"/>
       <c r="D44" s="61">
         <v>12.6</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="106"/>
+      <c r="F44" s="109"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
@@ -5334,16 +5542,16 @@
     <row r="45" s="85" customFormat="1" spans="1:13">
       <c r="A45" s="14"/>
       <c r="B45" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="105"/>
+        <v>181</v>
+      </c>
+      <c r="C45" s="108"/>
       <c r="D45" s="61">
         <v>12.6</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="106"/>
+      <c r="F45" s="109"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
@@ -5355,16 +5563,16 @@
     <row r="46" s="85" customFormat="1" spans="1:13">
       <c r="A46" s="14"/>
       <c r="B46" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="105"/>
+        <v>182</v>
+      </c>
+      <c r="C46" s="108"/>
       <c r="D46" s="61">
         <v>40.5</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="106"/>
+      <c r="F46" s="109"/>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
@@ -5374,18 +5582,18 @@
       <c r="M46" s="84"/>
     </row>
     <row r="47" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A47" s="110" t="s">
-        <v>123</v>
+      <c r="A47" s="97" t="s">
+        <v>164</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="32">
         <v>254</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>11</v>
@@ -5394,7 +5602,7 @@
         <v>17</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="I47" s="25">
         <v>12.36</v>
@@ -5407,16 +5615,16 @@
       <c r="M47" s="84"/>
     </row>
     <row r="48" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A48" s="111"/>
+      <c r="A48" s="101"/>
       <c r="B48" s="25" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="32">
         <v>1235</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>11</v>
@@ -5425,7 +5633,7 @@
         <v>12</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="I48" s="25">
         <v>5.12</v>
@@ -5438,9 +5646,9 @@
       <c r="M48" s="84"/>
     </row>
     <row r="49" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A49" s="111"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="25" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -5455,9 +5663,9 @@
       <c r="M49" s="84"/>
     </row>
     <row r="50" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A50" s="111"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="68" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C50" s="68"/>
       <c r="D50" s="68"/>
@@ -5472,17 +5680,17 @@
       <c r="M50" s="84"/>
     </row>
     <row r="51" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A51" s="111"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="25">
         <v>10</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" s="112">
+        <v>189</v>
+      </c>
+      <c r="E51" s="113">
         <v>76.92</v>
       </c>
       <c r="F51" s="25" t="s">
@@ -5497,17 +5705,17 @@
       <c r="M51" s="84"/>
     </row>
     <row r="52" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A52" s="111"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="25">
         <v>3</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E52" s="112">
+        <v>189</v>
+      </c>
+      <c r="E52" s="113">
         <v>23.08</v>
       </c>
       <c r="F52" s="25" t="s">
@@ -5522,11 +5730,11 @@
       <c r="M52" s="84"/>
     </row>
     <row r="53" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A53" s="111"/>
+      <c r="A53" s="101"/>
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
       <c r="D53" s="28" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="E53" s="57"/>
       <c r="F53" s="28"/>
@@ -5539,11 +5747,11 @@
       <c r="M53" s="84"/>
     </row>
     <row r="54" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A54" s="111"/>
+      <c r="A54" s="101"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
       <c r="D54" s="28" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="E54" s="57"/>
       <c r="F54" s="28"/>
@@ -5556,11 +5764,11 @@
       <c r="M54" s="84"/>
     </row>
     <row r="55" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A55" s="111"/>
+      <c r="A55" s="101"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
       <c r="D55" s="28" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="28"/>
@@ -5573,11 +5781,11 @@
       <c r="M55" s="84"/>
     </row>
     <row r="56" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A56" s="113"/>
+      <c r="A56" s="107"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
       <c r="D56" s="28" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="E56" s="57"/>
       <c r="F56" s="28"/>
@@ -5590,11 +5798,11 @@
       <c r="M56" s="84"/>
     </row>
     <row r="57" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A57" s="110" t="s">
+      <c r="A57" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="68" t="s">
         <v>61</v>
-      </c>
-      <c r="B57" s="68" t="s">
-        <v>62</v>
       </c>
       <c r="C57" s="68"/>
       <c r="D57" s="68"/>
@@ -5609,30 +5817,30 @@
       <c r="M57" s="84"/>
     </row>
     <row r="58" s="85" customFormat="1" spans="1:13">
-      <c r="A58" s="111"/>
+      <c r="A58" s="101"/>
       <c r="B58" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="D58" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="E58" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="F58" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="F58" s="59" t="s">
+      <c r="G58" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="H58" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="J58" s="126"/>
       <c r="K58" s="84"/>
@@ -5640,30 +5848,30 @@
       <c r="M58" s="84"/>
     </row>
     <row r="59" s="85" customFormat="1" spans="1:13">
-      <c r="A59" s="111"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="D59" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="61" t="s">
+      <c r="E59" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="F59" s="62" t="s">
         <v>73</v>
-      </c>
-      <c r="F59" s="62" t="s">
-        <v>74</v>
       </c>
       <c r="G59" s="114">
         <v>45366</v>
       </c>
       <c r="H59" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="J59" s="126"/>
       <c r="K59" s="84"/>
@@ -5671,30 +5879,30 @@
       <c r="M59" s="84"/>
     </row>
     <row r="60" s="85" customFormat="1" spans="1:13">
-      <c r="A60" s="111"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D60" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F60" s="62" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="G60" s="114">
         <v>45365</v>
       </c>
       <c r="H60" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="J60" s="126"/>
       <c r="K60" s="84"/>
@@ -5702,91 +5910,91 @@
       <c r="M60" s="84"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="111"/>
+      <c r="A61" s="101"/>
       <c r="B61" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F61" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" s="114">
         <v>45365</v>
       </c>
       <c r="H61" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J61" s="126"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="101"/>
+      <c r="B62" s="60" t="s">
         <v>86</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J61" s="126"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="111"/>
-      <c r="B62" s="60" t="s">
-        <v>87</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="62" t="s">
         <v>88</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" s="62" t="s">
-        <v>89</v>
       </c>
       <c r="G62" s="114">
         <v>45364</v>
       </c>
       <c r="H62" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J62" s="126"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="111"/>
+      <c r="A63" s="101"/>
       <c r="B63" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F63" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G63" s="114">
         <v>45364</v>
       </c>
       <c r="H63" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J63" s="132"/>
     </row>
     <row r="64" s="85" customFormat="1" spans="1:13">
-      <c r="A64" s="111"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="115"/>
       <c r="C64" s="116"/>
       <c r="D64" s="117"/>
@@ -5801,7 +6009,7 @@
       <c r="M64" s="84"/>
     </row>
     <row r="65" s="84" customFormat="1" spans="1:10">
-      <c r="A65" s="111"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="115"/>
       <c r="C65" s="116"/>
       <c r="D65" s="117"/>
@@ -5813,7 +6021,7 @@
       <c r="J65" s="132"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="111"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="115"/>
       <c r="C66" s="116"/>
       <c r="D66" s="117"/>
@@ -5825,7 +6033,7 @@
       <c r="J66" s="132"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="111"/>
+      <c r="A67" s="101"/>
       <c r="B67" s="115"/>
       <c r="C67" s="116"/>
       <c r="D67" s="117"/>
@@ -5837,7 +6045,7 @@
       <c r="J67" s="132"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="111"/>
+      <c r="A68" s="101"/>
       <c r="B68" s="115"/>
       <c r="C68" s="116"/>
       <c r="D68" s="117"/>
@@ -5850,19 +6058,19 @@
     </row>
     <row r="69" s="84" customFormat="1" spans="1:10">
       <c r="A69" s="133" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="B69" s="134"/>
       <c r="C69" s="134" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="D69" s="134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E69" s="134"/>
       <c r="F69" s="134"/>
       <c r="G69" s="135" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="H69" s="136"/>
       <c r="I69" s="136"/>
@@ -5870,119 +6078,119 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="137" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D70" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="E70" s="103"/>
-      <c r="F70" s="103"/>
+        <v>195</v>
+      </c>
+      <c r="D70" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
       <c r="G70" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="H70" s="101"/>
-      <c r="I70" s="101"/>
+      <c r="H70" s="103"/>
+      <c r="I70" s="103"/>
       <c r="J70" s="125"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="137" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
+        <v>198</v>
+      </c>
+      <c r="D71" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="106"/>
+      <c r="F71" s="106"/>
       <c r="G71" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="H71" s="101"/>
-      <c r="I71" s="101"/>
+        <v>199</v>
+      </c>
+      <c r="H71" s="103"/>
+      <c r="I71" s="103"/>
       <c r="J71" s="125"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="137" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="103"/>
-      <c r="F72" s="103"/>
+        <v>201</v>
+      </c>
+      <c r="D72" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="106"/>
+      <c r="F72" s="106"/>
       <c r="G72" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="H72" s="101"/>
-      <c r="I72" s="101"/>
+        <v>199</v>
+      </c>
+      <c r="H72" s="103"/>
+      <c r="I72" s="103"/>
       <c r="J72" s="125"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="137" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="E73" s="103"/>
-      <c r="F73" s="103"/>
+        <v>201</v>
+      </c>
+      <c r="D73" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="106"/>
+      <c r="F73" s="106"/>
       <c r="G73" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="H73" s="101"/>
-      <c r="I73" s="101"/>
+        <v>199</v>
+      </c>
+      <c r="H73" s="103"/>
+      <c r="I73" s="103"/>
       <c r="J73" s="125"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="137" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
+        <v>201</v>
+      </c>
+      <c r="D74" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="106"/>
+      <c r="F74" s="106"/>
       <c r="G74" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="H74" s="101"/>
-      <c r="I74" s="101"/>
+        <v>199</v>
+      </c>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
       <c r="J74" s="125"/>
     </row>
     <row r="75" ht="14.25" spans="1:10">
       <c r="A75" s="138" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="B75" s="139"/>
       <c r="C75" s="139" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="D75" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E75" s="140"/>
       <c r="F75" s="140"/>
       <c r="G75" s="141" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="H75" s="142"/>
       <c r="I75" s="142"/>
@@ -6002,7 +6210,7 @@
     <row r="87" ht="24" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <mergeCells count="59">
+  <mergeCells count="58">
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="D9:F9"/>
@@ -6051,8 +6259,7 @@
     <mergeCell ref="D74:F74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="D75:F75"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A36"/>
+    <mergeCell ref="A5:A36"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A56"/>
@@ -6063,6 +6270,9 @@
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="A1:J2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404170929/14c884c02b29e15024a080e89af6b2b8/v2/a172c59915c740ddf217045a843154e3/KGTX/CLTX002/a172c59915c740ddf217045a843154e3.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404170929/14c884c02b29e15024a080e89af6b2b8/v2/a172c59915c740ddf217045a843154e3/KGTX/CLTX002/a172c59915c740ddf217045a843154e3.mp4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -6074,10 +6284,10 @@
   <sheetPr/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="XFD1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K$1:XFD$1048576"/>
+      <selection pane="bottomLeft" activeCell="XFD96" sqref="XFD96:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -6092,7 +6302,7 @@
     <col min="8" max="8" width="14.125" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="4" customWidth="1"/>
     <col min="10" max="10" width="15.1" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="16383" width="9" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:10">
@@ -6123,7 +6333,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -6159,7 +6369,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A5" s="14" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>8</v>
@@ -6243,7 +6453,7 @@
     <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A8" s="14"/>
       <c r="B8" s="21" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -6257,7 +6467,7 @@
     <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="22" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -6271,7 +6481,7 @@
     <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A10" s="14"/>
       <c r="B10" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="24">
         <v>0.291666666666667</v>
@@ -6341,7 +6551,7 @@
     <row r="13" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A13" s="14"/>
       <c r="B13" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>19</v>
@@ -6411,7 +6621,7 @@
     <row r="16" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A16" s="14"/>
       <c r="B16" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>19</v>
@@ -6466,7 +6676,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A18" s="14" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>15</v>
@@ -6546,7 +6756,7 @@
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A21" s="14"/>
       <c r="B21" s="21" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -6560,7 +6770,7 @@
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A22" s="14"/>
       <c r="B22" s="22" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -6574,7 +6784,7 @@
     <row r="23" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A23" s="14"/>
       <c r="B23" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="24">
         <v>0.291666666666667</v>
@@ -6644,7 +6854,7 @@
     <row r="26" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A26" s="14"/>
       <c r="B26" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>19</v>
@@ -6714,7 +6924,7 @@
     <row r="29" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A29" s="14"/>
       <c r="B29" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>19</v>
@@ -6769,7 +6979,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A31" s="14" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>20</v>
@@ -6849,7 +7059,7 @@
     <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A34" s="14"/>
       <c r="B34" s="21" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -6863,7 +7073,7 @@
     <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A35" s="14"/>
       <c r="B35" s="28" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -6877,7 +7087,7 @@
     <row r="36" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A36" s="14"/>
       <c r="B36" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="24">
         <v>0.291666666666667</v>
@@ -6947,7 +7157,7 @@
     <row r="39" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A39" s="14"/>
       <c r="B39" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>19</v>
@@ -7017,7 +7227,7 @@
     <row r="42" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A42" s="14"/>
       <c r="B42" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>19</v>
@@ -7091,10 +7301,10 @@
     <row r="45" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A45" s="14"/>
       <c r="B45" s="15" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
@@ -7107,7 +7317,7 @@
     <row r="46" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A46" s="14"/>
       <c r="B46" s="21" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -7121,28 +7331,28 @@
     <row r="47" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A47" s="14"/>
       <c r="B47" s="23" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="J47" s="52"/>
     </row>
@@ -7176,10 +7386,10 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>9</v>
@@ -7208,7 +7418,7 @@
     <row r="50" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A50" s="14"/>
       <c r="B50" s="15" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>13</v>
@@ -7234,7 +7444,7 @@
     <row r="51" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A51" s="14"/>
       <c r="B51" s="15" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>14</v>
@@ -7260,7 +7470,7 @@
     <row r="52" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A52" s="14"/>
       <c r="B52" s="21" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
@@ -7274,7 +7484,7 @@
     <row r="53" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A53" s="14"/>
       <c r="B53" s="28" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
@@ -7288,7 +7498,7 @@
     <row r="54" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A54" s="14"/>
       <c r="B54" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="31">
         <v>46</v>
@@ -7414,7 +7624,7 @@
     <row r="59" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A59" s="14"/>
       <c r="B59" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>19</v>
@@ -7540,7 +7750,7 @@
     <row r="64" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A64" s="14"/>
       <c r="B64" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>19</v>
@@ -8061,10 +8271,10 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A82" s="14" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -8078,168 +8288,168 @@
     <row r="83" s="1" customFormat="1" spans="1:10">
       <c r="A83" s="14"/>
       <c r="B83" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="D83" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D83" s="58" t="s">
+      <c r="E83" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="F83" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="F83" s="59" t="s">
+      <c r="G83" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="H83" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="H83" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I83" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="J83" s="50"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A84" s="14"/>
       <c r="B84" s="60" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F84" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G84" s="63">
         <v>45366</v>
       </c>
       <c r="H84" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J84" s="50"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:10">
       <c r="A85" s="14"/>
       <c r="B85" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D85" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E85" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="F85" s="62" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="G85" s="63">
         <v>45365</v>
       </c>
       <c r="H85" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="I85" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="I85" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="J85" s="50"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:10">
       <c r="A86" s="14"/>
       <c r="B86" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D86" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="F86" s="62" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="G86" s="63">
         <v>45365</v>
       </c>
       <c r="H86" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J86" s="50"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:10">
       <c r="A87" s="14"/>
       <c r="B87" s="15" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D87" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E87" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="F87" s="62" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="G87" s="63">
         <v>45364</v>
       </c>
       <c r="H87" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J87" s="50"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:10">
       <c r="A88" s="14"/>
       <c r="B88" s="15" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="F88" s="62" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="G88" s="63">
         <v>45364</v>
       </c>
       <c r="H88" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J88" s="43"/>
     </row>
@@ -8329,7 +8539,7 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A96" s="67" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="B96" s="68"/>
       <c r="C96" s="68"/>
@@ -8343,10 +8553,10 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A97" s="69" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="C97" s="23" t="s">
         <v>5</v>
@@ -8355,12 +8565,12 @@
         <v>6</v>
       </c>
       <c r="E97" s="70" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="F97" s="70"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="I97" s="16"/>
       <c r="J97" s="76"/>
@@ -8388,7 +8598,7 @@
         <v>36</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="I98" s="17">
         <v>9999999</v>
@@ -8420,7 +8630,7 @@
         <v>36</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="I99" s="17">
         <v>9999999</v>
@@ -8452,7 +8662,7 @@
         <v>36</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="I100" s="17">
         <v>9999999</v>

--- a/public/excel/AIOC数据表单.xlsx
+++ b/public/excel/AIOC数据表单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="综合态势" sheetId="1" r:id="rId1"/>
@@ -2800,7 +2800,7 @@
   <sheetPr/>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C56" sqref="C56:C59"/>
@@ -4741,10 +4741,10 @@
   <sheetPr/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11:F11"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>

--- a/public/excel/AIOC数据表单.xlsx
+++ b/public/excel/AIOC数据表单.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="206">
   <si>
     <t>AIOC数据模版</t>
   </si>
@@ -365,163 +365,79 @@
     <t>室外A1-1001</t>
   </si>
   <si>
-    <t>https://mvwebfs.tx.kugou.com/202404170929/14c884c02b29e15024a080e89af6b2b8/v2/a172c59915c740ddf217045a843154e3/KGTX/CLTX002/a172c59915c740ddf217045a843154e3.mp4</t>
+    <t>https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4</t>
   </si>
   <si>
     <t>室外A1-1002</t>
   </si>
   <si>
-    <t>192.168.1112</t>
-  </si>
-  <si>
     <t>室外A1-1003</t>
   </si>
   <si>
-    <t>192.168.1113</t>
-  </si>
-  <si>
     <t>室外A1-1004</t>
   </si>
   <si>
-    <t>192.168.1114</t>
-  </si>
-  <si>
     <t>室外A1-1005</t>
   </si>
   <si>
-    <t>192.168.1115</t>
-  </si>
-  <si>
     <t>室外A1-1006</t>
   </si>
   <si>
-    <t>192.168.1116</t>
-  </si>
-  <si>
     <t>室外A1-1007</t>
   </si>
   <si>
-    <t>192.168.1117</t>
-  </si>
-  <si>
     <t>室外A1-1008</t>
   </si>
   <si>
-    <t>192.168.1118</t>
-  </si>
-  <si>
     <t>室外A1-1009</t>
   </si>
   <si>
-    <t>192.168.1119</t>
-  </si>
-  <si>
     <t>室外A1-1010</t>
   </si>
   <si>
-    <t>192.168.1120</t>
-  </si>
-  <si>
     <t>室外A1-1011</t>
   </si>
   <si>
-    <t>192.168.1121</t>
-  </si>
-  <si>
     <t>室外A1-1012</t>
   </si>
   <si>
-    <t>192.168.1122</t>
-  </si>
-  <si>
-    <t>室外A1-1013</t>
-  </si>
-  <si>
-    <t>192.168.1123</t>
-  </si>
-  <si>
     <t>室外A1-1014</t>
   </si>
   <si>
-    <t>192.168.1124</t>
-  </si>
-  <si>
     <t>室外A1-1015</t>
   </si>
   <si>
-    <t>192.168.1125</t>
-  </si>
-  <si>
     <t>室外A1-1016</t>
   </si>
   <si>
-    <t>192.168.1126</t>
-  </si>
-  <si>
     <t>室外A1-1017</t>
   </si>
   <si>
-    <t>192.168.1127</t>
-  </si>
-  <si>
     <t>室外A1-1018</t>
   </si>
   <si>
-    <t>192.168.1128</t>
-  </si>
-  <si>
     <t>室外A1-1019</t>
   </si>
   <si>
-    <t>192.168.1129</t>
-  </si>
-  <si>
-    <t>室外A1-1020</t>
-  </si>
-  <si>
-    <t>192.168.1130</t>
-  </si>
-  <si>
     <t>室外A1-1021</t>
   </si>
   <si>
-    <t>192.168.1131</t>
-  </si>
-  <si>
     <t>室外A1-1022</t>
   </si>
   <si>
-    <t>192.168.1132</t>
-  </si>
-  <si>
     <t>室外A1-1023</t>
   </si>
   <si>
-    <t>192.168.1133</t>
-  </si>
-  <si>
     <t>室外A1-1024</t>
   </si>
   <si>
-    <t>192.168.1134</t>
-  </si>
-  <si>
     <t>室外A1-1025</t>
   </si>
   <si>
-    <t>192.168.1135</t>
-  </si>
-  <si>
     <t>室外A1-1026</t>
   </si>
   <si>
-    <t>192.168.1136</t>
-  </si>
-  <si>
-    <t>室外A1-1027</t>
-  </si>
-  <si>
-    <t>192.168.1137</t>
+    <t>https://vd4.bdstatic.com/mda-qci79xawi1fbhrn8/uhd/cae_h264/1710923724991282317/mda-qci79xawi1fbhrn8.mp4?pd=2&amp;pt=0&amp;cr=-1&amp;vt=0&amp;cd=0&amp;did=cfcd208495d565ef66e7dff9f98764da&amp;logid=2916893582&amp;vid=7828995371154815492&amp;auth_key=1713759517-0-0-e412971c2d338625caeb227a59300c39&amp;bcevod_channel=searchbox_feed</t>
   </si>
   <si>
     <t>告警统计</t>
@@ -630,6 +546,9 @@
     <t>大门入口</t>
   </si>
   <si>
+    <t>192.168.1112</t>
+  </si>
+  <si>
     <t>正常</t>
   </si>
   <si>
@@ -639,13 +558,25 @@
     <t>东北方向</t>
   </si>
   <si>
+    <t>192.168.1113</t>
+  </si>
+  <si>
     <t>外围-004</t>
   </si>
   <si>
+    <t>192.168.1114</t>
+  </si>
+  <si>
     <t>外围-005</t>
   </si>
   <si>
+    <t>192.168.1115</t>
+  </si>
+  <si>
     <t>外围-006</t>
+  </si>
+  <si>
+    <t>192.168.1116</t>
   </si>
   <si>
     <t>3-能源管理</t>
@@ -2127,9 +2058,6 @@
     <xf numFmtId="181" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2146,6 +2074,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4011,32 +3942,32 @@
       <c r="B50" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="108"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="61">
         <v>320</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="109"/>
+      <c r="F50" s="108"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
       <c r="J50" s="126"/>
     </row>
     <row r="51" customFormat="1" spans="1:10">
-      <c r="A51" s="107"/>
+      <c r="A51" s="113"/>
       <c r="B51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="108"/>
+      <c r="C51" s="107"/>
       <c r="D51" s="61">
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="109"/>
+      <c r="F51" s="108"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
@@ -4049,14 +3980,14 @@
       <c r="B52" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="108"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="61">
         <v>124</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="109"/>
+      <c r="F52" s="108"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
@@ -4067,14 +3998,14 @@
       <c r="B53" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="108"/>
+      <c r="C53" s="107"/>
       <c r="D53" s="61">
         <v>100</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="109"/>
+      <c r="F53" s="108"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
@@ -4085,14 +4016,14 @@
       <c r="B54" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="108"/>
+      <c r="C54" s="107"/>
       <c r="D54" s="61">
         <v>23</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="109"/>
+      <c r="F54" s="108"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
@@ -4103,14 +4034,14 @@
       <c r="B55" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="108"/>
+      <c r="C55" s="107"/>
       <c r="D55" s="61">
         <v>1</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="109"/>
+      <c r="F55" s="108"/>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
@@ -4128,7 +4059,7 @@
       <c r="E56" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="109"/>
+      <c r="F56" s="108"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
@@ -4146,7 +4077,7 @@
       <c r="E57" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="109"/>
+      <c r="F57" s="108"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
@@ -4164,14 +4095,14 @@
       <c r="E58" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="109"/>
+      <c r="F58" s="108"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
       <c r="J58" s="126"/>
     </row>
     <row r="59" customFormat="1" spans="1:10">
-      <c r="A59" s="107"/>
+      <c r="A59" s="113"/>
       <c r="B59" s="15" t="s">
         <v>59</v>
       </c>
@@ -4182,7 +4113,7 @@
       <c r="E59" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="109"/>
+      <c r="F59" s="108"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
@@ -4739,12 +4670,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -4754,7 +4685,7 @@
     <col min="3" max="3" width="12.1666666666667" style="85" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="87" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="85" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="88" customWidth="1"/>
+    <col min="6" max="6" width="140.75" style="88" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="85" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="85" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="85" customWidth="1"/>
@@ -4937,8 +4868,8 @@
       <c r="C11" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="106" t="s">
-        <v>113</v>
+      <c r="D11" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E11" s="106"/>
       <c r="F11" s="106"/>
@@ -4951,10 +4882,10 @@
       <c r="A12" s="101"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="106" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="106"/>
@@ -4967,10 +4898,10 @@
       <c r="A13" s="101"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="106" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E13" s="106"/>
       <c r="F13" s="106"/>
@@ -4983,10 +4914,10 @@
       <c r="A14" s="101"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="106" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
@@ -4999,10 +4930,10 @@
       <c r="A15" s="101"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="106" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
@@ -5017,10 +4948,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="106" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
@@ -5033,10 +4964,10 @@
       <c r="A17" s="101"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="106" t="s">
-        <v>125</v>
+        <v>118</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E17" s="106"/>
       <c r="F17" s="106"/>
@@ -5049,10 +4980,10 @@
       <c r="A18" s="101"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="106" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E18" s="106"/>
       <c r="F18" s="106"/>
@@ -5065,10 +4996,10 @@
       <c r="A19" s="101"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="106" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E19" s="106"/>
       <c r="F19" s="106"/>
@@ -5081,10 +5012,10 @@
       <c r="A20" s="101"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="106" t="s">
-        <v>131</v>
+        <v>121</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -5097,10 +5028,10 @@
       <c r="A21" s="101"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="106" t="s">
-        <v>133</v>
+        <v>122</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E21" s="106"/>
       <c r="F21" s="106"/>
@@ -5111,12 +5042,14 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="101"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="C22" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="106" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E22" s="106"/>
       <c r="F22" s="106"/>
@@ -5127,14 +5060,12 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="101"/>
-      <c r="B23" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="106" t="s">
-        <v>137</v>
+        <v>124</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E23" s="106"/>
       <c r="F23" s="106"/>
@@ -5147,10 +5078,10 @@
       <c r="A24" s="101"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="106" t="s">
-        <v>139</v>
+        <v>125</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E24" s="106"/>
       <c r="F24" s="106"/>
@@ -5163,10 +5094,10 @@
       <c r="A25" s="101"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="106" t="s">
-        <v>141</v>
+        <v>126</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E25" s="106"/>
       <c r="F25" s="106"/>
@@ -5179,10 +5110,10 @@
       <c r="A26" s="101"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="106" t="s">
-        <v>143</v>
+        <v>127</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E26" s="106"/>
       <c r="F26" s="106"/>
@@ -5195,10 +5126,10 @@
       <c r="A27" s="101"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="106" t="s">
-        <v>145</v>
+        <v>128</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E27" s="106"/>
       <c r="F27" s="106"/>
@@ -5209,12 +5140,14 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="101"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="C28" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="106" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="D28" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E28" s="106"/>
       <c r="F28" s="106"/>
@@ -5227,10 +5160,10 @@
       <c r="A29" s="101"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="106" t="s">
-        <v>149</v>
+        <v>130</v>
+      </c>
+      <c r="D29" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E29" s="106"/>
       <c r="F29" s="106"/>
@@ -5241,14 +5174,12 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="101"/>
-      <c r="B30" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="106" t="s">
-        <v>151</v>
+        <v>131</v>
+      </c>
+      <c r="D30" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E30" s="106"/>
       <c r="F30" s="106"/>
@@ -5261,10 +5192,10 @@
       <c r="A31" s="101"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="106" t="s">
-        <v>153</v>
+        <v>132</v>
+      </c>
+      <c r="D31" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E31" s="106"/>
       <c r="F31" s="106"/>
@@ -5277,10 +5208,10 @@
       <c r="A32" s="101"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="106" t="s">
-        <v>155</v>
+        <v>133</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="E32" s="106"/>
       <c r="F32" s="106"/>
@@ -5289,14 +5220,14 @@
       <c r="I32" s="103"/>
       <c r="J32" s="125"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" ht="42" customHeight="1" spans="1:10">
       <c r="A33" s="101"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="106" t="s">
-        <v>157</v>
+        <v>134</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>135</v>
       </c>
       <c r="E33" s="106"/>
       <c r="F33" s="106"/>
@@ -5305,311 +5236,328 @@
       <c r="I33" s="103"/>
       <c r="J33" s="125"/>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="101"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D34" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="125"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="101"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="125"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="107"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="125"/>
+    <row r="34" s="85" customFormat="1" spans="1:13">
+      <c r="A34" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="107"/>
+      <c r="D34" s="61">
+        <v>584</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="108"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+    </row>
+    <row r="35" s="85" customFormat="1" spans="1:13">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="107"/>
+      <c r="D35" s="61">
+        <v>146</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="108"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+    </row>
+    <row r="36" s="85" customFormat="1" spans="1:13">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="107"/>
+      <c r="D36" s="61">
+        <v>3</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="108"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
     </row>
     <row r="37" s="85" customFormat="1" spans="1:13">
-      <c r="A37" s="14" t="s">
-        <v>164</v>
-      </c>
+      <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="61">
-        <v>584</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" s="109"/>
+        <v>140</v>
+      </c>
+      <c r="C37" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
       <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="126"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="127"/>
       <c r="K37" s="84"/>
       <c r="L37" s="84"/>
       <c r="M37" s="84"/>
     </row>
     <row r="38" s="85" customFormat="1" spans="1:13">
       <c r="A38" s="14"/>
-      <c r="B38" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="61">
-        <v>146</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="109"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="126"/>
+      <c r="B38" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="128"/>
       <c r="K38" s="84"/>
       <c r="L38" s="84"/>
       <c r="M38" s="84"/>
     </row>
     <row r="39" s="85" customFormat="1" spans="1:13">
       <c r="A39" s="14"/>
-      <c r="B39" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="108"/>
-      <c r="D39" s="61">
-        <v>3</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="109"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="126"/>
+      <c r="B39" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="J39" s="129"/>
       <c r="K39" s="84"/>
       <c r="L39" s="84"/>
       <c r="M39" s="84"/>
     </row>
     <row r="40" s="85" customFormat="1" spans="1:13">
       <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="127"/>
+      <c r="B40" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="110">
+        <v>20</v>
+      </c>
+      <c r="D40" s="110">
+        <v>30</v>
+      </c>
+      <c r="E40" s="110">
+        <v>12</v>
+      </c>
+      <c r="F40" s="110">
+        <v>15</v>
+      </c>
+      <c r="G40" s="25">
+        <v>23</v>
+      </c>
+      <c r="H40" s="110">
+        <v>34</v>
+      </c>
+      <c r="I40" s="110">
+        <v>12</v>
+      </c>
+      <c r="J40" s="126"/>
       <c r="K40" s="84"/>
       <c r="L40" s="84"/>
       <c r="M40" s="84"/>
     </row>
     <row r="41" s="85" customFormat="1" spans="1:13">
-      <c r="A41" s="14"/>
-      <c r="B41" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="128"/>
+      <c r="A41" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="107"/>
+      <c r="D41" s="61">
+        <v>12.6</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="108"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="126"/>
       <c r="K41" s="84"/>
       <c r="L41" s="84"/>
       <c r="M41" s="84"/>
     </row>
     <row r="42" s="85" customFormat="1" spans="1:13">
       <c r="A42" s="14"/>
-      <c r="B42" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="110" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="110" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" s="110" t="s">
-        <v>174</v>
-      </c>
-      <c r="F42" s="110" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="H42" s="110" t="s">
-        <v>177</v>
-      </c>
-      <c r="I42" s="110" t="s">
-        <v>178</v>
-      </c>
-      <c r="J42" s="129"/>
+      <c r="B42" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="107"/>
+      <c r="D42" s="61">
+        <v>12.6</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="108"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="126"/>
       <c r="K42" s="84"/>
       <c r="L42" s="84"/>
       <c r="M42" s="84"/>
     </row>
     <row r="43" s="85" customFormat="1" spans="1:13">
       <c r="A43" s="14"/>
-      <c r="B43" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="111">
-        <v>20</v>
-      </c>
-      <c r="D43" s="111">
-        <v>30</v>
-      </c>
-      <c r="E43" s="111">
-        <v>12</v>
-      </c>
-      <c r="F43" s="111">
-        <v>15</v>
-      </c>
-      <c r="G43" s="25">
-        <v>23</v>
-      </c>
-      <c r="H43" s="111">
-        <v>34</v>
-      </c>
-      <c r="I43" s="111">
-        <v>12</v>
-      </c>
+      <c r="B43" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="107"/>
+      <c r="D43" s="61">
+        <v>40.5</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="108"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="126"/>
       <c r="K43" s="84"/>
       <c r="L43" s="84"/>
       <c r="M43" s="84"/>
     </row>
-    <row r="44" s="85" customFormat="1" spans="1:13">
-      <c r="A44" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="108"/>
-      <c r="D44" s="61">
-        <v>12.6</v>
-      </c>
-      <c r="E44" s="15" t="s">
+    <row r="44" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
+      <c r="A44" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="32">
+        <v>254</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="25">
+        <v>12.36</v>
+      </c>
+      <c r="J44" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="109"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="126"/>
       <c r="K44" s="84"/>
       <c r="L44" s="84"/>
       <c r="M44" s="84"/>
     </row>
-    <row r="45" s="85" customFormat="1" spans="1:13">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C45" s="108"/>
-      <c r="D45" s="61">
-        <v>12.6</v>
-      </c>
-      <c r="E45" s="15" t="s">
+    <row r="45" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
+      <c r="A45" s="101"/>
+      <c r="B45" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="32">
+        <v>1235</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" s="25">
+        <v>5.12</v>
+      </c>
+      <c r="J45" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="109"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="126"/>
       <c r="K45" s="84"/>
       <c r="L45" s="84"/>
       <c r="M45" s="84"/>
     </row>
-    <row r="46" s="85" customFormat="1" spans="1:13">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="108"/>
-      <c r="D46" s="61">
-        <v>40.5</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="109"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="126"/>
+    <row r="46" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
+      <c r="A46" s="101"/>
+      <c r="B46" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="130"/>
       <c r="K46" s="84"/>
       <c r="L46" s="84"/>
       <c r="M46" s="84"/>
     </row>
     <row r="47" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A47" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="32">
-        <v>254</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="I47" s="25">
-        <v>12.36</v>
-      </c>
-      <c r="J47" s="130" t="s">
-        <v>18</v>
-      </c>
+      <c r="A47" s="101"/>
+      <c r="B47" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="131"/>
       <c r="K47" s="84"/>
       <c r="L47" s="84"/>
       <c r="M47" s="84"/>
@@ -5617,30 +5565,24 @@
     <row r="48" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A48" s="101"/>
       <c r="B48" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="32">
-        <v>1235</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>166</v>
+        <v>71</v>
+      </c>
+      <c r="C48" s="25">
+        <v>10</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="112">
+        <v>76.92</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="I48" s="25">
-        <v>5.12</v>
-      </c>
-      <c r="J48" s="130" t="s">
         <v>18</v>
       </c>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="126"/>
       <c r="K48" s="84"/>
       <c r="L48" s="84"/>
       <c r="M48" s="84"/>
@@ -5648,54 +5590,54 @@
     <row r="49" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A49" s="101"/>
       <c r="B49" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="130"/>
+        <v>87</v>
+      </c>
+      <c r="C49" s="25">
+        <v>3</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="112">
+        <v>23.08</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="126"/>
       <c r="K49" s="84"/>
       <c r="L49" s="84"/>
       <c r="M49" s="84"/>
     </row>
     <row r="50" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A50" s="101"/>
-      <c r="B50" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="131"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="57"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="126"/>
       <c r="K50" s="84"/>
       <c r="L50" s="84"/>
       <c r="M50" s="84"/>
     </row>
     <row r="51" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A51" s="101"/>
-      <c r="B51" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="25">
-        <v>10</v>
-      </c>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E51" s="113">
-        <v>76.92</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>18</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E51" s="57"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
@@ -5706,21 +5648,13 @@
     </row>
     <row r="52" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A52" s="101"/>
-      <c r="B52" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="25">
-        <v>3</v>
-      </c>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E52" s="113">
-        <v>23.08</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>18</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E52" s="57"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
@@ -5730,11 +5664,11 @@
       <c r="M52" s="84"/>
     </row>
     <row r="53" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A53" s="101"/>
+      <c r="A53" s="113"/>
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
       <c r="D53" s="28" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="E53" s="57"/>
       <c r="F53" s="28"/>
@@ -5747,144 +5681,180 @@
       <c r="M53" s="84"/>
     </row>
     <row r="54" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A54" s="101"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E54" s="57"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="126"/>
+      <c r="A54" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="131"/>
       <c r="K54" s="84"/>
       <c r="L54" s="84"/>
       <c r="M54" s="84"/>
     </row>
-    <row r="55" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
+    <row r="55" s="85" customFormat="1" spans="1:13">
       <c r="A55" s="101"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E55" s="57"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
+      <c r="B55" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="J55" s="126"/>
       <c r="K55" s="84"/>
       <c r="L55" s="84"/>
       <c r="M55" s="84"/>
     </row>
-    <row r="56" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A56" s="107"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E56" s="57"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+    <row r="56" s="85" customFormat="1" spans="1:13">
+      <c r="A56" s="101"/>
+      <c r="B56" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="114">
+        <v>45366</v>
+      </c>
+      <c r="H56" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="J56" s="126"/>
       <c r="K56" s="84"/>
       <c r="L56" s="84"/>
       <c r="M56" s="84"/>
     </row>
-    <row r="57" s="85" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A57" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="131"/>
+    <row r="57" s="85" customFormat="1" spans="1:13">
+      <c r="A57" s="101"/>
+      <c r="B57" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="114">
+        <v>45365</v>
+      </c>
+      <c r="H57" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" s="126"/>
       <c r="K57" s="84"/>
       <c r="L57" s="84"/>
       <c r="M57" s="84"/>
     </row>
-    <row r="58" s="85" customFormat="1" spans="1:13">
+    <row r="58" spans="1:10">
       <c r="A58" s="101"/>
-      <c r="B58" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>68</v>
+      <c r="B58" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="114">
+        <v>45365</v>
+      </c>
+      <c r="H58" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="J58" s="126"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-    </row>
-    <row r="59" s="85" customFormat="1" spans="1:13">
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="101"/>
-      <c r="B59" s="15" t="s">
-        <v>69</v>
+      <c r="B59" s="60" t="s">
+        <v>86</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F59" s="62" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G59" s="114">
-        <v>45366</v>
+        <v>45364</v>
       </c>
       <c r="H59" s="62" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J59" s="126"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-    </row>
-    <row r="60" s="85" customFormat="1" spans="1:13">
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="101"/>
       <c r="B60" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D60" s="61" t="s">
         <v>87</v>
@@ -5893,107 +5863,59 @@
         <v>79</v>
       </c>
       <c r="F60" s="62" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="G60" s="114">
-        <v>45365</v>
+        <v>45364</v>
       </c>
       <c r="H60" s="62" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J60" s="126"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="J60" s="132"/>
+    </row>
+    <row r="61" s="85" customFormat="1" spans="1:13">
       <c r="A61" s="101"/>
-      <c r="B61" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G61" s="114">
-        <v>45365</v>
-      </c>
-      <c r="H61" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J61" s="126"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="B61" s="115"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="119"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="84"/>
+      <c r="M61" s="84"/>
+    </row>
+    <row r="62" s="84" customFormat="1" spans="1:10">
       <c r="A62" s="101"/>
-      <c r="B62" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F62" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G62" s="114">
-        <v>45364</v>
-      </c>
-      <c r="H62" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J62" s="126"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="119"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="116"/>
+      <c r="J62" s="132"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="101"/>
-      <c r="B63" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F63" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="G63" s="114">
-        <v>45364</v>
-      </c>
-      <c r="H63" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="I63" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B63" s="115"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="119"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="116"/>
       <c r="J63" s="132"/>
     </row>
-    <row r="64" s="85" customFormat="1" spans="1:13">
+    <row r="64" spans="1:10">
       <c r="A64" s="101"/>
       <c r="B64" s="115"/>
       <c r="C64" s="116"/>
@@ -6004,11 +5926,8 @@
       <c r="H64" s="118"/>
       <c r="I64" s="116"/>
       <c r="J64" s="132"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-    </row>
-    <row r="65" s="84" customFormat="1" spans="1:10">
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="101"/>
       <c r="B65" s="115"/>
       <c r="C65" s="116"/>
@@ -6020,77 +5939,101 @@
       <c r="I65" s="116"/>
       <c r="J65" s="132"/>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="101"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="119"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="116"/>
-      <c r="J66" s="132"/>
+    <row r="66" s="84" customFormat="1" spans="1:10">
+      <c r="A66" s="133" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="134"/>
+      <c r="C66" s="134" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="134" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="H66" s="136"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="143"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="101"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="117"/>
-      <c r="E67" s="116"/>
-      <c r="F67" s="118"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="118"/>
-      <c r="I67" s="116"/>
-      <c r="J67" s="132"/>
+      <c r="A67" s="137" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="106" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" s="103"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="125"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="101"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="117"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="118"/>
-      <c r="G68" s="119"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="132"/>
-    </row>
-    <row r="69" s="84" customFormat="1" spans="1:10">
-      <c r="A69" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" s="134"/>
-      <c r="C69" s="134" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="134" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="134"/>
-      <c r="F69" s="134"/>
-      <c r="G69" s="135" t="s">
-        <v>193</v>
-      </c>
-      <c r="H69" s="136"/>
-      <c r="I69" s="136"/>
-      <c r="J69" s="143"/>
+      <c r="A68" s="137" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H68" s="103"/>
+      <c r="I68" s="103"/>
+      <c r="J68" s="125"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H69" s="103"/>
+      <c r="I69" s="103"/>
+      <c r="J69" s="125"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="137" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D70" s="106" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E70" s="106"/>
       <c r="F70" s="106"/>
       <c r="G70" s="39" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="H70" s="103"/>
       <c r="I70" s="103"/>
@@ -6098,104 +6041,47 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="137" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D71" s="106" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="E71" s="106"/>
       <c r="F71" s="106"/>
       <c r="G71" s="39" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="H71" s="103"/>
       <c r="I71" s="103"/>
       <c r="J71" s="125"/>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="137" t="s">
-        <v>200</v>
-      </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72" s="106" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" s="106"/>
-      <c r="F72" s="106"/>
-      <c r="G72" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="H72" s="103"/>
-      <c r="I72" s="103"/>
-      <c r="J72" s="125"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="E73" s="106"/>
-      <c r="F73" s="106"/>
-      <c r="G73" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="H73" s="103"/>
-      <c r="I73" s="103"/>
-      <c r="J73" s="125"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="137" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="106" t="s">
-        <v>119</v>
-      </c>
-      <c r="E74" s="106"/>
-      <c r="F74" s="106"/>
-      <c r="G74" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="125"/>
-    </row>
-    <row r="75" ht="14.25" spans="1:10">
-      <c r="A75" s="138" t="s">
-        <v>204</v>
-      </c>
-      <c r="B75" s="139"/>
-      <c r="C75" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="D75" s="140" t="s">
-        <v>121</v>
-      </c>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="H75" s="142"/>
-      <c r="I75" s="142"/>
-      <c r="J75" s="144"/>
-    </row>
+    <row r="72" ht="14.25" spans="1:10">
+      <c r="A72" s="138" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="139"/>
+      <c r="C72" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" s="140" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="140"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="141" t="s">
+        <v>172</v>
+      </c>
+      <c r="H72" s="142"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="144"/>
+    </row>
+    <row r="73" ht="24" customHeight="1"/>
+    <row r="74" ht="24" customHeight="1"/>
+    <row r="75" ht="24" customHeight="1"/>
     <row r="76" ht="24" customHeight="1"/>
     <row r="77" ht="24" customHeight="1"/>
     <row r="78" ht="24" customHeight="1"/>
@@ -6205,12 +6091,9 @@
     <row r="82" ht="24" customHeight="1"/>
     <row r="83" ht="24" customHeight="1"/>
     <row r="84" ht="24" customHeight="1"/>
-    <row r="85" ht="24" customHeight="1"/>
-    <row r="86" ht="24" customHeight="1"/>
-    <row r="87" ht="24" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <mergeCells count="58">
+  <mergeCells count="55">
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="D9:F9"/>
@@ -6238,13 +6121,16 @@
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:F68"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="D69:F69"/>
     <mergeCell ref="A70:B70"/>
@@ -6253,25 +6139,42 @@
     <mergeCell ref="D71:F71"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="D72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="A5:A36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A57:A68"/>
+    <mergeCell ref="A5:A33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="A54:A65"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
     <mergeCell ref="A1:J2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404170929/14c884c02b29e15024a080e89af6b2b8/v2/a172c59915c740ddf217045a843154e3/KGTX/CLTX002/a172c59915c740ddf217045a843154e3.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404170929/14c884c02b29e15024a080e89af6b2b8/v2/a172c59915c740ddf217045a843154e3/KGTX/CLTX002/a172c59915c740ddf217045a843154e3.mp4"/>
+    <hyperlink ref="D10" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D11" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D12" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D13" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D14" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D15" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D16" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D17" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D18" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D19" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D20" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D21" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D22" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D23" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D24" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D25" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D26" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D27" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D28" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D29" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D30" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D31" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D32" r:id="rId1" display="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4" tooltip="https://mvwebfs.tx.kugou.com/202404221135/4b32b80c5a1c13fe18efeb4cd318fd72/v2/216e236d25481d89f45e9b6d2fd70f15/KGTX/CLTX002/216e236d25481d89f45e9b6d2fd70f15.mp4"/>
+    <hyperlink ref="D33" r:id="rId2" display="https://vd4.bdstatic.com/mda-qci79xawi1fbhrn8/uhd/cae_h264/1710923724991282317/mda-qci79xawi1fbhrn8.mp4?pd=2&amp;pt=0&amp;cr=-1&amp;vt=0&amp;cd=0&amp;did=cfcd208495d565ef66e7dff9f98764da&amp;logid=2916893582&amp;vid=7828995371154815492&amp;auth_key=1713759517-0-0-e412971c2d338625caeb227a59300c39&amp;bcevod_channel=searchbox_feed" tooltip="https://vd4.bdstatic.com/mda-qci79xawi1fbhrn8/uhd/cae_h264/1710923724991282317/mda-qci79xawi1fbhrn8.mp4?pd=2&amp;pt=0&amp;cr=-1&amp;vt=0&amp;cd=0&amp;did=cfcd208495d565ef66e7dff9f98764da&amp;logid=2916893582&amp;vid=7828995371154815492&amp;auth_key=1713759517-0-0-e412971c2d338625caeb227"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6333,7 +6236,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -6369,7 +6272,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A5" s="14" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>8</v>
@@ -6453,7 +6356,7 @@
     <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A8" s="14"/>
       <c r="B8" s="21" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -6467,7 +6370,7 @@
     <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="22" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -6676,7 +6579,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A18" s="14" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>15</v>
@@ -6756,7 +6659,7 @@
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A21" s="14"/>
       <c r="B21" s="21" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -6770,7 +6673,7 @@
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A22" s="14"/>
       <c r="B22" s="22" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -6979,7 +6882,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A31" s="14" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>20</v>
@@ -7059,7 +6962,7 @@
     <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A34" s="14"/>
       <c r="B34" s="21" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -7073,7 +6976,7 @@
     <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A35" s="14"/>
       <c r="B35" s="28" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -7301,10 +7204,10 @@
     <row r="45" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A45" s="14"/>
       <c r="B45" s="15" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
@@ -7317,7 +7220,7 @@
     <row r="46" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A46" s="14"/>
       <c r="B46" s="21" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -7331,28 +7234,28 @@
     <row r="47" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A47" s="14"/>
       <c r="B47" s="23" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="J47" s="52"/>
     </row>
@@ -7386,10 +7289,10 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>9</v>
@@ -7418,7 +7321,7 @@
     <row r="50" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A50" s="14"/>
       <c r="B50" s="15" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>13</v>
@@ -7444,7 +7347,7 @@
     <row r="51" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A51" s="14"/>
       <c r="B51" s="15" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>14</v>
@@ -7470,7 +7373,7 @@
     <row r="52" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A52" s="14"/>
       <c r="B52" s="21" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
@@ -7484,7 +7387,7 @@
     <row r="53" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A53" s="14"/>
       <c r="B53" s="28" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
@@ -8271,10 +8174,10 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A82" s="14" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -8316,13 +8219,13 @@
     <row r="84" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A84" s="14"/>
       <c r="B84" s="60" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>72</v>
@@ -8356,7 +8259,7 @@
         <v>79</v>
       </c>
       <c r="F85" s="62" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="G85" s="63">
         <v>45365</v>
@@ -8384,7 +8287,7 @@
         <v>79</v>
       </c>
       <c r="F86" s="62" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="G86" s="63">
         <v>45365</v>
@@ -8400,7 +8303,7 @@
     <row r="87" s="1" customFormat="1" spans="1:10">
       <c r="A87" s="14"/>
       <c r="B87" s="15" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>38</v>
@@ -8412,7 +8315,7 @@
         <v>79</v>
       </c>
       <c r="F87" s="62" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="G87" s="63">
         <v>45364</v>
@@ -8428,7 +8331,7 @@
     <row r="88" s="1" customFormat="1" spans="1:10">
       <c r="A88" s="14"/>
       <c r="B88" s="15" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>39</v>
@@ -8440,7 +8343,7 @@
         <v>79</v>
       </c>
       <c r="F88" s="62" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="G88" s="63">
         <v>45364</v>
@@ -8539,7 +8442,7 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A96" s="67" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B96" s="68"/>
       <c r="C96" s="68"/>
@@ -8553,10 +8456,10 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A97" s="69" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C97" s="23" t="s">
         <v>5</v>
@@ -8565,12 +8468,12 @@
         <v>6</v>
       </c>
       <c r="E97" s="70" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F97" s="70"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="I97" s="16"/>
       <c r="J97" s="76"/>
@@ -8598,7 +8501,7 @@
         <v>36</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="I98" s="17">
         <v>9999999</v>
@@ -8630,7 +8533,7 @@
         <v>36</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="I99" s="17">
         <v>9999999</v>
@@ -8662,7 +8565,7 @@
         <v>36</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="I100" s="17">
         <v>9999999</v>

--- a/public/excel/AIOC数据表单.xlsx
+++ b/public/excel/AIOC数据表单.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="207">
   <si>
     <t>AIOC数据模版</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>占比</t>
+  </si>
+  <si>
+    <t>综合告警2</t>
   </si>
   <si>
     <t>监控点位_003</t>
@@ -4609,10 +4612,10 @@
   <sheetPr/>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -5560,7 +5563,7 @@
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:10">
       <c r="A54" s="82" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="B54" s="57" t="s">
         <v>61</v>
@@ -5645,7 +5648,7 @@
         <v>79</v>
       </c>
       <c r="F57" s="44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G57" s="98">
         <v>45365</v>
@@ -5804,11 +5807,11 @@
     </row>
     <row r="66" s="71" customFormat="1" spans="1:10">
       <c r="A66" s="115" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B66" s="116"/>
       <c r="C66" s="116" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D66" s="116" t="s">
         <v>108</v>
@@ -5816,7 +5819,7 @@
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H66" s="117"/>
       <c r="I66" s="117"/>
@@ -5824,14 +5827,14 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="118" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D67" s="90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E67" s="90"/>
       <c r="F67" s="90"/>
@@ -5844,19 +5847,19 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="118" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D68" s="90" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E68" s="90"/>
       <c r="F68" s="90"/>
       <c r="G68" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H68" s="88"/>
       <c r="I68" s="88"/>
@@ -5864,19 +5867,19 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="118" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D69" s="90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E69" s="90"/>
       <c r="F69" s="90"/>
       <c r="G69" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H69" s="88"/>
       <c r="I69" s="88"/>
@@ -5884,19 +5887,19 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="118" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D70" s="90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E70" s="90"/>
       <c r="F70" s="90"/>
       <c r="G70" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H70" s="88"/>
       <c r="I70" s="88"/>
@@ -5904,19 +5907,19 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="118" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D71" s="90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E71" s="90"/>
       <c r="F71" s="90"/>
       <c r="G71" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H71" s="88"/>
       <c r="I71" s="88"/>
@@ -5924,19 +5927,19 @@
     </row>
     <row r="72" ht="14.25" spans="1:10">
       <c r="A72" s="119" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B72" s="120"/>
       <c r="C72" s="120" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D72" s="121" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E72" s="121"/>
       <c r="F72" s="121"/>
       <c r="G72" s="122" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H72" s="123"/>
       <c r="I72" s="123"/>
@@ -6050,8 +6053,8 @@
   <sheetPr/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="XFD1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="XFD96" sqref="XFD96:XFD101"/>
     </sheetView>
@@ -6099,7 +6102,7 @@
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -6135,7 +6138,7 @@
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:10">
       <c r="A5" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -6233,7 +6236,7 @@
     <row r="9" ht="18" customHeight="1" spans="1:10">
       <c r="A9" s="11"/>
       <c r="B9" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -6442,7 +6445,7 @@
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:10">
       <c r="A18" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>15</v>
@@ -6536,7 +6539,7 @@
     <row r="22" ht="18" customHeight="1" spans="1:10">
       <c r="A22" s="11"/>
       <c r="B22" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -6745,7 +6748,7 @@
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:10">
       <c r="A31" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>20</v>
@@ -6839,7 +6842,7 @@
     <row r="35" ht="18" customHeight="1" spans="1:10">
       <c r="A35" s="11"/>
       <c r="B35" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -7152,10 +7155,10 @@
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:10">
       <c r="A49" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>9</v>
@@ -7184,7 +7187,7 @@
     <row r="50" ht="18" customHeight="1" spans="1:10">
       <c r="A50" s="11"/>
       <c r="B50" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>13</v>
@@ -7210,7 +7213,7 @@
     <row r="51" ht="18" customHeight="1" spans="1:10">
       <c r="A51" s="11"/>
       <c r="B51" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>14</v>
@@ -7250,7 +7253,7 @@
     <row r="53" ht="18" customHeight="1" spans="1:10">
       <c r="A53" s="11"/>
       <c r="B53" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -8037,10 +8040,10 @@
     </row>
     <row r="82" ht="20" customHeight="1" spans="1:10">
       <c r="A82" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -8082,13 +8085,13 @@
     <row r="84" ht="27" spans="1:10">
       <c r="A84" s="11"/>
       <c r="B84" s="50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>72</v>
@@ -8122,7 +8125,7 @@
         <v>79</v>
       </c>
       <c r="F85" s="44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G85" s="52">
         <v>45365</v>
@@ -8150,7 +8153,7 @@
         <v>79</v>
       </c>
       <c r="F86" s="44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G86" s="52">
         <v>45365</v>
@@ -8166,7 +8169,7 @@
     <row r="87" spans="1:10">
       <c r="A87" s="11"/>
       <c r="B87" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>38</v>
@@ -8178,7 +8181,7 @@
         <v>79</v>
       </c>
       <c r="F87" s="44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G87" s="52">
         <v>45364</v>
@@ -8194,7 +8197,7 @@
     <row r="88" spans="1:10">
       <c r="A88" s="11"/>
       <c r="B88" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>39</v>
@@ -8206,7 +8209,7 @@
         <v>79</v>
       </c>
       <c r="F88" s="44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G88" s="52">
         <v>45364</v>
@@ -8305,7 +8308,7 @@
     </row>
     <row r="96" ht="24" customHeight="1" spans="1:10">
       <c r="A96" s="56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B96" s="57"/>
       <c r="C96" s="57"/>
@@ -8319,10 +8322,10 @@
     </row>
     <row r="97" ht="24" customHeight="1" spans="1:10">
       <c r="A97" s="58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>5</v>
@@ -8331,12 +8334,12 @@
         <v>6</v>
       </c>
       <c r="E97" s="59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F97" s="59"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="64"/>
@@ -8364,7 +8367,7 @@
         <v>36</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I98" s="14">
         <v>9999999</v>
@@ -8396,7 +8399,7 @@
         <v>36</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I99" s="14">
         <v>9999999</v>
@@ -8428,7 +8431,7 @@
         <v>36</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I100" s="14">
         <v>9999999</v>

--- a/public/excel/AIOC数据表单.xlsx
+++ b/public/excel/AIOC数据表单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="综合态势" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="207">
   <si>
     <t>AIOC数据模版</t>
   </si>
@@ -847,7 +847,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,12 +952,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1012,12 +1006,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1025,12 +1013,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1677,77 +1659,77 @@
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1817,12 +1799,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,6 +1807,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1874,16 +1856,10 @@
     <xf numFmtId="177" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1940,12 +1916,6 @@
     <xf numFmtId="181" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2033,6 +2003,9 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2211,6 +2184,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2671,9 +2647,9 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56:C59"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -2681,609 +2657,610 @@
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.6333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.1833333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.2666666666667" style="72" customWidth="1"/>
+    <col min="4" max="4" width="12.2666666666667" style="68" customWidth="1"/>
     <col min="5" max="5" width="16.6333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="73" customWidth="1"/>
+    <col min="6" max="6" width="15" style="69" customWidth="1"/>
     <col min="7" max="7" width="12.2666666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.0916666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.2666666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.0916666666667" style="74" customWidth="1"/>
+    <col min="10" max="10" width="15.0916666666667" style="70" customWidth="1"/>
     <col min="11" max="13" width="16.6333333333333" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="9" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="187"/>
-    </row>
-    <row r="2" s="126" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="188"/>
-    </row>
-    <row r="3" s="126" customFormat="1" ht="24" customHeight="1" spans="1:10">
-      <c r="A3" s="135" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="185"/>
+    </row>
+    <row r="2" s="123" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="186"/>
+    </row>
+    <row r="3" s="123" customFormat="1" ht="24" customHeight="1" spans="1:10">
+      <c r="A3" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="189"/>
-    </row>
-    <row r="4" s="126" customFormat="1" ht="24" customHeight="1" spans="1:10">
-      <c r="A4" s="137" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="187"/>
+    </row>
+    <row r="4" s="123" customFormat="1" ht="24" customHeight="1" spans="1:10">
+      <c r="A4" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="190"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="188"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:10">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="144">
+      <c r="D5" s="141">
         <v>22350</v>
       </c>
-      <c r="E5" s="145" t="s">
+      <c r="E5" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="146" t="s">
+      <c r="F5" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="147" t="s">
+      <c r="G5" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="148">
+      <c r="H5" s="145">
         <v>25</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="124"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:10">
-      <c r="A6" s="141"/>
-      <c r="B6" s="142"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="144">
+      <c r="D6" s="141">
         <v>350</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="146" t="s">
+      <c r="F6" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="147" t="s">
+      <c r="G6" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="148">
+      <c r="H6" s="145">
         <v>25</v>
       </c>
-      <c r="I6" s="191"/>
-      <c r="J6" s="108"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="105"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:10">
-      <c r="A7" s="141"/>
-      <c r="B7" s="145"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="142"/>
       <c r="C7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="144">
+      <c r="D7" s="141">
         <v>22350</v>
       </c>
-      <c r="E7" s="145" t="s">
+      <c r="E7" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="146" t="s">
+      <c r="F7" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="147" t="s">
+      <c r="G7" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="148">
+      <c r="H7" s="145">
         <v>25</v>
       </c>
-      <c r="I7" s="191"/>
-      <c r="J7" s="108"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="105"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:10">
-      <c r="A8" s="141"/>
-      <c r="B8" s="149" t="s">
+      <c r="A8" s="138"/>
+      <c r="B8" s="146" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="79">
         <v>124</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="150" t="s">
+      <c r="F8" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="151" t="s">
+      <c r="G8" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="152">
+      <c r="H8" s="149">
         <v>10.51</v>
       </c>
-      <c r="I8" s="150" t="s">
+      <c r="I8" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="108"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:10">
-      <c r="A9" s="141"/>
-      <c r="B9" s="142"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="79">
         <v>24</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="152">
+      <c r="H9" s="149">
         <v>10.51</v>
       </c>
-      <c r="I9" s="191" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="108"/>
+      <c r="I9" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="105"/>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:10">
-      <c r="A10" s="141"/>
-      <c r="B10" s="145"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="83">
+      <c r="D10" s="79">
         <v>124</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="150" t="s">
+      <c r="F10" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="G10" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="152">
+      <c r="H10" s="149">
         <v>10.51</v>
       </c>
-      <c r="I10" s="191" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="108"/>
+      <c r="I10" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="105"/>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:10">
-      <c r="A11" s="141"/>
-      <c r="B11" s="149" t="s">
+      <c r="A11" s="138"/>
+      <c r="B11" s="146" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="79">
         <v>1280</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="150" t="s">
+      <c r="F11" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="151" t="s">
+      <c r="G11" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="152">
+      <c r="H11" s="149">
         <v>3.15</v>
       </c>
-      <c r="I11" s="150" t="s">
+      <c r="I11" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="108"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:10">
-      <c r="A12" s="141"/>
-      <c r="B12" s="142"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="79">
         <v>1280</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="150" t="s">
+      <c r="F12" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="151" t="s">
+      <c r="G12" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="152">
+      <c r="H12" s="149">
         <v>3.15</v>
       </c>
-      <c r="I12" s="191" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="108"/>
+      <c r="I12" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:10">
-      <c r="A13" s="141"/>
-      <c r="B13" s="145"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="142"/>
       <c r="C13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="79">
         <v>1280</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="150" t="s">
+      <c r="F13" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="151" t="s">
+      <c r="G13" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="152">
+      <c r="H13" s="149">
         <v>3.15</v>
       </c>
-      <c r="I13" s="191" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="108"/>
+      <c r="I13" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:10">
-      <c r="A14" s="141"/>
-      <c r="B14" s="149" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="146" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="79">
         <v>9248</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="109"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="106"/>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:10">
-      <c r="A15" s="141"/>
-      <c r="B15" s="142"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="79">
         <v>248</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="153"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="109"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="106"/>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:10">
-      <c r="A16" s="141"/>
-      <c r="B16" s="145"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="83">
+      <c r="D16" s="79">
         <v>9248</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="153"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="109"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="106"/>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:10">
-      <c r="A17" s="141"/>
-      <c r="B17" s="149" t="s">
+      <c r="A17" s="138"/>
+      <c r="B17" s="146" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="79">
         <v>4248</v>
       </c>
       <c r="E17" s="152">
-        <v>45.9342560553633</v>
-      </c>
-      <c r="F17" s="155" t="s">
+        <f>D17/D14</f>
+        <v>0.459342560553633</v>
+      </c>
+      <c r="F17" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="109"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="106"/>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:10">
-      <c r="A18" s="141"/>
-      <c r="B18" s="142"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="83">
+      <c r="D18" s="79">
         <v>4248</v>
       </c>
-      <c r="E18" s="152">
+      <c r="E18" s="149">
         <v>45.9342560553633</v>
       </c>
-      <c r="F18" s="155" t="s">
+      <c r="F18" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="109"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="106"/>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:10">
-      <c r="A19" s="141"/>
-      <c r="B19" s="145"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="79">
         <v>4248</v>
       </c>
-      <c r="E19" s="152">
+      <c r="E19" s="149">
         <v>45.9342560553633</v>
       </c>
-      <c r="F19" s="155" t="s">
+      <c r="F19" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="109"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="106"/>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:10">
-      <c r="A20" s="141"/>
-      <c r="B20" s="149" t="s">
+      <c r="A20" s="138"/>
+      <c r="B20" s="146" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="83">
+      <c r="D20" s="79">
         <v>3000</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="149">
         <v>32.439446366782</v>
       </c>
-      <c r="F20" s="155" t="s">
+      <c r="F20" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="109"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="106"/>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:10">
-      <c r="A21" s="141"/>
-      <c r="B21" s="142"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="83">
+      <c r="D21" s="79">
         <v>3000</v>
       </c>
-      <c r="E21" s="152">
+      <c r="E21" s="149">
         <v>32.439446366782</v>
       </c>
-      <c r="F21" s="155" t="s">
+      <c r="F21" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="192"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="190"/>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:10">
-      <c r="A22" s="141"/>
-      <c r="B22" s="142"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="83">
+      <c r="D22" s="79">
         <v>3000</v>
       </c>
-      <c r="E22" s="152">
+      <c r="E22" s="149">
         <v>32.439446366782</v>
       </c>
-      <c r="F22" s="155" t="s">
+      <c r="F22" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="192"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="190"/>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:10">
-      <c r="A23" s="141"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="83">
+      <c r="D23" s="79">
         <v>2000</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="149">
         <v>21.6262975778547</v>
       </c>
-      <c r="F23" s="155" t="s">
+      <c r="F23" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="109"/>
-    </row>
-    <row r="24" s="126" customFormat="1" spans="1:10">
-      <c r="A24" s="141"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="106"/>
+    </row>
+    <row r="24" s="123" customFormat="1" spans="1:10">
+      <c r="A24" s="138"/>
       <c r="B24" s="12"/>
       <c r="C24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="83">
+      <c r="D24" s="79">
         <v>2000</v>
       </c>
-      <c r="E24" s="152">
+      <c r="E24" s="149">
         <v>21.6262975778547</v>
       </c>
-      <c r="F24" s="155" t="s">
+      <c r="F24" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="193"/>
-    </row>
-    <row r="25" s="126" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A25" s="158"/>
-      <c r="B25" s="149"/>
-      <c r="C25" s="159" t="s">
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="191"/>
+    </row>
+    <row r="25" s="123" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A25" s="156"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="79">
         <v>2000</v>
       </c>
-      <c r="E25" s="152">
+      <c r="E25" s="149">
         <v>21.6262975778547</v>
       </c>
-      <c r="F25" s="155" t="s">
+      <c r="F25" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="194"/>
-    </row>
-    <row r="26" s="126" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A26" s="161" t="s">
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="192"/>
+    </row>
+    <row r="26" s="123" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A26" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="165" t="s">
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="166"/>
-      <c r="I26" s="162" t="s">
+      <c r="H26" s="164"/>
+      <c r="I26" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="164"/>
-    </row>
-    <row r="27" s="126" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A27" s="167"/>
-      <c r="B27" s="118" t="s">
+      <c r="J26" s="162"/>
+    </row>
+    <row r="27" s="123" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A27" s="165"/>
+      <c r="B27" s="115" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="168"/>
+      <c r="D27" s="166"/>
       <c r="E27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="169" t="s">
+      <c r="F27" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="170" t="s">
+      <c r="G27" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="171" t="s">
+      <c r="H27" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="118" t="s">
+      <c r="I27" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="195" t="s">
+      <c r="J27" s="193" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:10">
-      <c r="A28" s="167"/>
-      <c r="B28" s="118" t="s">
+      <c r="A28" s="165"/>
+      <c r="B28" s="115" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -3292,28 +3269,28 @@
       <c r="D28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="83" t="s">
+      <c r="E28" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="172">
+      <c r="F28" s="170">
         <v>4100</v>
       </c>
-      <c r="G28" s="173">
+      <c r="G28" s="171">
         <v>12750</v>
       </c>
-      <c r="H28" s="172">
+      <c r="H28" s="170">
         <v>123000</v>
       </c>
-      <c r="I28" s="173">
+      <c r="I28" s="171">
         <v>153000</v>
       </c>
-      <c r="J28" s="172">
+      <c r="J28" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:10">
-      <c r="A29" s="167"/>
-      <c r="B29" s="118" t="s">
+      <c r="A29" s="165"/>
+      <c r="B29" s="115" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -3322,28 +3299,28 @@
       <c r="D29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="83">
+      <c r="E29" s="79">
         <v>426</v>
       </c>
-      <c r="F29" s="172">
+      <c r="F29" s="170">
         <v>4100</v>
       </c>
-      <c r="G29" s="173">
+      <c r="G29" s="171">
         <v>12780</v>
       </c>
-      <c r="H29" s="172">
+      <c r="H29" s="170">
         <v>123000</v>
       </c>
-      <c r="I29" s="173">
+      <c r="I29" s="171">
         <v>153360</v>
       </c>
-      <c r="J29" s="172">
+      <c r="J29" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:10">
-      <c r="A30" s="167"/>
-      <c r="B30" s="118" t="s">
+      <c r="A30" s="165"/>
+      <c r="B30" s="115" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -3352,28 +3329,28 @@
       <c r="D30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="79">
         <v>427</v>
       </c>
-      <c r="F30" s="172">
+      <c r="F30" s="170">
         <v>4100</v>
       </c>
-      <c r="G30" s="173">
+      <c r="G30" s="171">
         <v>12810</v>
       </c>
-      <c r="H30" s="172">
+      <c r="H30" s="170">
         <v>123000</v>
       </c>
-      <c r="I30" s="173">
+      <c r="I30" s="171">
         <v>153720</v>
       </c>
-      <c r="J30" s="172">
+      <c r="J30" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:10">
-      <c r="A31" s="167"/>
-      <c r="B31" s="118" t="s">
+      <c r="A31" s="165"/>
+      <c r="B31" s="115" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -3382,28 +3359,28 @@
       <c r="D31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="83">
+      <c r="E31" s="79">
         <v>1428</v>
       </c>
-      <c r="F31" s="172">
+      <c r="F31" s="170">
         <v>4100</v>
       </c>
-      <c r="G31" s="173">
+      <c r="G31" s="171">
         <v>42840</v>
       </c>
-      <c r="H31" s="172">
+      <c r="H31" s="170">
         <v>123000</v>
       </c>
-      <c r="I31" s="173">
+      <c r="I31" s="171">
         <v>514080</v>
       </c>
-      <c r="J31" s="172">
+      <c r="J31" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:10">
-      <c r="A32" s="167"/>
-      <c r="B32" s="118" t="s">
+      <c r="A32" s="165"/>
+      <c r="B32" s="115" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -3412,28 +3389,28 @@
       <c r="D32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="83">
+      <c r="E32" s="79">
         <v>1428</v>
       </c>
-      <c r="F32" s="172">
+      <c r="F32" s="170">
         <v>4100</v>
       </c>
-      <c r="G32" s="173">
+      <c r="G32" s="171">
         <v>42840</v>
       </c>
-      <c r="H32" s="172">
+      <c r="H32" s="170">
         <v>123000</v>
       </c>
-      <c r="I32" s="173">
+      <c r="I32" s="171">
         <v>514080</v>
       </c>
-      <c r="J32" s="172">
+      <c r="J32" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:10">
-      <c r="A33" s="167"/>
-      <c r="B33" s="118" t="s">
+      <c r="A33" s="165"/>
+      <c r="B33" s="115" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -3442,28 +3419,28 @@
       <c r="D33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="83">
+      <c r="E33" s="79">
         <v>1428</v>
       </c>
-      <c r="F33" s="172">
+      <c r="F33" s="170">
         <v>4100</v>
       </c>
-      <c r="G33" s="173">
+      <c r="G33" s="171">
         <v>42840</v>
       </c>
-      <c r="H33" s="172">
+      <c r="H33" s="170">
         <v>123000</v>
       </c>
-      <c r="I33" s="173">
+      <c r="I33" s="171">
         <v>514080</v>
       </c>
-      <c r="J33" s="172">
+      <c r="J33" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:10">
-      <c r="A34" s="167"/>
-      <c r="B34" s="118" t="s">
+      <c r="A34" s="165"/>
+      <c r="B34" s="115" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -3472,28 +3449,28 @@
       <c r="D34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="79">
         <v>235</v>
       </c>
-      <c r="F34" s="172">
+      <c r="F34" s="170">
         <v>4100</v>
       </c>
-      <c r="G34" s="173">
+      <c r="G34" s="171">
         <v>7050</v>
       </c>
-      <c r="H34" s="172">
+      <c r="H34" s="170">
         <v>123000</v>
       </c>
-      <c r="I34" s="173">
+      <c r="I34" s="171">
         <v>84600</v>
       </c>
-      <c r="J34" s="172">
+      <c r="J34" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:10">
-      <c r="A35" s="167"/>
-      <c r="B35" s="118" t="s">
+      <c r="A35" s="165"/>
+      <c r="B35" s="115" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -3502,28 +3479,28 @@
       <c r="D35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="83">
+      <c r="E35" s="79">
         <v>235</v>
       </c>
-      <c r="F35" s="172">
+      <c r="F35" s="170">
         <v>4100</v>
       </c>
-      <c r="G35" s="173">
+      <c r="G35" s="171">
         <v>7050</v>
       </c>
-      <c r="H35" s="172">
+      <c r="H35" s="170">
         <v>123000</v>
       </c>
-      <c r="I35" s="173">
+      <c r="I35" s="171">
         <v>84600</v>
       </c>
-      <c r="J35" s="172">
+      <c r="J35" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:10">
-      <c r="A36" s="167"/>
-      <c r="B36" s="118" t="s">
+      <c r="A36" s="165"/>
+      <c r="B36" s="115" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -3532,28 +3509,28 @@
       <c r="D36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="83">
+      <c r="E36" s="79">
         <v>235</v>
       </c>
-      <c r="F36" s="172">
+      <c r="F36" s="170">
         <v>4100</v>
       </c>
-      <c r="G36" s="173">
+      <c r="G36" s="171">
         <v>7050</v>
       </c>
-      <c r="H36" s="172">
+      <c r="H36" s="170">
         <v>123000</v>
       </c>
-      <c r="I36" s="173">
+      <c r="I36" s="171">
         <v>84600</v>
       </c>
-      <c r="J36" s="172">
+      <c r="J36" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:10">
-      <c r="A37" s="167"/>
-      <c r="B37" s="118" t="s">
+      <c r="A37" s="165"/>
+      <c r="B37" s="115" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -3562,28 +3539,28 @@
       <c r="D37" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="83">
+      <c r="E37" s="79">
         <v>434</v>
       </c>
-      <c r="F37" s="172">
+      <c r="F37" s="170">
         <v>4100</v>
       </c>
-      <c r="G37" s="173">
+      <c r="G37" s="171">
         <v>13020</v>
       </c>
-      <c r="H37" s="172">
+      <c r="H37" s="170">
         <v>123000</v>
       </c>
-      <c r="I37" s="173">
+      <c r="I37" s="171">
         <v>156240</v>
       </c>
-      <c r="J37" s="172">
+      <c r="J37" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:10">
-      <c r="A38" s="167"/>
-      <c r="B38" s="118" t="s">
+      <c r="A38" s="165"/>
+      <c r="B38" s="115" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -3592,28 +3569,28 @@
       <c r="D38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="83">
+      <c r="E38" s="79">
         <v>435</v>
       </c>
-      <c r="F38" s="172">
+      <c r="F38" s="170">
         <v>4100</v>
       </c>
-      <c r="G38" s="173">
+      <c r="G38" s="171">
         <v>13020</v>
       </c>
-      <c r="H38" s="172">
+      <c r="H38" s="170">
         <v>123000</v>
       </c>
-      <c r="I38" s="173">
+      <c r="I38" s="171">
         <v>156240</v>
       </c>
-      <c r="J38" s="172">
+      <c r="J38" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:10">
-      <c r="A39" s="167"/>
-      <c r="B39" s="118" t="s">
+      <c r="A39" s="165"/>
+      <c r="B39" s="115" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -3622,28 +3599,28 @@
       <c r="D39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="83">
+      <c r="E39" s="79">
         <v>436</v>
       </c>
-      <c r="F39" s="172">
+      <c r="F39" s="170">
         <v>4100</v>
       </c>
-      <c r="G39" s="173">
+      <c r="G39" s="171">
         <v>13020</v>
       </c>
-      <c r="H39" s="172">
+      <c r="H39" s="170">
         <v>123000</v>
       </c>
-      <c r="I39" s="173">
+      <c r="I39" s="171">
         <v>156240</v>
       </c>
-      <c r="J39" s="172">
+      <c r="J39" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:10">
-      <c r="A40" s="167"/>
-      <c r="B40" s="118" t="s">
+      <c r="A40" s="165"/>
+      <c r="B40" s="115" t="s">
         <v>43</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -3652,28 +3629,28 @@
       <c r="D40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="83">
+      <c r="E40" s="79">
         <v>2437</v>
       </c>
-      <c r="F40" s="172">
+      <c r="F40" s="170">
         <v>4100</v>
       </c>
-      <c r="G40" s="173">
+      <c r="G40" s="171">
         <v>73110</v>
       </c>
-      <c r="H40" s="172">
+      <c r="H40" s="170">
         <v>123000</v>
       </c>
-      <c r="I40" s="173">
+      <c r="I40" s="171">
         <v>877320</v>
       </c>
-      <c r="J40" s="172">
+      <c r="J40" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:10">
-      <c r="A41" s="167"/>
-      <c r="B41" s="118" t="s">
+      <c r="A41" s="165"/>
+      <c r="B41" s="115" t="s">
         <v>44</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -3682,28 +3659,28 @@
       <c r="D41" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="83">
+      <c r="E41" s="79">
         <v>2437</v>
       </c>
-      <c r="F41" s="172">
+      <c r="F41" s="170">
         <v>4100</v>
       </c>
-      <c r="G41" s="173">
+      <c r="G41" s="171">
         <v>73110</v>
       </c>
-      <c r="H41" s="172">
+      <c r="H41" s="170">
         <v>123000</v>
       </c>
-      <c r="I41" s="173">
+      <c r="I41" s="171">
         <v>877320</v>
       </c>
-      <c r="J41" s="172">
+      <c r="J41" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="42" ht="16" customHeight="1" spans="1:10">
-      <c r="A42" s="167"/>
-      <c r="B42" s="118" t="s">
+      <c r="A42" s="165"/>
+      <c r="B42" s="115" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -3712,28 +3689,28 @@
       <c r="D42" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="83">
+      <c r="E42" s="79">
         <v>2437</v>
       </c>
-      <c r="F42" s="172">
+      <c r="F42" s="170">
         <v>4100</v>
       </c>
-      <c r="G42" s="173">
+      <c r="G42" s="171">
         <v>73110</v>
       </c>
-      <c r="H42" s="172">
+      <c r="H42" s="170">
         <v>123000</v>
       </c>
-      <c r="I42" s="173">
+      <c r="I42" s="171">
         <v>877320</v>
       </c>
-      <c r="J42" s="172">
+      <c r="J42" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:10">
-      <c r="A43" s="167"/>
-      <c r="B43" s="118" t="s">
+      <c r="A43" s="165"/>
+      <c r="B43" s="115" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -3742,28 +3719,28 @@
       <c r="D43" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="83">
+      <c r="E43" s="79">
         <v>340</v>
       </c>
-      <c r="F43" s="172">
+      <c r="F43" s="170">
         <v>4100</v>
       </c>
-      <c r="G43" s="173">
+      <c r="G43" s="171">
         <v>10200</v>
       </c>
-      <c r="H43" s="172">
+      <c r="H43" s="170">
         <v>123000</v>
       </c>
-      <c r="I43" s="173">
+      <c r="I43" s="171">
         <v>122400</v>
       </c>
-      <c r="J43" s="172">
+      <c r="J43" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:10">
-      <c r="A44" s="167"/>
-      <c r="B44" s="118" t="s">
+      <c r="A44" s="165"/>
+      <c r="B44" s="115" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -3772,28 +3749,28 @@
       <c r="D44" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="83">
+      <c r="E44" s="79">
         <v>340</v>
       </c>
-      <c r="F44" s="172">
+      <c r="F44" s="170">
         <v>4100</v>
       </c>
-      <c r="G44" s="173">
+      <c r="G44" s="171">
         <v>10200</v>
       </c>
-      <c r="H44" s="172">
+      <c r="H44" s="170">
         <v>123000</v>
       </c>
-      <c r="I44" s="173">
+      <c r="I44" s="171">
         <v>122400</v>
       </c>
-      <c r="J44" s="172">
+      <c r="J44" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1" spans="1:10">
-      <c r="A45" s="167"/>
-      <c r="B45" s="118" t="s">
+      <c r="A45" s="165"/>
+      <c r="B45" s="115" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -3802,265 +3779,265 @@
       <c r="D45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="83">
+      <c r="E45" s="79">
         <v>340</v>
       </c>
-      <c r="F45" s="172">
+      <c r="F45" s="170">
         <v>4100</v>
       </c>
-      <c r="G45" s="173">
+      <c r="G45" s="171">
         <v>10200</v>
       </c>
-      <c r="H45" s="172">
+      <c r="H45" s="170">
         <v>123000</v>
       </c>
-      <c r="I45" s="173">
+      <c r="I45" s="171">
         <v>122400</v>
       </c>
-      <c r="J45" s="172">
+      <c r="J45" s="170">
         <v>1476000</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="167"/>
-      <c r="B46" s="174"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="53"/>
+      <c r="A46" s="165"/>
+      <c r="B46" s="172"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="22"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="174"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="174"/>
-      <c r="J46" s="176"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="172"/>
+      <c r="H46" s="174"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="174"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="167"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="53"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="22"/>
-      <c r="F47" s="175"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="176"/>
-      <c r="I47" s="174"/>
-      <c r="J47" s="176"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="172"/>
+      <c r="H47" s="174"/>
+      <c r="I47" s="172"/>
+      <c r="J47" s="174"/>
     </row>
     <row r="48" ht="14.25" spans="1:10">
-      <c r="A48" s="167"/>
-      <c r="B48" s="177"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="179"/>
-      <c r="E48" s="180"/>
-      <c r="F48" s="181"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="182"/>
-      <c r="I48" s="177"/>
-      <c r="J48" s="182"/>
+      <c r="A48" s="165"/>
+      <c r="B48" s="175"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="177"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="180"/>
+      <c r="I48" s="175"/>
+      <c r="J48" s="180"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="145" t="s">
+      <c r="B49" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="183"/>
-      <c r="D49" s="184">
+      <c r="C49" s="181"/>
+      <c r="D49" s="182">
         <v>324</v>
       </c>
-      <c r="E49" s="145" t="s">
+      <c r="E49" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="185"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="143"/>
-      <c r="J49" s="196"/>
+      <c r="F49" s="183"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="194"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="86"/>
+      <c r="A50" s="82"/>
       <c r="B50" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="51">
+      <c r="C50" s="88"/>
+      <c r="D50" s="49">
         <v>320</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="93"/>
+      <c r="F50" s="89"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="110"/>
+      <c r="J50" s="107"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="97"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="92"/>
-      <c r="D51" s="51">
+      <c r="C51" s="88"/>
+      <c r="D51" s="49">
         <v>4</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="93"/>
+      <c r="F51" s="89"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="110"/>
+      <c r="J51" s="107"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="78" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="51">
+      <c r="C52" s="88"/>
+      <c r="D52" s="49">
         <v>124</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="93"/>
+      <c r="F52" s="89"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
-      <c r="J52" s="110"/>
+      <c r="J52" s="107"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="86"/>
+      <c r="A53" s="82"/>
       <c r="B53" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="51">
+      <c r="C53" s="88"/>
+      <c r="D53" s="49">
         <v>100</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="93"/>
+      <c r="F53" s="89"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
-      <c r="J53" s="110"/>
+      <c r="J53" s="107"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="86"/>
+      <c r="A54" s="82"/>
       <c r="B54" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="51">
+      <c r="C54" s="88"/>
+      <c r="D54" s="49">
         <v>23</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="93"/>
+      <c r="F54" s="89"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
-      <c r="J54" s="110"/>
+      <c r="J54" s="107"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="86"/>
+      <c r="A55" s="82"/>
       <c r="B55" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="51">
+      <c r="C55" s="88"/>
+      <c r="D55" s="49">
         <v>1</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="93"/>
+      <c r="F55" s="89"/>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
-      <c r="J55" s="110"/>
+      <c r="J55" s="107"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="86"/>
+      <c r="A56" s="82"/>
       <c r="B56" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="159"/>
-      <c r="D56" s="51">
+      <c r="C56" s="157"/>
+      <c r="D56" s="49">
         <v>33</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="93"/>
+      <c r="F56" s="89"/>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
-      <c r="J56" s="110"/>
+      <c r="J56" s="107"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="86"/>
+      <c r="A57" s="82"/>
       <c r="B57" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="186"/>
-      <c r="D57" s="51">
+      <c r="C57" s="184"/>
+      <c r="D57" s="49">
         <v>33</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="93"/>
+      <c r="F57" s="89"/>
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
-      <c r="J57" s="110"/>
+      <c r="J57" s="107"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="86"/>
+      <c r="A58" s="82"/>
       <c r="B58" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="186"/>
-      <c r="D58" s="51">
+      <c r="C58" s="184"/>
+      <c r="D58" s="49">
         <v>22</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="93"/>
+      <c r="F58" s="89"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
-      <c r="J58" s="110"/>
+      <c r="J58" s="107"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="97"/>
+      <c r="A59" s="94"/>
       <c r="B59" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="143"/>
-      <c r="D59" s="51">
+      <c r="C59" s="140"/>
+      <c r="D59" s="49">
         <v>12</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="93"/>
+      <c r="F59" s="89"/>
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
-      <c r="J59" s="110"/>
+      <c r="J59" s="107"/>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:10">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="78" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -4073,23 +4050,23 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="197"/>
+      <c r="J60" s="195"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="86"/>
+      <c r="A61" s="82"/>
       <c r="B61" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="48" t="s">
+      <c r="D61" s="46" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" s="47" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="13" t="s">
@@ -4101,482 +4078,482 @@
       <c r="I61" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J61" s="110"/>
+      <c r="J61" s="107"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="86"/>
+      <c r="A62" s="82"/>
       <c r="B62" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="49" t="s">
         <v>71</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="44" t="s">
+      <c r="F62" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G62" s="52">
+      <c r="G62" s="50">
         <v>45366</v>
       </c>
-      <c r="H62" s="44" t="s">
+      <c r="H62" s="26" t="s">
         <v>74</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J62" s="110"/>
+      <c r="J62" s="107"/>
     </row>
     <row r="63" ht="27" spans="1:10">
-      <c r="A63" s="86"/>
-      <c r="B63" s="50" t="s">
+      <c r="A63" s="82"/>
+      <c r="B63" s="48" t="s">
         <v>76</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="49" t="s">
         <v>78</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G63" s="52">
+      <c r="G63" s="50">
         <v>80368</v>
       </c>
-      <c r="H63" s="44" t="s">
+      <c r="H63" s="26" t="s">
         <v>81</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J63" s="110"/>
+      <c r="J63" s="107"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="86"/>
+      <c r="A64" s="82"/>
       <c r="B64" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="49" t="s">
         <v>78</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F64" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G64" s="52">
+      <c r="G64" s="50">
         <v>45365</v>
       </c>
-      <c r="H64" s="44" t="s">
+      <c r="H64" s="26" t="s">
         <v>85</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J64" s="110"/>
+      <c r="J64" s="107"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="86"/>
+      <c r="A65" s="82"/>
       <c r="B65" s="12" t="s">
         <v>86</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="49" t="s">
         <v>87</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F65" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G65" s="52">
+      <c r="G65" s="50">
         <v>45364</v>
       </c>
-      <c r="H65" s="44" t="s">
+      <c r="H65" s="26" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J65" s="110"/>
+      <c r="J65" s="107"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="86"/>
+      <c r="A66" s="82"/>
       <c r="B66" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="49" t="s">
         <v>91</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="44" t="s">
+      <c r="F66" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G66" s="52">
+      <c r="G66" s="50">
         <v>45364</v>
       </c>
-      <c r="H66" s="44" t="s">
+      <c r="H66" s="26" t="s">
         <v>93</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="110"/>
+      <c r="J66" s="107"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="86"/>
+      <c r="A67" s="82"/>
       <c r="B67" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="49" t="s">
         <v>91</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F67" s="44" t="s">
+      <c r="F67" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G67" s="52">
+      <c r="G67" s="50">
         <v>45365</v>
       </c>
-      <c r="H67" s="44" t="s">
+      <c r="H67" s="26" t="s">
         <v>95</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J67" s="110"/>
+      <c r="J67" s="107"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="86"/>
+      <c r="A68" s="82"/>
       <c r="B68" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="49" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F68" s="44" t="s">
+      <c r="F68" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="52">
+      <c r="G68" s="50">
         <v>45366</v>
       </c>
-      <c r="H68" s="44" t="s">
+      <c r="H68" s="26" t="s">
         <v>97</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J68" s="110"/>
+      <c r="J68" s="107"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="86"/>
+      <c r="A69" s="82"/>
       <c r="B69" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="49" t="s">
         <v>91</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F69" s="44" t="s">
+      <c r="F69" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G69" s="52">
+      <c r="G69" s="50">
         <v>45367</v>
       </c>
-      <c r="H69" s="44" t="s">
+      <c r="H69" s="26" t="s">
         <v>99</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J69" s="201"/>
+      <c r="J69" s="199"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="86"/>
+      <c r="A70" s="82"/>
       <c r="B70" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="51" t="s">
+      <c r="D70" s="49" t="s">
         <v>91</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F70" s="44" t="s">
+      <c r="F70" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="52">
+      <c r="G70" s="50">
         <v>45368</v>
       </c>
-      <c r="H70" s="44" t="s">
+      <c r="H70" s="26" t="s">
         <v>101</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J70" s="201"/>
+      <c r="J70" s="199"/>
     </row>
     <row r="71" ht="14.25" spans="1:10">
-      <c r="A71" s="198"/>
+      <c r="A71" s="196"/>
       <c r="B71" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="51" t="s">
+      <c r="D71" s="49" t="s">
         <v>91</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F71" s="44" t="s">
+      <c r="F71" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="G71" s="52">
+      <c r="G71" s="50">
         <v>45369</v>
       </c>
-      <c r="H71" s="44" t="s">
+      <c r="H71" s="26" t="s">
         <v>103</v>
       </c>
       <c r="I71" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J71" s="202"/>
+      <c r="J71" s="200"/>
     </row>
     <row r="72" ht="24" customHeight="1" spans="1:13">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="199"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="200"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="126"/>
-      <c r="L72" s="126"/>
-      <c r="M72" s="126"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="197"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="198"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="123"/>
+      <c r="L72" s="123"/>
+      <c r="M72" s="123"/>
     </row>
     <row r="73" ht="24" customHeight="1" spans="1:13">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="199"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="200"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="126"/>
-      <c r="L73" s="126"/>
-      <c r="M73" s="126"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="198"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="123"/>
+      <c r="L73" s="123"/>
+      <c r="M73" s="123"/>
     </row>
     <row r="74" ht="24" customHeight="1" spans="1:13">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="199"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="200"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="126"/>
-      <c r="L74" s="126"/>
-      <c r="M74" s="126"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="198"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="123"/>
+      <c r="L74" s="123"/>
+      <c r="M74" s="123"/>
     </row>
     <row r="75" ht="24" customHeight="1" spans="1:13">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="199"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="200"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="126"/>
-      <c r="L75" s="126"/>
-      <c r="M75" s="126"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="197"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="198"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="123"/>
+      <c r="L75" s="123"/>
+      <c r="M75" s="123"/>
     </row>
     <row r="76" ht="24" customHeight="1" spans="1:13">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="199"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="200"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="126"/>
-      <c r="L76" s="126"/>
-      <c r="M76" s="126"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="197"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="198"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="123"/>
+      <c r="L76" s="123"/>
+      <c r="M76" s="123"/>
     </row>
     <row r="77" ht="24" customHeight="1" spans="1:13">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="199"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="200"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="126"/>
-      <c r="L77" s="126"/>
-      <c r="M77" s="126"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="197"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="198"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="123"/>
+      <c r="L77" s="123"/>
+      <c r="M77" s="123"/>
     </row>
     <row r="78" ht="24" customHeight="1" spans="1:13">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="199"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="200"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="126"/>
-      <c r="M78" s="126"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="197"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="198"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="123"/>
+      <c r="M78" s="123"/>
     </row>
     <row r="79" ht="24" customHeight="1" spans="1:13">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="199"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="200"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="126"/>
-      <c r="L79" s="126"/>
-      <c r="M79" s="126"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="197"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="198"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="67"/>
+      <c r="K79" s="123"/>
+      <c r="L79" s="123"/>
+      <c r="M79" s="123"/>
     </row>
     <row r="80" ht="24" customHeight="1" spans="1:13">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="199"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="200"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="126"/>
-      <c r="L80" s="126"/>
-      <c r="M80" s="126"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="197"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="198"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="123"/>
+      <c r="L80" s="123"/>
+      <c r="M80" s="123"/>
     </row>
     <row r="81" ht="24" customHeight="1" spans="1:13">
-      <c r="A81" s="71"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="199"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="200"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="126"/>
-      <c r="L81" s="126"/>
-      <c r="M81" s="126"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="197"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="198"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="123"/>
+      <c r="L81" s="123"/>
+      <c r="M81" s="123"/>
     </row>
     <row r="82" ht="24" customHeight="1" spans="1:13">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="199"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="200"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="126"/>
-      <c r="L82" s="126"/>
-      <c r="M82" s="126"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="197"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="198"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="123"/>
+      <c r="L82" s="123"/>
+      <c r="M82" s="123"/>
     </row>
     <row r="83" ht="24" customHeight="1" spans="1:13">
-      <c r="A83" s="71"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="199"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="200"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="126"/>
-      <c r="L83" s="126"/>
-      <c r="M83" s="126"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="198"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="123"/>
+      <c r="L83" s="123"/>
+      <c r="M83" s="123"/>
     </row>
     <row r="84" ht="24" customHeight="1" spans="1:13">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="199"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="200"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="126"/>
-      <c r="L84" s="126"/>
-      <c r="M84" s="126"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="197"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="198"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="123"/>
+      <c r="L84" s="123"/>
+      <c r="M84" s="123"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -4612,8 +4589,8 @@
   <sheetPr/>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
@@ -4623,14 +4600,14 @@
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.6333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.1833333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.2666666666667" style="72" customWidth="1"/>
+    <col min="4" max="4" width="12.2666666666667" style="68" customWidth="1"/>
     <col min="5" max="5" width="16.6333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="140.725" style="73" customWidth="1"/>
+    <col min="6" max="6" width="140.725" style="69" customWidth="1"/>
     <col min="7" max="7" width="12.2666666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.0916666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.2666666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.0916666666667" style="74" customWidth="1"/>
-    <col min="11" max="13" width="9" style="71" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.0916666666667" style="70" customWidth="1"/>
+    <col min="11" max="13" width="9" style="67" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2" hidden="1"/>
   </cols>
@@ -4641,41 +4618,41 @@
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="75"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="76"/>
+      <c r="F1" s="72"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="104"/>
-    </row>
-    <row r="2" s="71" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="J1" s="101"/>
+    </row>
+    <row r="2" s="67" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="77"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="78"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="105"/>
-    </row>
-    <row r="3" s="71" customFormat="1" ht="24" customHeight="1" spans="1:10">
+      <c r="J2" s="102"/>
+    </row>
+    <row r="3" s="67" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="106"/>
-    </row>
-    <row r="4" s="71" customFormat="1" ht="24" customHeight="1" spans="1:10">
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="103"/>
+    </row>
+    <row r="4" s="67" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -4685,497 +4662,497 @@
       <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="76" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="81"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="107"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:10">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="78" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="19"/>
-      <c r="D5" s="83">
+      <c r="D5" s="79">
         <v>324</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="108"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="105"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:10">
-      <c r="A6" s="86"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="19"/>
-      <c r="D6" s="83">
+      <c r="D6" s="79">
         <v>320</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="108"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="105"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:10">
-      <c r="A7" s="86"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="83">
+      <c r="D7" s="79">
         <v>4</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="109"/>
-    </row>
-    <row r="8" s="71" customFormat="1" ht="38" customHeight="1" spans="1:10">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="106"/>
+    </row>
+    <row r="8" s="67" customFormat="1" ht="38" customHeight="1" spans="1:10">
+      <c r="A8" s="82"/>
+      <c r="B8" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="109"/>
-    </row>
-    <row r="9" s="71" customFormat="1" spans="1:10">
-      <c r="A9" s="86"/>
-      <c r="B9" s="57" t="s">
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="106"/>
+    </row>
+    <row r="9" s="67" customFormat="1" spans="1:10">
+      <c r="A9" s="82"/>
+      <c r="B9" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="109"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="106"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="86"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="109"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="106"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="86"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="109"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="106"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="86"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="109"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="86"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="109"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="106"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="86"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="109"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="106"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="86"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="109"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="106"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="86"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="109"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="106"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="86"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="109"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="106"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="86"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="109"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="106"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="86"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="109"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="106"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="86"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="109"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="106"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="86"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="109"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="106"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="86"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="109"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="106"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="86"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="109"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="106"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="86"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="109"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="106"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="86"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="109"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="86"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="109"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="106"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="86"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="109"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="106"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="86"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="109"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="106"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="86"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="109"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="106"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="86"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="D30" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="109"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="106"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="86"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="89" t="s">
+      <c r="D31" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="109"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="106"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="86"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="89" t="s">
+      <c r="D32" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="109"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="106"/>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:10">
-      <c r="A33" s="86"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="91" t="s">
+      <c r="D33" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="109"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="106"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="11" t="s">
@@ -5184,199 +5161,199 @@
       <c r="B34" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="51">
+      <c r="C34" s="88"/>
+      <c r="D34" s="49">
         <v>1245584</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="93"/>
+      <c r="F34" s="89"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="110"/>
+      <c r="J34" s="107"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="11"/>
       <c r="B35" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="51">
+      <c r="C35" s="88"/>
+      <c r="D35" s="49">
         <v>146</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="93"/>
+      <c r="F35" s="89"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="110"/>
+      <c r="J35" s="107"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="51">
+      <c r="C36" s="88"/>
+      <c r="D36" s="49">
         <v>3</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="93"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="110"/>
+      <c r="J36" s="107"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="11"/>
       <c r="B37" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="C37" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="111"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="108"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="11"/>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="112"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="109"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="11"/>
       <c r="B39" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="94" t="s">
+      <c r="D39" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="94" t="s">
+      <c r="E39" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="94" t="s">
+      <c r="F39" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="H39" s="94" t="s">
+      <c r="H39" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="I39" s="94" t="s">
+      <c r="I39" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="J39" s="113"/>
+      <c r="J39" s="110"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="11"/>
       <c r="B40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="95">
+      <c r="C40" s="92">
         <v>20</v>
       </c>
-      <c r="D40" s="95">
+      <c r="D40" s="92">
         <v>30</v>
       </c>
-      <c r="E40" s="95">
+      <c r="E40" s="92">
         <v>12</v>
       </c>
-      <c r="F40" s="95">
+      <c r="F40" s="92">
         <v>15</v>
       </c>
       <c r="G40" s="12">
         <v>23</v>
       </c>
-      <c r="H40" s="95">
+      <c r="H40" s="92">
         <v>34</v>
       </c>
-      <c r="I40" s="95">
+      <c r="I40" s="92">
         <v>12</v>
       </c>
-      <c r="J40" s="110"/>
+      <c r="J40" s="107"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="93" t="s">
         <v>151</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="51">
+      <c r="C41" s="88"/>
+      <c r="D41" s="49">
         <v>12.6</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="93"/>
+      <c r="F41" s="89"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="110"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="11"/>
       <c r="B42" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="51">
+      <c r="C42" s="88"/>
+      <c r="D42" s="49">
         <v>12.6</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="93"/>
+      <c r="F42" s="89"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="110"/>
+      <c r="J42" s="107"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="11"/>
       <c r="B43" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="92"/>
-      <c r="D43" s="51">
+      <c r="C43" s="88"/>
+      <c r="D43" s="49">
         <v>40.5</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="93"/>
+      <c r="F43" s="89"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
-      <c r="J43" s="110"/>
+      <c r="J43" s="107"/>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:10">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="78" t="s">
         <v>136</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -5401,12 +5378,12 @@
       <c r="I44" s="12">
         <v>12.36</v>
       </c>
-      <c r="J44" s="114" t="s">
+      <c r="J44" s="111" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:10">
-      <c r="A45" s="86"/>
+      <c r="A45" s="82"/>
       <c r="B45" s="12" t="s">
         <v>157</v>
       </c>
@@ -5429,12 +5406,12 @@
       <c r="I45" s="12">
         <v>5.12</v>
       </c>
-      <c r="J45" s="114" t="s">
+      <c r="J45" s="111" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:10">
-      <c r="A46" s="86"/>
+      <c r="A46" s="82"/>
       <c r="B46" s="12" t="s">
         <v>159</v>
       </c>
@@ -5445,24 +5422,24 @@
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="114"/>
+      <c r="J46" s="111"/>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:10">
-      <c r="A47" s="86"/>
-      <c r="B47" s="57" t="s">
+      <c r="A47" s="82"/>
+      <c r="B47" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="112"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="109"/>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:10">
-      <c r="A48" s="86"/>
+      <c r="A48" s="82"/>
       <c r="B48" s="12" t="s">
         <v>71</v>
       </c>
@@ -5481,10 +5458,10 @@
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
-      <c r="J48" s="110"/>
+      <c r="J48" s="107"/>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:10">
-      <c r="A49" s="86"/>
+      <c r="A49" s="82"/>
       <c r="B49" s="12" t="s">
         <v>87</v>
       </c>
@@ -5503,10 +5480,10 @@
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
-      <c r="J49" s="110"/>
+      <c r="J49" s="107"/>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:10">
-      <c r="A50" s="86"/>
+      <c r="A50" s="82"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="19" t="s">
@@ -5517,10 +5494,10 @@
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="110"/>
+      <c r="J50" s="107"/>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:10">
-      <c r="A51" s="86"/>
+      <c r="A51" s="82"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="19" t="s">
@@ -5531,10 +5508,10 @@
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="110"/>
+      <c r="J51" s="107"/>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:10">
-      <c r="A52" s="86"/>
+      <c r="A52" s="82"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="19" t="s">
@@ -5545,10 +5522,10 @@
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
-      <c r="J52" s="110"/>
+      <c r="J52" s="107"/>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:10">
-      <c r="A53" s="97"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="19" t="s">
@@ -5559,39 +5536,39 @@
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
-      <c r="J53" s="110"/>
+      <c r="J53" s="107"/>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:10">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="112"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="109"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="86"/>
+      <c r="A55" s="82"/>
       <c r="B55" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="46" t="s">
         <v>64</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="47" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="13" t="s">
@@ -5603,347 +5580,347 @@
       <c r="I55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J55" s="110"/>
+      <c r="J55" s="107"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="86"/>
+      <c r="A56" s="82"/>
       <c r="B56" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="49" t="s">
         <v>71</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="44" t="s">
+      <c r="F56" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G56" s="98">
+      <c r="G56" s="95">
         <v>45366</v>
       </c>
-      <c r="H56" s="44" t="s">
+      <c r="H56" s="26" t="s">
         <v>74</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J56" s="110"/>
+      <c r="J56" s="107"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="86"/>
-      <c r="B57" s="50" t="s">
+      <c r="A57" s="82"/>
+      <c r="B57" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="49" t="s">
         <v>87</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="44" t="s">
+      <c r="F57" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="G57" s="98">
+      <c r="G57" s="95">
         <v>45365</v>
       </c>
-      <c r="H57" s="44" t="s">
+      <c r="H57" s="26" t="s">
         <v>81</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J57" s="110"/>
+      <c r="J57" s="107"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="86"/>
-      <c r="B58" s="50" t="s">
+      <c r="A58" s="82"/>
+      <c r="B58" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="49" t="s">
         <v>87</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F58" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G58" s="98">
+      <c r="G58" s="95">
         <v>45365</v>
       </c>
-      <c r="H58" s="44" t="s">
+      <c r="H58" s="26" t="s">
         <v>85</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J58" s="110"/>
+      <c r="J58" s="107"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="86"/>
-      <c r="B59" s="50" t="s">
+      <c r="A59" s="82"/>
+      <c r="B59" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="49" t="s">
         <v>87</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F59" s="44" t="s">
+      <c r="F59" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G59" s="98">
+      <c r="G59" s="95">
         <v>45364</v>
       </c>
-      <c r="H59" s="44" t="s">
+      <c r="H59" s="26" t="s">
         <v>89</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J59" s="110"/>
+      <c r="J59" s="107"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="86"/>
-      <c r="B60" s="50" t="s">
+      <c r="A60" s="82"/>
+      <c r="B60" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="49" t="s">
         <v>87</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="98">
+      <c r="G60" s="95">
         <v>45364</v>
       </c>
-      <c r="H60" s="44" t="s">
+      <c r="H60" s="26" t="s">
         <v>93</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J60" s="110"/>
+      <c r="J60" s="107"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="86"/>
-      <c r="B61" s="99"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="102"/>
-      <c r="I61" s="100"/>
-      <c r="J61" s="110"/>
-    </row>
-    <row r="62" s="71" customFormat="1" spans="1:10">
-      <c r="A62" s="86"/>
-      <c r="B62" s="99"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="110"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="97"/>
+      <c r="J61" s="107"/>
+    </row>
+    <row r="62" s="67" customFormat="1" spans="1:10">
+      <c r="A62" s="82"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="107"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="86"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="102"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="110"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="107"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="86"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="100"/>
-      <c r="J64" s="110"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="107"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="86"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="100"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="102"/>
-      <c r="I65" s="100"/>
-      <c r="J65" s="110"/>
-    </row>
-    <row r="66" s="71" customFormat="1" spans="1:10">
-      <c r="A66" s="115" t="s">
+      <c r="A65" s="82"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="98"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="107"/>
+    </row>
+    <row r="66" s="67" customFormat="1" spans="1:10">
+      <c r="A66" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="B66" s="116"/>
-      <c r="C66" s="116" t="s">
+      <c r="B66" s="113"/>
+      <c r="C66" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="116" t="s">
+      <c r="D66" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="E66" s="116"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="116" t="s">
+      <c r="E66" s="113"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="124"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="121"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="118" t="s">
+      <c r="A67" s="115" t="s">
         <v>167</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D67" s="90" t="s">
+      <c r="D67" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
       <c r="G67" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="109"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="106"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="118" t="s">
+      <c r="A68" s="115" t="s">
         <v>170</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="90" t="s">
+      <c r="D68" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
       <c r="G68" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="109"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="106"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="118" t="s">
+      <c r="A69" s="115" t="s">
         <v>174</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D69" s="90" t="s">
+      <c r="D69" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
       <c r="G69" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="109"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="106"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="118" t="s">
+      <c r="A70" s="115" t="s">
         <v>177</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="90" t="s">
+      <c r="D70" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
       <c r="G70" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="109"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="106"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="118" t="s">
+      <c r="A71" s="115" t="s">
         <v>179</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D71" s="90" t="s">
+      <c r="D71" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
       <c r="G71" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H71" s="88"/>
-      <c r="I71" s="88"/>
-      <c r="J71" s="109"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="106"/>
     </row>
     <row r="72" ht="14.25" spans="1:10">
-      <c r="A72" s="119" t="s">
+      <c r="A72" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="B72" s="120"/>
-      <c r="C72" s="120" t="s">
+      <c r="B72" s="117"/>
+      <c r="C72" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="D72" s="121" t="s">
+      <c r="D72" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="E72" s="121"/>
-      <c r="F72" s="121"/>
-      <c r="G72" s="122" t="s">
+      <c r="E72" s="118"/>
+      <c r="F72" s="118"/>
+      <c r="G72" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="H72" s="123"/>
-      <c r="I72" s="123"/>
-      <c r="J72" s="125"/>
+      <c r="H72" s="120"/>
+      <c r="I72" s="120"/>
+      <c r="J72" s="122"/>
     </row>
     <row r="73" ht="24" customHeight="1"/>
     <row r="74" ht="24" customHeight="1"/>
@@ -6051,12 +6028,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="XFD96" sqref="XFD96:XFD101"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="C17 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -6281,7 +6258,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="12">
         <v>4000</v>
@@ -6322,26 +6299,26 @@
       <c r="B13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>19</v>
+      <c r="C13" s="20">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0.541666666666667</v>
       </c>
       <c r="J13" s="38"/>
     </row>
@@ -6350,26 +6327,26 @@
       <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>19</v>
+      <c r="C14" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="12">
+        <v>40000</v>
+      </c>
+      <c r="E14" s="12">
+        <v>6541</v>
+      </c>
+      <c r="F14" s="12">
+        <v>10570</v>
+      </c>
+      <c r="G14" s="12">
+        <v>12500</v>
+      </c>
+      <c r="H14" s="12">
+        <v>12800</v>
+      </c>
+      <c r="I14" s="12">
+        <v>22350</v>
       </c>
       <c r="J14" s="39"/>
     </row>
@@ -6392,26 +6369,26 @@
       <c r="B16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>19</v>
+      <c r="C16" s="20">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0.541666666666667</v>
       </c>
       <c r="J16" s="38"/>
     </row>
@@ -6420,26 +6397,26 @@
       <c r="B17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>19</v>
+      <c r="C17" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="12">
+        <v>6541</v>
+      </c>
+      <c r="F17" s="12">
+        <v>10570</v>
+      </c>
+      <c r="G17" s="12">
+        <v>12500</v>
+      </c>
+      <c r="H17" s="12">
+        <v>11800</v>
+      </c>
+      <c r="I17" s="12">
+        <v>22350</v>
       </c>
       <c r="J17" s="39"/>
     </row>
@@ -7050,210 +7027,232 @@
       <c r="J43" s="39"/>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:10">
-      <c r="A44" s="11"/>
+      <c r="A44" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="B44" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="12">
-        <v>3</v>
+        <v>189</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="14">
+        <f>SUM(I50,I51,I52)</f>
+        <v>5553</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:10">
       <c r="A45" s="11"/>
       <c r="B45" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="39"/>
+        <v>190</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:10">
       <c r="A46" s="11"/>
-      <c r="B46" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="34"/>
+      <c r="B46" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:10">
       <c r="A47" s="11"/>
-      <c r="B47" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="J47" s="43"/>
+      <c r="B47" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="34"/>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:10">
       <c r="A48" s="11"/>
-      <c r="B48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="12">
-        <v>20</v>
-      </c>
-      <c r="D48" s="12">
-        <v>30</v>
-      </c>
-      <c r="E48" s="12">
-        <v>12</v>
-      </c>
-      <c r="F48" s="12">
-        <v>15</v>
-      </c>
-      <c r="G48" s="12">
-        <v>23</v>
-      </c>
-      <c r="H48" s="12">
-        <v>34</v>
-      </c>
-      <c r="I48" s="12">
-        <v>12</v>
-      </c>
-      <c r="J48" s="42"/>
+      <c r="B48" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="35"/>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:10">
-      <c r="A49" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="14">
-        <f>SUM(I55,I56,I57)</f>
-        <v>5553</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="40"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="23">
+        <v>46</v>
+      </c>
+      <c r="D49" s="23">
+        <v>47</v>
+      </c>
+      <c r="E49" s="23">
+        <v>48</v>
+      </c>
+      <c r="F49" s="23">
+        <v>49</v>
+      </c>
+      <c r="G49" s="23">
+        <v>50</v>
+      </c>
+      <c r="H49" s="23">
+        <v>51</v>
+      </c>
+      <c r="I49" s="23">
+        <v>52</v>
+      </c>
+      <c r="J49" s="36"/>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:10">
       <c r="A50" s="11"/>
       <c r="B50" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="41"/>
+        <v>23</v>
+      </c>
+      <c r="C50" s="14">
+        <v>2650</v>
+      </c>
+      <c r="D50" s="14">
+        <v>2651</v>
+      </c>
+      <c r="E50" s="14">
+        <v>2652</v>
+      </c>
+      <c r="F50" s="14">
+        <v>2653</v>
+      </c>
+      <c r="G50" s="14">
+        <v>2654</v>
+      </c>
+      <c r="H50" s="14">
+        <v>2655</v>
+      </c>
+      <c r="I50" s="14">
+        <v>2656</v>
+      </c>
+      <c r="J50" s="37"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:10">
       <c r="A51" s="11"/>
       <c r="B51" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="C51" s="14">
+        <v>1860</v>
+      </c>
+      <c r="D51" s="14">
+        <v>1861</v>
+      </c>
+      <c r="E51" s="14">
+        <v>1862</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1863</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1864</v>
+      </c>
+      <c r="H51" s="14">
+        <v>1865</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1866</v>
+      </c>
+      <c r="J51" s="35"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:10">
       <c r="A52" s="11"/>
-      <c r="B52" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="34"/>
+      <c r="B52" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="14">
+        <v>1025</v>
+      </c>
+      <c r="D52" s="14">
+        <v>1026</v>
+      </c>
+      <c r="E52" s="14">
+        <v>1027</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1028</v>
+      </c>
+      <c r="G52" s="14">
+        <v>1029</v>
+      </c>
+      <c r="H52" s="14">
+        <v>1030</v>
+      </c>
+      <c r="I52" s="14">
+        <v>1031</v>
+      </c>
+      <c r="J52" s="35"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:10">
       <c r="A53" s="11"/>
       <c r="B53" s="19" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -7269,117 +7268,117 @@
       <c r="B54" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="25">
-        <v>46</v>
-      </c>
-      <c r="D54" s="25">
-        <v>47</v>
-      </c>
-      <c r="E54" s="25">
-        <v>48</v>
-      </c>
-      <c r="F54" s="25">
-        <v>49</v>
-      </c>
-      <c r="G54" s="25">
-        <v>50</v>
-      </c>
-      <c r="H54" s="25">
-        <v>51</v>
-      </c>
-      <c r="I54" s="25">
-        <v>52</v>
+      <c r="C54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="J54" s="36"/>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:10">
       <c r="A55" s="11"/>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="14">
-        <v>2650</v>
-      </c>
-      <c r="D55" s="14">
-        <v>2651</v>
-      </c>
-      <c r="E55" s="14">
-        <v>2652</v>
-      </c>
-      <c r="F55" s="14">
-        <v>2653</v>
-      </c>
-      <c r="G55" s="14">
-        <v>2654</v>
-      </c>
-      <c r="H55" s="14">
-        <v>2655</v>
-      </c>
-      <c r="I55" s="14">
-        <v>2656</v>
+      <c r="C55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="J55" s="37"/>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:10">
       <c r="A56" s="11"/>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="14">
-        <v>1860</v>
-      </c>
-      <c r="D56" s="14">
-        <v>1861</v>
-      </c>
-      <c r="E56" s="14">
-        <v>1862</v>
-      </c>
-      <c r="F56" s="14">
-        <v>1863</v>
-      </c>
-      <c r="G56" s="14">
-        <v>1864</v>
-      </c>
-      <c r="H56" s="14">
-        <v>1865</v>
-      </c>
-      <c r="I56" s="14">
-        <v>1866</v>
+      <c r="C56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="J56" s="35"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:10">
       <c r="A57" s="11"/>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="14">
-        <v>1025</v>
-      </c>
-      <c r="D57" s="14">
-        <v>1026</v>
-      </c>
-      <c r="E57" s="14">
-        <v>1027</v>
-      </c>
-      <c r="F57" s="14">
-        <v>1028</v>
-      </c>
-      <c r="G57" s="14">
-        <v>1029</v>
-      </c>
-      <c r="H57" s="14">
-        <v>1030</v>
-      </c>
-      <c r="I57" s="14">
-        <v>1031</v>
+      <c r="C57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="J57" s="35"/>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:10">
       <c r="A58" s="11"/>
       <c r="B58" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -7395,25 +7394,25 @@
       <c r="B59" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="26" t="s">
+      <c r="C59" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="24" t="s">
         <v>19</v>
       </c>
       <c r="J59" s="36"/>
@@ -7423,25 +7422,25 @@
       <c r="B60" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="27" t="s">
+      <c r="C60" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="25" t="s">
         <v>19</v>
       </c>
       <c r="J60" s="37"/>
@@ -7451,25 +7450,25 @@
       <c r="B61" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="27" t="s">
+      <c r="C61" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="25" t="s">
         <v>19</v>
       </c>
       <c r="J61" s="35"/>
@@ -7479,758 +7478,693 @@
       <c r="B62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="27" t="s">
+      <c r="C62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="25" t="s">
         <v>19</v>
       </c>
       <c r="J62" s="35"/>
     </row>
-    <row r="63" ht="18" customHeight="1" spans="1:10">
-      <c r="A63" s="11"/>
-      <c r="B63" s="19" t="s">
+    <row r="63" ht="20" customHeight="1" spans="1:10">
+      <c r="A63" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="35"/>
-    </row>
-    <row r="64" ht="18" customHeight="1" spans="1:10">
+      <c r="J63" s="42"/>
+    </row>
+    <row r="64" ht="20" customHeight="1" spans="1:10">
       <c r="A64" s="11"/>
-      <c r="B64" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>19</v>
+      <c r="B64" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="36"/>
-    </row>
-    <row r="65" ht="18" customHeight="1" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" ht="16" customHeight="1" spans="1:10">
       <c r="A65" s="11"/>
-      <c r="B65" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="37"/>
-    </row>
-    <row r="66" ht="18" customHeight="1" spans="1:10">
+      <c r="B65" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="44">
+        <v>425</v>
+      </c>
+      <c r="F65" s="45">
+        <v>1111</v>
+      </c>
+      <c r="G65" s="44">
+        <v>12750</v>
+      </c>
+      <c r="H65" s="45">
+        <f>F65*30</f>
+        <v>33330</v>
+      </c>
+      <c r="I65" s="44">
+        <v>153000</v>
+      </c>
+      <c r="J65" s="62">
+        <v>1476000</v>
+      </c>
+    </row>
+    <row r="66" ht="16" customHeight="1" spans="1:10">
       <c r="A66" s="11"/>
-      <c r="B66" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" s="35"/>
-    </row>
-    <row r="67" ht="18" customHeight="1" spans="1:10">
+      <c r="B66" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="44">
+        <v>426</v>
+      </c>
+      <c r="F66" s="45">
+        <v>4100</v>
+      </c>
+      <c r="G66" s="44">
+        <v>12780</v>
+      </c>
+      <c r="H66" s="45">
+        <v>123000</v>
+      </c>
+      <c r="I66" s="44">
+        <v>153360</v>
+      </c>
+      <c r="J66" s="62">
+        <v>1476000</v>
+      </c>
+    </row>
+    <row r="67" ht="16" customHeight="1" spans="1:10">
       <c r="A67" s="11"/>
-      <c r="B67" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67" s="35"/>
-    </row>
-    <row r="68" ht="20" customHeight="1" spans="1:10">
-      <c r="A68" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="64"/>
-    </row>
-    <row r="69" ht="20" customHeight="1" spans="1:10">
+      <c r="B67" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="44">
+        <v>427</v>
+      </c>
+      <c r="F67" s="45">
+        <v>4100</v>
+      </c>
+      <c r="G67" s="44">
+        <v>12810</v>
+      </c>
+      <c r="H67" s="45">
+        <v>123000</v>
+      </c>
+      <c r="I67" s="44">
+        <v>153720</v>
+      </c>
+      <c r="J67" s="62">
+        <v>1476000</v>
+      </c>
+    </row>
+    <row r="68" ht="16" customHeight="1" spans="1:10">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="44">
+        <v>1428</v>
+      </c>
+      <c r="F68" s="45">
+        <v>4100</v>
+      </c>
+      <c r="G68" s="44">
+        <v>42840</v>
+      </c>
+      <c r="H68" s="45">
+        <v>123000</v>
+      </c>
+      <c r="I68" s="44">
+        <v>514080</v>
+      </c>
+      <c r="J68" s="62">
+        <v>1476000</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="1" spans="1:10">
       <c r="A69" s="11"/>
       <c r="B69" s="12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J69" s="65" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="E69" s="44">
+        <v>1428</v>
+      </c>
+      <c r="F69" s="45">
+        <v>4100</v>
+      </c>
+      <c r="G69" s="44">
+        <v>42840</v>
+      </c>
+      <c r="H69" s="45">
+        <v>123000</v>
+      </c>
+      <c r="I69" s="44">
+        <v>514080</v>
+      </c>
+      <c r="J69" s="62">
+        <v>1476000</v>
       </c>
     </row>
     <row r="70" ht="16" customHeight="1" spans="1:10">
       <c r="A70" s="11"/>
       <c r="B70" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="46">
-        <v>425</v>
-      </c>
-      <c r="F70" s="47">
+        <v>41</v>
+      </c>
+      <c r="E70" s="44">
+        <v>1428</v>
+      </c>
+      <c r="F70" s="45">
         <v>4100</v>
       </c>
-      <c r="G70" s="46">
-        <v>12750</v>
-      </c>
-      <c r="H70" s="47">
+      <c r="G70" s="44">
+        <v>42840</v>
+      </c>
+      <c r="H70" s="45">
         <v>123000</v>
       </c>
-      <c r="I70" s="46">
-        <v>153000</v>
-      </c>
-      <c r="J70" s="66">
+      <c r="I70" s="44">
+        <v>514080</v>
+      </c>
+      <c r="J70" s="62">
         <v>1476000</v>
       </c>
     </row>
     <row r="71" ht="16" customHeight="1" spans="1:10">
       <c r="A71" s="11"/>
       <c r="B71" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="46">
-        <v>426</v>
-      </c>
-      <c r="F71" s="47">
+      <c r="E71" s="44">
+        <v>235</v>
+      </c>
+      <c r="F71" s="45">
         <v>4100</v>
       </c>
-      <c r="G71" s="46">
-        <v>12780</v>
-      </c>
-      <c r="H71" s="47">
+      <c r="G71" s="44">
+        <v>7050</v>
+      </c>
+      <c r="H71" s="45">
         <v>123000</v>
       </c>
-      <c r="I71" s="46">
-        <v>153360</v>
-      </c>
-      <c r="J71" s="66">
+      <c r="I71" s="44">
+        <v>84600</v>
+      </c>
+      <c r="J71" s="62">
         <v>1476000</v>
       </c>
     </row>
     <row r="72" ht="16" customHeight="1" spans="1:10">
       <c r="A72" s="11"/>
       <c r="B72" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="46">
-        <v>427</v>
-      </c>
-      <c r="F72" s="47">
+      <c r="E72" s="44">
+        <v>235</v>
+      </c>
+      <c r="F72" s="45">
         <v>4100</v>
       </c>
-      <c r="G72" s="46">
-        <v>12810</v>
-      </c>
-      <c r="H72" s="47">
+      <c r="G72" s="44">
+        <v>7050</v>
+      </c>
+      <c r="H72" s="45">
         <v>123000</v>
       </c>
-      <c r="I72" s="46">
-        <v>153720</v>
-      </c>
-      <c r="J72" s="66">
+      <c r="I72" s="44">
+        <v>84600</v>
+      </c>
+      <c r="J72" s="62">
         <v>1476000</v>
       </c>
     </row>
     <row r="73" ht="16" customHeight="1" spans="1:10">
       <c r="A73" s="11"/>
       <c r="B73" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" s="46">
-        <v>1428</v>
-      </c>
-      <c r="F73" s="47">
+        <v>36</v>
+      </c>
+      <c r="E73" s="44">
+        <v>235</v>
+      </c>
+      <c r="F73" s="45">
         <v>4100</v>
       </c>
-      <c r="G73" s="46">
-        <v>42840</v>
-      </c>
-      <c r="H73" s="47">
+      <c r="G73" s="44">
+        <v>7050</v>
+      </c>
+      <c r="H73" s="45">
         <v>123000</v>
       </c>
-      <c r="I73" s="46">
-        <v>514080</v>
-      </c>
-      <c r="J73" s="66">
+      <c r="I73" s="44">
+        <v>84600</v>
+      </c>
+      <c r="J73" s="62">
         <v>1476000</v>
       </c>
     </row>
     <row r="74" ht="16" customHeight="1" spans="1:10">
       <c r="A74" s="11"/>
-      <c r="B74" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="46">
-        <v>1428</v>
-      </c>
-      <c r="F74" s="47">
-        <v>4100</v>
-      </c>
-      <c r="G74" s="46">
-        <v>42840</v>
-      </c>
-      <c r="H74" s="47">
-        <v>123000</v>
-      </c>
-      <c r="I74" s="46">
-        <v>514080</v>
-      </c>
-      <c r="J74" s="66">
-        <v>1476000</v>
+      <c r="B74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="63" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="16" customHeight="1" spans="1:10">
       <c r="A75" s="11"/>
-      <c r="B75" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="46">
-        <v>1428</v>
-      </c>
-      <c r="F75" s="47">
-        <v>4100</v>
-      </c>
-      <c r="G75" s="46">
-        <v>42840</v>
-      </c>
-      <c r="H75" s="47">
-        <v>123000</v>
-      </c>
-      <c r="I75" s="46">
-        <v>514080</v>
-      </c>
-      <c r="J75" s="66">
-        <v>1476000</v>
+      <c r="B75" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="63" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="76" ht="16" customHeight="1" spans="1:10">
       <c r="A76" s="11"/>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1" spans="1:10">
+      <c r="A77" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="34"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="11"/>
+      <c r="B78" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J78" s="35"/>
+    </row>
+    <row r="79" ht="27" spans="1:10">
+      <c r="A79" s="11"/>
+      <c r="B79" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="46">
-        <v>235</v>
-      </c>
-      <c r="F76" s="47">
-        <v>4100</v>
-      </c>
-      <c r="G76" s="46">
-        <v>7050</v>
-      </c>
-      <c r="H76" s="47">
-        <v>123000</v>
-      </c>
-      <c r="I76" s="46">
-        <v>84600</v>
-      </c>
-      <c r="J76" s="66">
-        <v>1476000</v>
-      </c>
-    </row>
-    <row r="77" ht="16" customHeight="1" spans="1:10">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12" t="s">
+      <c r="D79" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="50">
+        <v>45366</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J79" s="35"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="11"/>
+      <c r="B80" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80" s="50">
+        <v>45365</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J80" s="35"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="11"/>
+      <c r="B81" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G81" s="50">
+        <v>45365</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J81" s="35"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="11"/>
+      <c r="B82" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="46">
-        <v>235</v>
-      </c>
-      <c r="F77" s="47">
-        <v>4100</v>
-      </c>
-      <c r="G77" s="46">
-        <v>7050</v>
-      </c>
-      <c r="H77" s="47">
-        <v>123000</v>
-      </c>
-      <c r="I77" s="46">
-        <v>84600</v>
-      </c>
-      <c r="J77" s="66">
-        <v>1476000</v>
-      </c>
-    </row>
-    <row r="78" ht="16" customHeight="1" spans="1:10">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="46">
-        <v>235</v>
-      </c>
-      <c r="F78" s="47">
-        <v>4100</v>
-      </c>
-      <c r="G78" s="46">
-        <v>7050</v>
-      </c>
-      <c r="H78" s="47">
-        <v>123000</v>
-      </c>
-      <c r="I78" s="46">
-        <v>84600</v>
-      </c>
-      <c r="J78" s="66">
-        <v>1476000</v>
-      </c>
-    </row>
-    <row r="79" ht="16" customHeight="1" spans="1:10">
-      <c r="A79" s="11"/>
-      <c r="B79" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" ht="16" customHeight="1" spans="1:10">
-      <c r="A80" s="11"/>
-      <c r="B80" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J80" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" ht="16" customHeight="1" spans="1:10">
-      <c r="A81" s="11"/>
-      <c r="B81" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J81" s="67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" ht="20" customHeight="1" spans="1:10">
-      <c r="A82" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="34"/>
+      <c r="D82" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G82" s="50">
+        <v>45364</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J82" s="35"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="11"/>
-      <c r="B83" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D83" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>68</v>
+      <c r="B83" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G83" s="50">
+        <v>45364</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="J83" s="35"/>
     </row>
-    <row r="84" ht="27" spans="1:10">
+    <row r="84" spans="1:10">
       <c r="A84" s="11"/>
-      <c r="B84" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F84" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="G84" s="52">
-        <v>45366</v>
-      </c>
-      <c r="H84" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="22"/>
       <c r="J84" s="35"/>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="11"/>
-      <c r="B85" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F85" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="G85" s="52">
-        <v>45365</v>
-      </c>
-      <c r="H85" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="22"/>
       <c r="J85" s="35"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="11"/>
-      <c r="B86" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F86" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="G86" s="52">
-        <v>45365</v>
-      </c>
-      <c r="H86" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="22"/>
       <c r="J86" s="35"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="11"/>
-      <c r="B87" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D87" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F87" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="G87" s="52">
-        <v>45364</v>
-      </c>
-      <c r="H87" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="22"/>
       <c r="J87" s="35"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="11"/>
-      <c r="B88" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F88" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="G88" s="52">
-        <v>45364</v>
-      </c>
-      <c r="H88" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="22"/>
       <c r="J88" s="35"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="11"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
-      <c r="D89" s="53"/>
+      <c r="D89" s="51"/>
       <c r="E89" s="22"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="54"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="52"/>
       <c r="I89" s="22"/>
       <c r="J89" s="35"/>
     </row>
@@ -8238,247 +8172,187 @@
       <c r="A90" s="11"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
-      <c r="D90" s="53"/>
+      <c r="D90" s="51"/>
       <c r="E90" s="22"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="54"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="52"/>
       <c r="I90" s="22"/>
       <c r="J90" s="35"/>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="11"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="54"/>
+    <row r="91" ht="24" customHeight="1" spans="1:10">
+      <c r="A91" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
       <c r="G91" s="55"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="35"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="11"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="35"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="11"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="35"/>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="11"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="54"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="35"/>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="11"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="35"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="64"/>
+    </row>
+    <row r="92" ht="24" customHeight="1" spans="1:10">
+      <c r="A92" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="F92" s="57"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="42"/>
+    </row>
+    <row r="93" ht="24" customHeight="1" spans="1:10">
+      <c r="A93" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="14">
+        <v>9999999</v>
+      </c>
+      <c r="D93" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="14">
+        <v>9999999</v>
+      </c>
+      <c r="G93" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I93" s="14">
+        <v>9999999</v>
+      </c>
+      <c r="J93" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" ht="24" customHeight="1" spans="1:10">
+      <c r="A94" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="14">
+        <v>9999999</v>
+      </c>
+      <c r="D94" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="14">
+        <v>9999999</v>
+      </c>
+      <c r="G94" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I94" s="14">
+        <v>9999999</v>
+      </c>
+      <c r="J94" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" ht="24" customHeight="1" spans="1:10">
+      <c r="A95" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="14">
+        <v>9999999</v>
+      </c>
+      <c r="D95" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="14">
+        <v>9999999</v>
+      </c>
+      <c r="G95" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I95" s="14">
+        <v>9999999</v>
+      </c>
+      <c r="J95" s="65" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="96" ht="24" customHeight="1" spans="1:10">
-      <c r="A96" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="B96" s="57"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="57"/>
-      <c r="I96" s="57"/>
-      <c r="J96" s="68"/>
+      <c r="A96" s="60"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="66"/>
     </row>
     <row r="97" ht="24" customHeight="1" spans="1:10">
-      <c r="A97" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="F97" s="59"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="I97" s="13"/>
-      <c r="J97" s="64"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="66"/>
     </row>
     <row r="98" ht="24" customHeight="1" spans="1:10">
-      <c r="A98" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="14">
-        <v>9999999</v>
-      </c>
-      <c r="D98" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="14">
-        <v>9999999</v>
-      </c>
-      <c r="G98" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="I98" s="14">
-        <v>9999999</v>
-      </c>
-      <c r="J98" s="69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" ht="24" customHeight="1" spans="1:10">
-      <c r="A99" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="14">
-        <v>9999999</v>
-      </c>
-      <c r="D99" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="14">
-        <v>9999999</v>
-      </c>
-      <c r="G99" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="I99" s="14">
-        <v>9999999</v>
-      </c>
-      <c r="J99" s="69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" ht="24" customHeight="1" spans="1:10">
-      <c r="A100" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="14">
-        <v>9999999</v>
-      </c>
-      <c r="D100" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="14">
-        <v>9999999</v>
-      </c>
-      <c r="G100" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="I100" s="14">
-        <v>9999999</v>
-      </c>
-      <c r="J100" s="69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" ht="24" customHeight="1" spans="1:10">
-      <c r="A101" s="62"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="70"/>
-    </row>
-    <row r="102" ht="24" customHeight="1" spans="1:10">
-      <c r="A102" s="62"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="63"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="70"/>
-    </row>
-    <row r="103" ht="24" customHeight="1" spans="1:10">
-      <c r="A103" s="62"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="63"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="70"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="66"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <mergeCells count="33">
+  <mergeCells count="32">
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="B9:J9"/>
@@ -8492,22 +8366,21 @@
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B38:J38"/>
     <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B48:J48"/>
     <mergeCell ref="B53:J53"/>
     <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="B82:J82"/>
-    <mergeCell ref="A96:J96"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="A91:J91"/>
     <mergeCell ref="A5:A17"/>
     <mergeCell ref="A18:A30"/>
-    <mergeCell ref="A31:A48"/>
-    <mergeCell ref="A49:A67"/>
-    <mergeCell ref="A68:A81"/>
-    <mergeCell ref="A82:A95"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="A44:A62"/>
+    <mergeCell ref="A63:A76"/>
+    <mergeCell ref="A77:A90"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B31:B33"/>

--- a/public/excel/AIOC数据表单.xlsx
+++ b/public/excel/AIOC数据表单.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="综合态势" sheetId="1" r:id="rId1"/>
     <sheet name="安防管理" sheetId="5" r:id="rId2"/>
     <sheet name="能源管理" sheetId="6" r:id="rId3"/>
-    <sheet name="WpsReserved_CellImgList" sheetId="4" state="veryHidden" r:id="rId4"/>
+    <sheet name="设备管理" sheetId="7" r:id="rId4"/>
+    <sheet name="WpsReserved_CellImgList" sheetId="4" state="veryHidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6030,8 +6031,8 @@
   <sheetPr/>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D11" sqref="C17 D11"/>
     </sheetView>
@@ -8397,6 +8398,22 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H94" sqref="A93:J99"/>
     </sheetView>
